--- a/nop-auth/model/nop-auth.orm.xlsx
+++ b/nop-auth/model/nop-auth.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-auth\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EF6854-D18B-43AC-950E-C53682077354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831E8935-C16A-4D08-B5D8-E7068E695E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="1" activeTab="1" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="1" activeTab="6" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="494">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1751,10 +1751,6 @@
   </si>
   <si>
     <t>真实姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no-web</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2050,6 +2046,14 @@
   </si>
   <si>
     <t>io.github.entropy-cloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no-web,many-to-many</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub,ref-pub,ref-cascade-delete,ref-insertable,ref-updatable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3168,7 +3172,7 @@
       <c r="B2" s="58"/>
       <c r="C2" s="58"/>
       <c r="D2" s="63" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E2" s="64"/>
       <c r="F2" s="64"/>
@@ -3177,7 +3181,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="47" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J2" s="48"/>
       <c r="K2" s="48"/>
@@ -3379,7 +3383,7 @@
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="N9" s="14"/>
       <c r="O9" s="14" t="s">
@@ -3427,7 +3431,7 @@
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>338</v>
@@ -3849,7 +3853,7 @@
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>325</v>
@@ -4008,7 +4012,7 @@
         <v>29</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
@@ -4280,7 +4284,7 @@
         <v>173</v>
       </c>
       <c r="H38" s="50" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I38" s="51"/>
       <c r="J38" s="52"/>
@@ -4302,7 +4306,7 @@
       </c>
       <c r="C39" s="57"/>
       <c r="D39" s="50" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E39" s="51"/>
       <c r="F39" s="52"/>
@@ -4332,7 +4336,7 @@
       </c>
       <c r="C40" s="57"/>
       <c r="D40" s="50" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E40" s="51"/>
       <c r="F40" s="51"/>
@@ -4340,7 +4344,7 @@
         <v>374</v>
       </c>
       <c r="H40" s="51" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I40" s="51"/>
       <c r="J40" s="52"/>
@@ -4369,7 +4373,7 @@
       </c>
       <c r="L41" s="71"/>
       <c r="M41" s="47" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N41" s="48"/>
       <c r="O41" s="48"/>
@@ -4720,8 +4724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E728D8DB-CA04-401F-A90E-01349EF3FF55}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36:H36"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35:P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4797,7 +4801,7 @@
       <c r="B3" s="58"/>
       <c r="C3" s="58"/>
       <c r="D3" s="63" t="s">
-        <v>428</v>
+        <v>492</v>
       </c>
       <c r="E3" s="64"/>
       <c r="F3" s="64"/>
@@ -5047,7 +5051,7 @@
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
@@ -5400,7 +5404,7 @@
       </c>
       <c r="L24" s="71"/>
       <c r="M24" s="47" t="s">
-        <v>446</v>
+        <v>493</v>
       </c>
       <c r="N24" s="48"/>
       <c r="O24" s="48"/>
@@ -5602,7 +5606,7 @@
       </c>
       <c r="L32" s="71"/>
       <c r="M32" s="47" t="s">
-        <v>386</v>
+        <v>493</v>
       </c>
       <c r="N32" s="48"/>
       <c r="O32" s="48"/>
@@ -6338,14 +6342,14 @@
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="G19" s="14" t="s">
         <v>457</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>458</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>73</v>
@@ -6627,7 +6631,7 @@
       <c r="B2" s="58"/>
       <c r="C2" s="58"/>
       <c r="D2" s="63" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E2" s="64"/>
       <c r="F2" s="64"/>
@@ -6789,11 +6793,11 @@
         <v>309</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>21</v>
@@ -7644,7 +7648,7 @@
         <v>389</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>21</v>
@@ -7872,11 +7876,11 @@
         <v>86</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I15" s="37"/>
       <c r="J15" s="38" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
@@ -8148,7 +8152,7 @@
         <v>173</v>
       </c>
       <c r="H25" s="50" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I25" s="51"/>
       <c r="J25" s="52"/>
@@ -8170,7 +8174,7 @@
       </c>
       <c r="C26" s="57"/>
       <c r="D26" s="50" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E26" s="51"/>
       <c r="F26" s="52"/>
@@ -8200,7 +8204,7 @@
       </c>
       <c r="C27" s="57"/>
       <c r="D27" s="50" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E27" s="51"/>
       <c r="F27" s="51"/>
@@ -8208,7 +8212,7 @@
         <v>374</v>
       </c>
       <c r="H27" s="51" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I27" s="51"/>
       <c r="J27" s="52"/>
@@ -8415,7 +8419,7 @@
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
       <c r="D1" s="63" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E1" s="64"/>
       <c r="F1" s="64"/>
@@ -8439,7 +8443,7 @@
       <c r="B2" s="58"/>
       <c r="C2" s="58"/>
       <c r="D2" s="63" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E2" s="64"/>
       <c r="F2" s="64"/>
@@ -8603,7 +8607,7 @@
         <v>389</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>21</v>
@@ -8681,7 +8685,7 @@
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
@@ -9150,13 +9154,13 @@
         <v>309</v>
       </c>
       <c r="D8" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>470</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>471</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>21</v>
@@ -9320,11 +9324,11 @@
         <v>86</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I13" s="37"/>
       <c r="J13" s="38" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K13" s="37"/>
       <c r="L13" s="37"/>
@@ -9576,7 +9580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9313AC94-4A2B-4F66-85AD-4A3D79664E62}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -9589,7 +9593,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>24</v>
@@ -9647,7 +9651,7 @@
         <v>270</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>277</v>
@@ -9897,7 +9901,7 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -10023,13 +10027,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>320</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -10195,7 +10199,7 @@
       <c r="B3" s="58"/>
       <c r="C3" s="58"/>
       <c r="D3" s="63" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E3" s="64"/>
       <c r="F3" s="64"/>
@@ -10370,7 +10374,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>32</v>
@@ -10967,7 +10971,7 @@
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>396</v>
@@ -10999,7 +11003,7 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>393</v>
@@ -11205,13 +11209,13 @@
         <v>86</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I34" s="33" t="s">
         <v>29</v>
       </c>
       <c r="J34" s="34" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K34" s="33"/>
       <c r="L34" s="33"/>
@@ -11671,7 +11675,7 @@
       </c>
       <c r="C52" s="57"/>
       <c r="D52" s="50" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E52" s="51"/>
       <c r="F52" s="51"/>
@@ -11686,7 +11690,7 @@
       </c>
       <c r="L52" s="71"/>
       <c r="M52" s="47" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N52" s="48"/>
       <c r="O52" s="48"/>
@@ -11699,7 +11703,7 @@
       </c>
       <c r="C53" s="57"/>
       <c r="D53" s="50" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E53" s="51"/>
       <c r="F53" s="51"/>
@@ -11822,13 +11826,13 @@
         <v>1</v>
       </c>
       <c r="C58" s="79" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D58" s="80"/>
       <c r="E58" s="81"/>
       <c r="F58" s="3"/>
       <c r="G58" s="79" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H58" s="81"/>
       <c r="I58" s="3"/>
@@ -11860,7 +11864,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="53" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B61" s="54"/>
       <c r="C61" s="54"/>
@@ -11883,7 +11887,7 @@
         <v>22</v>
       </c>
       <c r="B62" s="56" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C62" s="57"/>
       <c r="D62" s="56" t="s">
@@ -11897,12 +11901,12 @@
         <v>3</v>
       </c>
       <c r="H62" s="58" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I62" s="58"/>
       <c r="J62" s="58"/>
       <c r="K62" s="56" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L62" s="59"/>
       <c r="M62" s="59"/>
@@ -11915,17 +11919,17 @@
         <v>1</v>
       </c>
       <c r="B63" s="46" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C63" s="46"/>
       <c r="D63" s="46" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E63" s="46"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="47" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I63" s="48"/>
       <c r="J63" s="49"/>
@@ -11976,7 +11980,7 @@
     </row>
     <row r="67" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="60" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C67" s="61"/>
       <c r="D67" s="61"/>
@@ -12124,7 +12128,7 @@
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
       <c r="D1" s="63" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E1" s="64"/>
       <c r="F1" s="64"/>
@@ -12148,7 +12152,7 @@
       <c r="B2" s="58"/>
       <c r="C2" s="58"/>
       <c r="D2" s="63" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E2" s="64"/>
       <c r="F2" s="64"/>
@@ -12157,7 +12161,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="47" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J2" s="48"/>
       <c r="K2" s="48"/>
@@ -12194,7 +12198,7 @@
       <c r="B4" s="58"/>
       <c r="C4" s="58"/>
       <c r="D4" s="63" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E4" s="64"/>
       <c r="F4" s="64"/>
@@ -12347,13 +12351,13 @@
         <v>205</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>206</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="10" t="s">
@@ -12378,14 +12382,14 @@
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>479</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>480</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="10" t="s">
@@ -12401,7 +12405,7 @@
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="P10" s="1"/>
     </row>
@@ -12424,13 +12428,13 @@
         <v>86</v>
       </c>
       <c r="H11" s="42" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I11" s="41" t="s">
         <v>29</v>
       </c>
       <c r="J11" s="42" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K11" s="41"/>
       <c r="L11" s="41"/>
@@ -13017,7 +13021,7 @@
       <c r="B3" s="58"/>
       <c r="C3" s="58"/>
       <c r="D3" s="63" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E3" s="64"/>
       <c r="F3" s="64"/>
@@ -13215,16 +13219,16 @@
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>389</v>
       </c>
       <c r="F10" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>460</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>461</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="10"/>
@@ -13238,7 +13242,7 @@
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="P10" s="1"/>
     </row>
@@ -13263,7 +13267,7 @@
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K11" s="10">
         <v>1</v>
@@ -13272,7 +13276,7 @@
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
       <c r="O11" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P11" s="1"/>
     </row>
@@ -13301,7 +13305,7 @@
         <v>29</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -13354,7 +13358,7 @@
         <v>70</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>71</v>
@@ -13390,7 +13394,7 @@
         <v>74</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>75</v>
@@ -13424,7 +13428,7 @@
         <v>78</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>79</v>
@@ -13460,7 +13464,7 @@
         <v>81</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>82</v>
@@ -13538,7 +13542,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="53" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B21" s="54"/>
       <c r="C21" s="54"/>
@@ -13561,7 +13565,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C22" s="57"/>
       <c r="D22" s="56" t="s">
@@ -13575,12 +13579,12 @@
         <v>3</v>
       </c>
       <c r="H22" s="58" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I22" s="58"/>
       <c r="J22" s="58"/>
       <c r="K22" s="56" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L22" s="59"/>
       <c r="M22" s="59"/>
@@ -13593,17 +13597,17 @@
         <v>1</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C23" s="46"/>
       <c r="D23" s="46" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E23" s="46"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="47" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I23" s="48"/>
       <c r="J23" s="49"/>
@@ -13680,8 +13684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2266CBF-16D7-4305-8E93-0AAD229883C5}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32:P32"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30:P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13758,7 +13762,7 @@
       <c r="B3" s="58"/>
       <c r="C3" s="58"/>
       <c r="D3" s="63" t="s">
-        <v>428</v>
+        <v>492</v>
       </c>
       <c r="E3" s="64"/>
       <c r="F3" s="64"/>
@@ -14295,7 +14299,7 @@
       </c>
       <c r="L21" s="71"/>
       <c r="M21" s="47" t="s">
-        <v>446</v>
+        <v>493</v>
       </c>
       <c r="N21" s="48"/>
       <c r="O21" s="48"/>
@@ -14408,7 +14412,7 @@
         <v>173</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I26" s="51"/>
       <c r="J26" s="52"/>
@@ -14460,7 +14464,7 @@
       </c>
       <c r="C28" s="57"/>
       <c r="D28" s="50" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E28" s="51"/>
       <c r="F28" s="51"/>
@@ -14468,7 +14472,7 @@
         <v>374</v>
       </c>
       <c r="H28" s="51" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I28" s="51"/>
       <c r="J28" s="52"/>
@@ -14497,7 +14501,7 @@
       </c>
       <c r="L29" s="71"/>
       <c r="M29" s="47" t="s">
-        <v>446</v>
+        <v>493</v>
       </c>
       <c r="N29" s="48"/>
       <c r="O29" s="48"/>
@@ -14688,7 +14692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8E42C9-C05B-4E62-A510-6D91D5B4B214}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G36" sqref="G36:H36"/>
     </sheetView>
   </sheetViews>
@@ -15413,7 +15417,7 @@
       </c>
       <c r="L25" s="71"/>
       <c r="M25" s="47" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N25" s="48"/>
       <c r="O25" s="48"/>
@@ -15851,7 +15855,7 @@
       <c r="B3" s="58"/>
       <c r="C3" s="58"/>
       <c r="D3" s="63" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E3" s="64"/>
       <c r="F3" s="64"/>
@@ -15989,7 +15993,7 @@
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>340</v>

--- a/nop-auth/model/nop-auth.orm.xlsx
+++ b/nop-auth/model/nop-auth.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-auth\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831E8935-C16A-4D08-B5D8-E7068E695E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C366935-DADA-4970-84A3-E7D97F25E5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="1" activeTab="6" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="8" activeTab="11" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -24,11 +24,12 @@
     <sheet name="nop_auth_site" sheetId="16" r:id="rId9"/>
     <sheet name="nop_auth_resource" sheetId="8" r:id="rId10"/>
     <sheet name="nop_auth_role_resource" sheetId="9" r:id="rId11"/>
-    <sheet name="nop_auth_session" sheetId="12" r:id="rId12"/>
-    <sheet name="nop_auth_op_log" sheetId="11" r:id="rId13"/>
-    <sheet name="nop_auth_dept" sheetId="13" r:id="rId14"/>
-    <sheet name="nop_auth_position" sheetId="17" r:id="rId15"/>
-    <sheet name="nop_auth_tenant" sheetId="14" r:id="rId16"/>
+    <sheet name="nop_auth_role_data_auth" sheetId="19" r:id="rId12"/>
+    <sheet name="nop_auth_session" sheetId="12" r:id="rId13"/>
+    <sheet name="nop_auth_op_log" sheetId="11" r:id="rId14"/>
+    <sheet name="nop_auth_dept" sheetId="13" r:id="rId15"/>
+    <sheet name="nop_auth_position" sheetId="17" r:id="rId16"/>
+    <sheet name="nop_auth_tenant" sheetId="14" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="511">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2054,6 +2055,74 @@
   </si>
   <si>
     <t>pub,ref-pub,ref-cascade-delete,ref-insertable,ref-updatable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nop_auth_role_data_auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色数据权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色所对应的数据权限过滤规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Role Data Auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务对象名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILTER_CONFIG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filter Config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务过滤条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xml-4k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIORITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Priority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值越小优先级越高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIZ_OBJ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2419,7 +2488,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2431,6 +2542,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2440,25 +2557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2476,6 +2575,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2485,64 +2587,34 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2553,9 +2625,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3142,65 +3211,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="63" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="67"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="78"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="68"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="63" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="73" t="s">
         <v>447</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="67"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="61" t="s">
         <v>448</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="67"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="78"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -3212,64 +3281,64 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="63" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="67"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="78"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -4248,50 +4317,50 @@
       <c r="P35" s="1"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="54"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="55"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="80"/>
+      <c r="O37" s="80"/>
+      <c r="P37" s="81"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="68">
+      <c r="A38" s="82">
         <v>1</v>
       </c>
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="57"/>
-      <c r="D38" s="50" t="s">
+      <c r="C38" s="65"/>
+      <c r="D38" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="52"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="68"/>
       <c r="G38" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H38" s="50" t="s">
+      <c r="H38" s="66" t="s">
         <v>436</v>
       </c>
-      <c r="I38" s="51"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="70" t="s">
+      <c r="I38" s="67"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="L38" s="71"/>
+      <c r="L38" s="57"/>
       <c r="M38" s="14" t="s">
         <v>210</v>
       </c>
@@ -4300,54 +4369,54 @@
       <c r="P38" s="1"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="69"/>
-      <c r="B39" s="56" t="s">
+      <c r="A39" s="83"/>
+      <c r="B39" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="57"/>
-      <c r="D39" s="50" t="s">
+      <c r="C39" s="65"/>
+      <c r="D39" s="66" t="s">
         <v>437</v>
       </c>
-      <c r="E39" s="51"/>
-      <c r="F39" s="52"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="68"/>
       <c r="G39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H39" s="50" t="s">
+      <c r="H39" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="I39" s="51"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="70" t="s">
+      <c r="I39" s="67"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="L39" s="71"/>
-      <c r="M39" s="47" t="s">
+      <c r="L39" s="57"/>
+      <c r="M39" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="49"/>
+      <c r="N39" s="62"/>
+      <c r="O39" s="62"/>
+      <c r="P39" s="63"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="69"/>
-      <c r="B40" s="56" t="s">
+      <c r="A40" s="83"/>
+      <c r="B40" s="64" t="s">
         <v>373</v>
       </c>
-      <c r="C40" s="57"/>
-      <c r="D40" s="50" t="s">
+      <c r="C40" s="65"/>
+      <c r="D40" s="66" t="s">
         <v>438</v>
       </c>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
       <c r="G40" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H40" s="51" t="s">
+      <c r="H40" s="67" t="s">
         <v>439</v>
       </c>
-      <c r="I40" s="51"/>
-      <c r="J40" s="52"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="68"/>
       <c r="K40" s="24"/>
       <c r="L40" s="25"/>
       <c r="M40" s="22"/>
@@ -4356,42 +4425,42 @@
       <c r="P40" s="20"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="69"/>
-      <c r="B41" s="56" t="s">
+      <c r="A41" s="83"/>
+      <c r="B41" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="57"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="70" t="s">
+      <c r="C41" s="65"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L41" s="71"/>
-      <c r="M41" s="47" t="s">
+      <c r="L41" s="57"/>
+      <c r="M41" s="61" t="s">
         <v>446</v>
       </c>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="49"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="63"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="69"/>
-      <c r="B42" s="72" t="s">
+      <c r="A42" s="83"/>
+      <c r="B42" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="74"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="54"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
@@ -4400,66 +4469,66 @@
       <c r="P42" s="5"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="69"/>
+      <c r="A43" s="83"/>
       <c r="B43" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="70" t="s">
+      <c r="C43" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="75"/>
-      <c r="E43" s="71"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="57"/>
       <c r="F43" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="70" t="s">
+      <c r="G43" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H43" s="71"/>
-      <c r="I43" s="70" t="s">
+      <c r="H43" s="57"/>
+      <c r="I43" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J43" s="71"/>
-      <c r="K43" s="76"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="76"/>
-      <c r="N43" s="78"/>
-      <c r="O43" s="78"/>
-      <c r="P43" s="77"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="60"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="59"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="69"/>
+      <c r="A44" s="83"/>
       <c r="B44" s="12">
         <v>1</v>
       </c>
-      <c r="C44" s="79" t="s">
+      <c r="C44" s="49" t="s">
         <v>344</v>
       </c>
-      <c r="D44" s="80"/>
-      <c r="E44" s="81"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="51"/>
       <c r="F44" s="12"/>
-      <c r="G44" s="79" t="s">
+      <c r="G44" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="H44" s="81"/>
+      <c r="H44" s="51"/>
       <c r="I44" s="3"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="82"/>
-      <c r="L44" s="83"/>
-      <c r="M44" s="82"/>
-      <c r="N44" s="84"/>
-      <c r="O44" s="84"/>
-      <c r="P44" s="83"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="48"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="69"/>
-      <c r="B45" s="79"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="81"/>
+      <c r="A45" s="83"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="51"/>
       <c r="F45" s="12"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="81"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="51"/>
       <c r="I45" s="3"/>
       <c r="J45" s="4"/>
       <c r="K45" s="13"/>
@@ -4470,28 +4539,28 @@
       <c r="P45" s="6"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="68">
+      <c r="A46" s="82">
         <v>2</v>
       </c>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="D46" s="50" t="s">
+      <c r="C46" s="65"/>
+      <c r="D46" s="66" t="s">
         <v>363</v>
       </c>
-      <c r="E46" s="51"/>
-      <c r="F46" s="52"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="68"/>
       <c r="G46" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H46" s="50"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="70" t="s">
+      <c r="H46" s="66"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="L46" s="71"/>
+      <c r="L46" s="57"/>
       <c r="M46" s="14" t="s">
         <v>365</v>
       </c>
@@ -4500,72 +4569,72 @@
       <c r="P46" s="1"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="69"/>
-      <c r="B47" s="56" t="s">
+      <c r="A47" s="83"/>
+      <c r="B47" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="57"/>
-      <c r="D47" s="50" t="s">
+      <c r="C47" s="65"/>
+      <c r="D47" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="E47" s="51"/>
-      <c r="F47" s="52"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="68"/>
       <c r="G47" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="50" t="s">
+      <c r="H47" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="I47" s="51"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="70" t="s">
+      <c r="I47" s="67"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="L47" s="71"/>
-      <c r="M47" s="47" t="s">
+      <c r="L47" s="57"/>
+      <c r="M47" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="N47" s="48"/>
-      <c r="O47" s="48"/>
-      <c r="P47" s="49"/>
+      <c r="N47" s="62"/>
+      <c r="O47" s="62"/>
+      <c r="P47" s="63"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="69"/>
-      <c r="B48" s="56" t="s">
+      <c r="A48" s="83"/>
+      <c r="B48" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="57"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="70" t="s">
+      <c r="C48" s="65"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L48" s="71"/>
-      <c r="M48" s="47" t="s">
+      <c r="L48" s="57"/>
+      <c r="M48" s="61" t="s">
         <v>387</v>
       </c>
-      <c r="N48" s="48"/>
-      <c r="O48" s="48"/>
-      <c r="P48" s="49"/>
+      <c r="N48" s="62"/>
+      <c r="O48" s="62"/>
+      <c r="P48" s="63"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="69"/>
-      <c r="B49" s="72" t="s">
+      <c r="A49" s="83"/>
+      <c r="B49" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="73"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="73"/>
-      <c r="I49" s="73"/>
-      <c r="J49" s="74"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="54"/>
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
@@ -4574,66 +4643,66 @@
       <c r="P49" s="5"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="69"/>
+      <c r="A50" s="83"/>
       <c r="B50" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="70" t="s">
+      <c r="C50" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="75"/>
-      <c r="E50" s="71"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="57"/>
       <c r="F50" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G50" s="70" t="s">
+      <c r="G50" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="71"/>
-      <c r="I50" s="70" t="s">
+      <c r="H50" s="57"/>
+      <c r="I50" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J50" s="71"/>
-      <c r="K50" s="76"/>
-      <c r="L50" s="77"/>
-      <c r="M50" s="76"/>
-      <c r="N50" s="78"/>
-      <c r="O50" s="78"/>
-      <c r="P50" s="77"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="58"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="58"/>
+      <c r="N50" s="60"/>
+      <c r="O50" s="60"/>
+      <c r="P50" s="59"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="69"/>
+      <c r="A51" s="83"/>
       <c r="B51" s="12">
         <v>1</v>
       </c>
-      <c r="C51" s="79" t="s">
+      <c r="C51" s="49" t="s">
         <v>366</v>
       </c>
-      <c r="D51" s="80"/>
-      <c r="E51" s="81"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="51"/>
       <c r="F51" s="12"/>
-      <c r="G51" s="79" t="s">
+      <c r="G51" s="49" t="s">
         <v>366</v>
       </c>
-      <c r="H51" s="81"/>
+      <c r="H51" s="51"/>
       <c r="I51" s="3"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="82"/>
-      <c r="L51" s="83"/>
-      <c r="M51" s="82"/>
-      <c r="N51" s="84"/>
-      <c r="O51" s="84"/>
-      <c r="P51" s="83"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="48"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="69"/>
-      <c r="B52" s="79"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="80"/>
-      <c r="E52" s="81"/>
+      <c r="A52" s="83"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="51"/>
       <c r="F52" s="12"/>
-      <c r="G52" s="79"/>
-      <c r="H52" s="81"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="51"/>
       <c r="I52" s="3"/>
       <c r="J52" s="4"/>
       <c r="K52" s="13"/>
@@ -4645,19 +4714,45 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="A37:P37"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="B49:J49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="H40:J40"/>
     <mergeCell ref="A38:A45"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:F38"/>
@@ -4674,45 +4769,19 @@
     <mergeCell ref="G45:H45"/>
     <mergeCell ref="B45:E45"/>
     <mergeCell ref="B40:C40"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="B49:J49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="A37:P37"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4724,7 +4793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E728D8DB-CA04-401F-A90E-01349EF3FF55}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M35" sqref="M35:P35"/>
     </sheetView>
   </sheetViews>
@@ -4745,67 +4814,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="63" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="67"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="78"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="68"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="63" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="73" t="s">
         <v>168</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="67"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="63" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="73" t="s">
         <v>492</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="67"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="78"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -4817,64 +4886,64 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="63" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="67"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="78"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -5279,50 +5348,50 @@
       <c r="P18" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="55"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="81"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="68">
+      <c r="A21" s="82">
         <v>1</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="50" t="s">
+      <c r="C21" s="65"/>
+      <c r="D21" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="68"/>
       <c r="G21" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H21" s="50" t="s">
+      <c r="H21" s="66" t="s">
         <v>301</v>
       </c>
-      <c r="I21" s="51"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="70" t="s">
+      <c r="I21" s="67"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="L21" s="71"/>
+      <c r="L21" s="57"/>
       <c r="M21" s="14" t="s">
         <v>209</v>
       </c>
@@ -5331,54 +5400,54 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="69"/>
-      <c r="B22" s="56" t="s">
+      <c r="A22" s="83"/>
+      <c r="B22" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="50" t="s">
+      <c r="C22" s="65"/>
+      <c r="D22" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="68"/>
       <c r="G22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="50" t="s">
+      <c r="H22" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="I22" s="51"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="70" t="s">
+      <c r="I22" s="67"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="L22" s="71"/>
-      <c r="M22" s="47" t="s">
+      <c r="L22" s="57"/>
+      <c r="M22" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="49"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="63"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="69"/>
-      <c r="B23" s="56" t="s">
+      <c r="A23" s="83"/>
+      <c r="B23" s="64" t="s">
         <v>373</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="50" t="s">
+      <c r="C23" s="65"/>
+      <c r="D23" s="66" t="s">
         <v>380</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
       <c r="G23" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H23" s="51" t="s">
+      <c r="H23" s="67" t="s">
         <v>381</v>
       </c>
-      <c r="I23" s="51"/>
-      <c r="J23" s="52"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="68"/>
       <c r="K23" s="24"/>
       <c r="L23" s="25"/>
       <c r="M23" s="22"/>
@@ -5387,42 +5456,42 @@
       <c r="P23" s="20"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="69"/>
-      <c r="B24" s="56" t="s">
+      <c r="A24" s="83"/>
+      <c r="B24" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="70" t="s">
+      <c r="C24" s="65"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L24" s="71"/>
-      <c r="M24" s="47" t="s">
+      <c r="L24" s="57"/>
+      <c r="M24" s="61" t="s">
         <v>493</v>
       </c>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="49"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="63"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="69"/>
-      <c r="B25" s="72" t="s">
+      <c r="A25" s="83"/>
+      <c r="B25" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="74"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="54"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
@@ -5431,66 +5500,66 @@
       <c r="P25" s="5"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="69"/>
+      <c r="A26" s="83"/>
       <c r="B26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="71"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57"/>
       <c r="F26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="70" t="s">
+      <c r="G26" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="71"/>
-      <c r="I26" s="70" t="s">
+      <c r="H26" s="57"/>
+      <c r="I26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="71"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="77"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="59"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="69"/>
+      <c r="A27" s="83"/>
       <c r="B27" s="12">
         <v>1</v>
       </c>
-      <c r="C27" s="79" t="s">
+      <c r="C27" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="80"/>
-      <c r="E27" s="81"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="51"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="79" t="s">
+      <c r="G27" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="H27" s="81"/>
+      <c r="H27" s="51"/>
       <c r="I27" s="3"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="84"/>
-      <c r="P27" s="83"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="48"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="69"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="81"/>
+      <c r="A28" s="83"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="51"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="81"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="51"/>
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
       <c r="K28" s="13"/>
@@ -5501,30 +5570,30 @@
       <c r="P28" s="6"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="68">
+      <c r="A29" s="82">
         <v>2</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="50" t="s">
+      <c r="C29" s="65"/>
+      <c r="D29" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="52"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="68"/>
       <c r="G29" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H29" s="50" t="s">
+      <c r="H29" s="66" t="s">
         <v>299</v>
       </c>
-      <c r="I29" s="51"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="70" t="s">
+      <c r="I29" s="67"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="L29" s="71"/>
+      <c r="L29" s="57"/>
       <c r="M29" s="14" t="s">
         <v>210</v>
       </c>
@@ -5533,54 +5602,54 @@
       <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="69"/>
-      <c r="B30" s="56" t="s">
+      <c r="A30" s="83"/>
+      <c r="B30" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="50" t="s">
+      <c r="C30" s="65"/>
+      <c r="D30" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="52"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="68"/>
       <c r="G30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="50" t="s">
+      <c r="H30" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="I30" s="51"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="70" t="s">
+      <c r="I30" s="67"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="L30" s="71"/>
-      <c r="M30" s="47" t="s">
+      <c r="L30" s="57"/>
+      <c r="M30" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="49"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="63"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="69"/>
-      <c r="B31" s="56" t="s">
+      <c r="A31" s="83"/>
+      <c r="B31" s="64" t="s">
         <v>373</v>
       </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="50" t="s">
+      <c r="C31" s="65"/>
+      <c r="D31" s="66" t="s">
         <v>375</v>
       </c>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
       <c r="G31" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H31" s="51" t="s">
+      <c r="H31" s="67" t="s">
         <v>376</v>
       </c>
-      <c r="I31" s="51"/>
-      <c r="J31" s="52"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="68"/>
       <c r="K31" s="24"/>
       <c r="L31" s="25"/>
       <c r="M31" s="22"/>
@@ -5589,42 +5658,42 @@
       <c r="P31" s="20"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="69"/>
-      <c r="B32" s="56" t="s">
+      <c r="A32" s="83"/>
+      <c r="B32" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="70" t="s">
+      <c r="C32" s="65"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L32" s="71"/>
-      <c r="M32" s="47" t="s">
+      <c r="L32" s="57"/>
+      <c r="M32" s="61" t="s">
         <v>493</v>
       </c>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="49"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="63"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="69"/>
-      <c r="B33" s="72" t="s">
+      <c r="A33" s="83"/>
+      <c r="B33" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="74"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="54"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
@@ -5633,66 +5702,66 @@
       <c r="P33" s="5"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="69"/>
+      <c r="A34" s="83"/>
       <c r="B34" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="70" t="s">
+      <c r="C34" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="71"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="57"/>
       <c r="F34" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="70" t="s">
+      <c r="G34" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="71"/>
-      <c r="I34" s="70" t="s">
+      <c r="H34" s="57"/>
+      <c r="I34" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="71"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="78"/>
-      <c r="O34" s="78"/>
-      <c r="P34" s="77"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="59"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="69"/>
+      <c r="A35" s="83"/>
       <c r="B35" s="12">
         <v>1</v>
       </c>
-      <c r="C35" s="79" t="s">
+      <c r="C35" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="D35" s="80"/>
-      <c r="E35" s="81"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="51"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="79" t="s">
+      <c r="G35" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="H35" s="81"/>
+      <c r="H35" s="51"/>
       <c r="I35" s="3"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="84"/>
-      <c r="O35" s="84"/>
-      <c r="P35" s="83"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="48"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="69"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="81"/>
+      <c r="A36" s="83"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="51"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="81"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="51"/>
       <c r="I36" s="3"/>
       <c r="J36" s="4"/>
       <c r="K36" s="13"/>
@@ -5704,18 +5773,49 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="C34:E34"/>
     <mergeCell ref="K35:L35"/>
     <mergeCell ref="M35:P35"/>
     <mergeCell ref="M32:P32"/>
@@ -5732,35 +5832,937 @@
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="M27:P27"/>
     <mergeCell ref="M34:P34"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="A20:P20"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D5B415-1AC7-4CB6-8CE2-6AA77FBD913C}">
+  <dimension ref="A1:P31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.9140625" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="6.08203125" customWidth="1"/>
+    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="73" t="s">
+        <v>494</v>
+      </c>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="73" t="s">
+        <v>495</v>
+      </c>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="61" t="s">
+        <v>497</v>
+      </c>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="73" t="s">
+        <v>496</v>
+      </c>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="10">
+        <v>32</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="10">
+        <v>50</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="10">
+        <v>100</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>4</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>5</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="10">
+        <v>4000</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>6</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="10">
+        <v>4000</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>7</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>8</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>9</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="10">
+        <v>50</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>10</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>11</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="10">
+        <v>50</v>
+      </c>
+      <c r="L18" s="10"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>12</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>13</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="10">
+        <v>200</v>
+      </c>
+      <c r="L20" s="10"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="81"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="82">
+        <v>1</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="65"/>
+      <c r="D24" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="67"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H24" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="I24" s="67"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="L24" s="57"/>
+      <c r="M24" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="N24" s="14"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="83"/>
+      <c r="B25" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="65"/>
+      <c r="D25" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="67"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="I25" s="67"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="L25" s="57"/>
+      <c r="M25" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="63"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="83"/>
+      <c r="B26" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C26" s="65"/>
+      <c r="D26" s="66" t="s">
+        <v>380</v>
+      </c>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="H26" s="67" t="s">
+        <v>381</v>
+      </c>
+      <c r="I26" s="67"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="20"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="83"/>
+      <c r="B27" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="65"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="57"/>
+      <c r="M27" s="61" t="s">
+        <v>493</v>
+      </c>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="63"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="83"/>
+      <c r="B28" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="83"/>
+      <c r="B29" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="57"/>
+      <c r="I29" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="57"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="59"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="83"/>
+      <c r="B30" s="12">
+        <v>1</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="50"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" s="51"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="48"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="83"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
     <mergeCell ref="K29:L29"/>
-    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="A23:P23"/>
+    <mergeCell ref="A24:A31"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
@@ -5768,20 +6770,13 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C953A90D-FDF2-4D86-8069-3DE5D3B98F32}">
   <dimension ref="A1:P25"/>
   <sheetViews>
@@ -5806,134 +6801,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="63" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="73" t="s">
         <v>260</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="67"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="78"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="68"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="63" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="73" t="s">
         <v>181</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="67"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="61" t="s">
         <v>234</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="63" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="73" t="s">
         <v>392</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="67"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="78"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="78"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -6576,7 +7571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AC8471-48F5-46E8-B6A0-736F600785E1}">
   <dimension ref="A1:P29"/>
   <sheetViews>
@@ -6601,67 +7596,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="63" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="73" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="67"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="78"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="68"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="63" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="73" t="s">
         <v>449</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="67"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="63" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="73" t="s">
         <v>392</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="67"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="78"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -6673,64 +7668,64 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="63" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="67"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="78"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -7190,48 +8185,48 @@
       <c r="E21" s="31"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="55"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="81"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="68">
+      <c r="A23" s="82">
         <v>1</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="50" t="s">
+      <c r="C23" s="65"/>
+      <c r="D23" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="52"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="68"/>
       <c r="G23" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H23" s="50"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="70" t="s">
+      <c r="H23" s="66"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="L23" s="71"/>
+      <c r="L23" s="57"/>
       <c r="M23" s="14" t="s">
         <v>282</v>
       </c>
@@ -7240,72 +8235,72 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="69"/>
-      <c r="B24" s="56" t="s">
+      <c r="A24" s="83"/>
+      <c r="B24" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="50" t="s">
+      <c r="C24" s="65"/>
+      <c r="D24" s="66" t="s">
         <v>233</v>
       </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="52"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="68"/>
       <c r="G24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="50" t="s">
+      <c r="H24" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="I24" s="51"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="70" t="s">
+      <c r="I24" s="67"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="L24" s="71"/>
-      <c r="M24" s="47" t="s">
+      <c r="L24" s="57"/>
+      <c r="M24" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="49"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="63"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="69"/>
-      <c r="B25" s="56" t="s">
+      <c r="A25" s="83"/>
+      <c r="B25" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="70" t="s">
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="71"/>
-      <c r="M25" s="47" t="s">
+      <c r="L25" s="57"/>
+      <c r="M25" s="61" t="s">
         <v>387</v>
       </c>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="49"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="63"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="69"/>
-      <c r="B26" s="72" t="s">
+      <c r="A26" s="83"/>
+      <c r="B26" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="74"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="54"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
@@ -7314,7 +8309,7 @@
       <c r="P26" s="5"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="69"/>
+      <c r="A27" s="83"/>
       <c r="B27" s="18" t="s">
         <v>22</v>
       </c>
@@ -7326,65 +8321,87 @@
       <c r="F27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="70" t="s">
+      <c r="G27" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="71"/>
-      <c r="I27" s="70" t="s">
+      <c r="H27" s="57"/>
+      <c r="I27" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="71"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="77"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="59"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="69"/>
+      <c r="A28" s="83"/>
       <c r="B28" s="12">
         <v>1</v>
       </c>
-      <c r="C28" s="79" t="s">
+      <c r="C28" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="D28" s="81"/>
+      <c r="D28" s="51"/>
       <c r="E28" s="4"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="79" t="s">
+      <c r="G28" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="H28" s="81"/>
+      <c r="H28" s="51"/>
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="83"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="48"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="69"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="81"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="H23:J23"/>
     <mergeCell ref="B24:C24"/>
@@ -7401,35 +8418,13 @@
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="M25:P25"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9477A340-9635-48F5-81AF-7CDA39CFD039}">
   <dimension ref="A1:P32"/>
   <sheetViews>
@@ -7454,132 +8449,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="65" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="76" t="s">
         <v>246</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
       <c r="G1" s="93"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="68"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="63" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="67"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="67"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="78"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="78"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -8116,50 +9111,50 @@
       <c r="P22" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="55"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="81"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="68">
+      <c r="A25" s="82">
         <v>1</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="50" t="s">
+      <c r="C25" s="65"/>
+      <c r="D25" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="51"/>
-      <c r="F25" s="52"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="68"/>
       <c r="G25" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H25" s="50" t="s">
+      <c r="H25" s="66" t="s">
         <v>436</v>
       </c>
-      <c r="I25" s="51"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="70" t="s">
+      <c r="I25" s="67"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="L25" s="71"/>
+      <c r="L25" s="57"/>
       <c r="M25" s="14" t="s">
         <v>417</v>
       </c>
@@ -8168,54 +9163,54 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="69"/>
-      <c r="B26" s="56" t="s">
+      <c r="A26" s="83"/>
+      <c r="B26" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="50" t="s">
+      <c r="C26" s="65"/>
+      <c r="D26" s="66" t="s">
         <v>437</v>
       </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="52"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="68"/>
       <c r="G26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="I26" s="51"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="70" t="s">
+      <c r="I26" s="67"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="L26" s="71"/>
-      <c r="M26" s="47" t="s">
+      <c r="L26" s="57"/>
+      <c r="M26" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="49"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="63"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="69"/>
-      <c r="B27" s="56" t="s">
+      <c r="A27" s="83"/>
+      <c r="B27" s="64" t="s">
         <v>373</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="50" t="s">
+      <c r="C27" s="65"/>
+      <c r="D27" s="66" t="s">
         <v>438</v>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
       <c r="G27" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H27" s="51" t="s">
+      <c r="H27" s="67" t="s">
         <v>439</v>
       </c>
-      <c r="I27" s="51"/>
-      <c r="J27" s="52"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="68"/>
       <c r="K27" s="24"/>
       <c r="L27" s="25"/>
       <c r="M27" s="22"/>
@@ -8224,42 +9219,42 @@
       <c r="P27" s="20"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="69"/>
-      <c r="B28" s="56" t="s">
+      <c r="A28" s="83"/>
+      <c r="B28" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="70" t="s">
+      <c r="C28" s="65"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="71"/>
-      <c r="M28" s="47" t="s">
+      <c r="L28" s="57"/>
+      <c r="M28" s="61" t="s">
         <v>386</v>
       </c>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="49"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="63"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="69"/>
-      <c r="B29" s="72" t="s">
+      <c r="A29" s="83"/>
+      <c r="B29" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="74"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="54"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
@@ -8268,66 +9263,66 @@
       <c r="P29" s="5"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="69"/>
+      <c r="A30" s="83"/>
       <c r="B30" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="70" t="s">
+      <c r="C30" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="75"/>
-      <c r="E30" s="71"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="57"/>
       <c r="F30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="70" t="s">
+      <c r="G30" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="71"/>
-      <c r="I30" s="70" t="s">
+      <c r="H30" s="57"/>
+      <c r="I30" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="71"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="77"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="59"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="69"/>
+      <c r="A31" s="83"/>
       <c r="B31" s="12">
         <v>1</v>
       </c>
-      <c r="C31" s="79" t="s">
+      <c r="C31" s="49" t="s">
         <v>344</v>
       </c>
-      <c r="D31" s="80"/>
-      <c r="E31" s="81"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="51"/>
       <c r="F31" s="12"/>
-      <c r="G31" s="79" t="s">
+      <c r="G31" s="49" t="s">
         <v>418</v>
       </c>
-      <c r="H31" s="81"/>
+      <c r="H31" s="51"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="83"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="48"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="69"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="81"/>
+      <c r="A32" s="83"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="51"/>
       <c r="F32" s="12"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="81"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="51"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
       <c r="K32" s="13"/>
@@ -8339,20 +9334,19 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
     <mergeCell ref="A24:P24"/>
     <mergeCell ref="A25:A32"/>
     <mergeCell ref="B25:C25"/>
@@ -8369,26 +9363,27 @@
     <mergeCell ref="H27:J27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:J28"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B91D5B8-07E5-4B34-B4AF-71952536E04D}">
   <dimension ref="A1:P17"/>
   <sheetViews>
@@ -8413,132 +9408,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="63" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="73" t="s">
         <v>429</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="67"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="78"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="68"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="63" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="73" t="s">
         <v>430</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="67"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="61" t="s">
         <v>405</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="67"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="78"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="78"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -8922,12 +9917,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -8935,13 +9924,19 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F56419-A4DE-4652-BE11-F5D86F434C15}">
   <dimension ref="A1:P20"/>
   <sheetViews>
@@ -8966,132 +9961,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="65" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="76" t="s">
         <v>255</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
       <c r="G1" s="93"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="68"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="63" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="73" t="s">
         <v>256</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="67"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="61" t="s">
         <v>257</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="67"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="78"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="78"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -9739,10 +10734,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6B1C0B-16AE-459C-999C-D9C9CBAA7576}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9912,16 +10907,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>330</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>4000</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -9931,14 +10924,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>382</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -9948,13 +10943,15 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>311</v>
+        <v>383</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1000</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
@@ -9963,11 +10960,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -9978,15 +10975,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="1">
-        <v>50</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
@@ -9995,13 +10990,15 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="E15" s="1">
+        <v>50</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
@@ -10010,15 +11007,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="1">
-        <v>50</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
@@ -10027,23 +11022,31 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>320</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E17" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="E17" s="1">
+        <v>50</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>443</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -10110,6 +11113,15 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10143,134 +11155,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="65" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="49"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="63"/>
       <c r="N1" s="20"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="63" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="63" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="73" t="s">
         <v>435</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="78"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -11451,494 +12463,494 @@
       <c r="P41" s="1"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="53" t="s">
+      <c r="A43" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="54"/>
-      <c r="O43" s="54"/>
-      <c r="P43" s="55"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="80"/>
+      <c r="I43" s="80"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="80"/>
+      <c r="N43" s="80"/>
+      <c r="O43" s="80"/>
+      <c r="P43" s="81"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="68">
+      <c r="A44" s="82">
         <v>1</v>
       </c>
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="57"/>
-      <c r="D44" s="50" t="s">
+      <c r="C44" s="65"/>
+      <c r="D44" s="66" t="s">
         <v>416</v>
       </c>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
       <c r="G44" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H44" s="50"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="70" t="s">
+      <c r="H44" s="66"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="L44" s="71"/>
-      <c r="M44" s="47" t="s">
+      <c r="L44" s="57"/>
+      <c r="M44" s="61" t="s">
         <v>417</v>
       </c>
-      <c r="N44" s="48"/>
-      <c r="O44" s="48"/>
-      <c r="P44" s="49"/>
+      <c r="N44" s="62"/>
+      <c r="O44" s="62"/>
+      <c r="P44" s="63"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="69"/>
-      <c r="B45" s="56" t="s">
+      <c r="A45" s="83"/>
+      <c r="B45" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="57"/>
-      <c r="D45" s="50" t="s">
+      <c r="C45" s="65"/>
+      <c r="D45" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
       <c r="G45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H45" s="50" t="s">
+      <c r="H45" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="I45" s="51"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="70" t="s">
+      <c r="I45" s="67"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="L45" s="71"/>
-      <c r="M45" s="47" t="s">
+      <c r="L45" s="57"/>
+      <c r="M45" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="N45" s="48"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="49"/>
+      <c r="N45" s="62"/>
+      <c r="O45" s="62"/>
+      <c r="P45" s="63"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="69"/>
-      <c r="B46" s="56" t="s">
+      <c r="A46" s="83"/>
+      <c r="B46" s="64" t="s">
         <v>373</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
       <c r="G46" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="52"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="68"/>
       <c r="K46" s="24"/>
       <c r="L46" s="25"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="48"/>
-      <c r="O46" s="48"/>
-      <c r="P46" s="49"/>
+      <c r="M46" s="61"/>
+      <c r="N46" s="62"/>
+      <c r="O46" s="62"/>
+      <c r="P46" s="63"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="69"/>
-      <c r="B47" s="56" t="s">
+      <c r="A47" s="83"/>
+      <c r="B47" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="57"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="70" t="s">
+      <c r="C47" s="65"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L47" s="71"/>
-      <c r="M47" s="47" t="s">
+      <c r="L47" s="57"/>
+      <c r="M47" s="61" t="s">
         <v>386</v>
       </c>
-      <c r="N47" s="48"/>
-      <c r="O47" s="48"/>
-      <c r="P47" s="49"/>
+      <c r="N47" s="62"/>
+      <c r="O47" s="62"/>
+      <c r="P47" s="63"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="69"/>
-      <c r="B48" s="72" t="s">
+      <c r="A48" s="83"/>
+      <c r="B48" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="73"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="74"/>
-      <c r="K48" s="72"/>
-      <c r="L48" s="74"/>
-      <c r="M48" s="72"/>
-      <c r="N48" s="73"/>
-      <c r="O48" s="73"/>
-      <c r="P48" s="74"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="53"/>
+      <c r="P48" s="54"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="69"/>
+      <c r="A49" s="83"/>
       <c r="B49" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="70" t="s">
+      <c r="C49" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="75"/>
-      <c r="E49" s="71"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="57"/>
       <c r="F49" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="70" t="s">
+      <c r="G49" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H49" s="71"/>
-      <c r="I49" s="70" t="s">
+      <c r="H49" s="57"/>
+      <c r="I49" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J49" s="71"/>
-      <c r="K49" s="76"/>
-      <c r="L49" s="77"/>
-      <c r="M49" s="76"/>
-      <c r="N49" s="78"/>
-      <c r="O49" s="78"/>
-      <c r="P49" s="77"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="58"/>
+      <c r="N49" s="60"/>
+      <c r="O49" s="60"/>
+      <c r="P49" s="59"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="69"/>
+      <c r="A50" s="83"/>
       <c r="B50" s="12">
         <v>1</v>
       </c>
-      <c r="C50" s="79" t="s">
+      <c r="C50" s="49" t="s">
         <v>418</v>
       </c>
-      <c r="D50" s="80"/>
-      <c r="E50" s="81"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="51"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="79" t="s">
+      <c r="G50" s="49" t="s">
         <v>418</v>
       </c>
-      <c r="H50" s="81"/>
+      <c r="H50" s="51"/>
       <c r="I50" s="3"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="82"/>
-      <c r="L50" s="83"/>
-      <c r="M50" s="82"/>
-      <c r="N50" s="84"/>
-      <c r="O50" s="84"/>
-      <c r="P50" s="83"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="48"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="69"/>
-      <c r="B51" s="79"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="81"/>
+      <c r="A51" s="83"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="51"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="79"/>
-      <c r="H51" s="81"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="51"/>
       <c r="I51" s="3"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="82"/>
-      <c r="L51" s="83"/>
-      <c r="M51" s="82"/>
-      <c r="N51" s="84"/>
-      <c r="O51" s="84"/>
-      <c r="P51" s="83"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="48"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="85">
+      <c r="A52" s="69">
         <v>2</v>
       </c>
-      <c r="B52" s="56" t="s">
+      <c r="B52" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="57"/>
-      <c r="D52" s="50" t="s">
+      <c r="C52" s="65"/>
+      <c r="D52" s="66" t="s">
         <v>431</v>
       </c>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
       <c r="G52" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H52" s="50"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="70" t="s">
+      <c r="H52" s="66"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="L52" s="71"/>
-      <c r="M52" s="47" t="s">
+      <c r="L52" s="57"/>
+      <c r="M52" s="61" t="s">
         <v>432</v>
       </c>
-      <c r="N52" s="48"/>
-      <c r="O52" s="48"/>
-      <c r="P52" s="49"/>
+      <c r="N52" s="62"/>
+      <c r="O52" s="62"/>
+      <c r="P52" s="63"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="85"/>
-      <c r="B53" s="56" t="s">
+      <c r="A53" s="69"/>
+      <c r="B53" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="57"/>
-      <c r="D53" s="50" t="s">
+      <c r="C53" s="65"/>
+      <c r="D53" s="66" t="s">
         <v>430</v>
       </c>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
       <c r="G53" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H53" s="50" t="s">
+      <c r="H53" s="66" t="s">
         <v>405</v>
       </c>
-      <c r="I53" s="51"/>
-      <c r="J53" s="52"/>
-      <c r="K53" s="70" t="s">
+      <c r="I53" s="67"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="L53" s="71"/>
-      <c r="M53" s="47" t="s">
+      <c r="L53" s="57"/>
+      <c r="M53" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="N53" s="48"/>
-      <c r="O53" s="48"/>
-      <c r="P53" s="49"/>
+      <c r="N53" s="62"/>
+      <c r="O53" s="62"/>
+      <c r="P53" s="63"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="85"/>
-      <c r="B54" s="56" t="s">
+      <c r="A54" s="69"/>
+      <c r="B54" s="64" t="s">
         <v>373</v>
       </c>
-      <c r="C54" s="57"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="51"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
       <c r="G54" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H54" s="51"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="52"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="68"/>
       <c r="K54" s="24"/>
       <c r="L54" s="25"/>
-      <c r="M54" s="47"/>
-      <c r="N54" s="48"/>
-      <c r="O54" s="48"/>
-      <c r="P54" s="49"/>
+      <c r="M54" s="61"/>
+      <c r="N54" s="62"/>
+      <c r="O54" s="62"/>
+      <c r="P54" s="63"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="85"/>
-      <c r="B55" s="56" t="s">
+      <c r="A55" s="69"/>
+      <c r="B55" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="57"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="70" t="s">
+      <c r="C55" s="65"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="67"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="67"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L55" s="71"/>
-      <c r="M55" s="47" t="s">
+      <c r="L55" s="57"/>
+      <c r="M55" s="61" t="s">
         <v>386</v>
       </c>
-      <c r="N55" s="48"/>
-      <c r="O55" s="48"/>
-      <c r="P55" s="49"/>
+      <c r="N55" s="62"/>
+      <c r="O55" s="62"/>
+      <c r="P55" s="63"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="85"/>
-      <c r="B56" s="72" t="s">
+      <c r="A56" s="69"/>
+      <c r="B56" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="73"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="73"/>
-      <c r="G56" s="73"/>
-      <c r="H56" s="73"/>
-      <c r="I56" s="73"/>
-      <c r="J56" s="74"/>
-      <c r="K56" s="72"/>
-      <c r="L56" s="74"/>
-      <c r="M56" s="72"/>
-      <c r="N56" s="73"/>
-      <c r="O56" s="73"/>
-      <c r="P56" s="74"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="54"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="53"/>
+      <c r="O56" s="53"/>
+      <c r="P56" s="54"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" s="85"/>
+      <c r="A57" s="69"/>
       <c r="B57" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="70" t="s">
+      <c r="C57" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="75"/>
-      <c r="E57" s="71"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="57"/>
       <c r="F57" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="70" t="s">
+      <c r="G57" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H57" s="71"/>
-      <c r="I57" s="70" t="s">
+      <c r="H57" s="57"/>
+      <c r="I57" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J57" s="71"/>
-      <c r="K57" s="76"/>
-      <c r="L57" s="77"/>
-      <c r="M57" s="76"/>
-      <c r="N57" s="78"/>
-      <c r="O57" s="78"/>
-      <c r="P57" s="77"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="58"/>
+      <c r="L57" s="59"/>
+      <c r="M57" s="58"/>
+      <c r="N57" s="60"/>
+      <c r="O57" s="60"/>
+      <c r="P57" s="59"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58" s="85"/>
+      <c r="A58" s="69"/>
       <c r="B58" s="12">
         <v>1</v>
       </c>
-      <c r="C58" s="79" t="s">
+      <c r="C58" s="49" t="s">
         <v>433</v>
       </c>
-      <c r="D58" s="80"/>
-      <c r="E58" s="81"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="51"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="79" t="s">
+      <c r="G58" s="49" t="s">
         <v>433</v>
       </c>
-      <c r="H58" s="81"/>
+      <c r="H58" s="51"/>
       <c r="I58" s="3"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="82"/>
-      <c r="L58" s="83"/>
-      <c r="M58" s="82"/>
-      <c r="N58" s="84"/>
-      <c r="O58" s="84"/>
-      <c r="P58" s="83"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="48"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="47"/>
+      <c r="O58" s="47"/>
+      <c r="P58" s="48"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" s="85"/>
-      <c r="B59" s="79"/>
-      <c r="C59" s="80"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="81"/>
+      <c r="A59" s="69"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="51"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="79"/>
-      <c r="H59" s="81"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="51"/>
       <c r="I59" s="3"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="82"/>
-      <c r="L59" s="83"/>
-      <c r="M59" s="82"/>
-      <c r="N59" s="84"/>
-      <c r="O59" s="84"/>
-      <c r="P59" s="83"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="48"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="47"/>
+      <c r="O59" s="47"/>
+      <c r="P59" s="48"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A61" s="53" t="s">
+      <c r="A61" s="79" t="s">
         <v>481</v>
       </c>
-      <c r="B61" s="54"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="54"/>
-      <c r="J61" s="54"/>
-      <c r="K61" s="54"/>
-      <c r="L61" s="54"/>
-      <c r="M61" s="54"/>
-      <c r="N61" s="54"/>
-      <c r="O61" s="54"/>
-      <c r="P61" s="55"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="80"/>
+      <c r="D61" s="80"/>
+      <c r="E61" s="80"/>
+      <c r="F61" s="80"/>
+      <c r="G61" s="80"/>
+      <c r="H61" s="80"/>
+      <c r="I61" s="80"/>
+      <c r="J61" s="80"/>
+      <c r="K61" s="80"/>
+      <c r="L61" s="80"/>
+      <c r="M61" s="80"/>
+      <c r="N61" s="80"/>
+      <c r="O61" s="80"/>
+      <c r="P61" s="81"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B62" s="56" t="s">
+      <c r="B62" s="64" t="s">
         <v>482</v>
       </c>
-      <c r="C62" s="57"/>
-      <c r="D62" s="56" t="s">
+      <c r="C62" s="65"/>
+      <c r="D62" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="E62" s="57"/>
+      <c r="E62" s="65"/>
       <c r="F62" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="58" t="s">
+      <c r="H62" s="75" t="s">
         <v>483</v>
       </c>
-      <c r="I62" s="58"/>
-      <c r="J62" s="58"/>
-      <c r="K62" s="56" t="s">
+      <c r="I62" s="75"/>
+      <c r="J62" s="75"/>
+      <c r="K62" s="64" t="s">
         <v>484</v>
       </c>
-      <c r="L62" s="59"/>
-      <c r="M62" s="59"/>
-      <c r="N62" s="59"/>
-      <c r="O62" s="59"/>
-      <c r="P62" s="57"/>
+      <c r="L62" s="85"/>
+      <c r="M62" s="85"/>
+      <c r="N62" s="85"/>
+      <c r="O62" s="85"/>
+      <c r="P62" s="65"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
         <v>1</v>
       </c>
-      <c r="B63" s="46" t="s">
+      <c r="B63" s="84" t="s">
         <v>485</v>
       </c>
-      <c r="C63" s="46"/>
-      <c r="D63" s="46" t="s">
+      <c r="C63" s="84"/>
+      <c r="D63" s="84" t="s">
         <v>487</v>
       </c>
-      <c r="E63" s="46"/>
+      <c r="E63" s="84"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="47" t="s">
+      <c r="H63" s="61" t="s">
         <v>486</v>
       </c>
-      <c r="I63" s="48"/>
-      <c r="J63" s="49"/>
-      <c r="K63" s="50"/>
-      <c r="L63" s="51"/>
-      <c r="M63" s="51"/>
-      <c r="N63" s="51"/>
-      <c r="O63" s="51"/>
-      <c r="P63" s="52"/>
+      <c r="I63" s="62"/>
+      <c r="J63" s="63"/>
+      <c r="K63" s="66"/>
+      <c r="L63" s="67"/>
+      <c r="M63" s="67"/>
+      <c r="N63" s="67"/>
+      <c r="O63" s="67"/>
+      <c r="P63" s="68"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="31"/>
@@ -11979,92 +12991,32 @@
       <c r="C66" s="17"/>
     </row>
     <row r="67" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="60" t="s">
+      <c r="B67" s="70" t="s">
         <v>452</v>
       </c>
-      <c r="C67" s="61"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="61"/>
-      <c r="I67" s="61"/>
-      <c r="J67" s="61"/>
-      <c r="K67" s="61"/>
-      <c r="L67" s="61"/>
-      <c r="M67" s="61"/>
+      <c r="C67" s="71"/>
+      <c r="D67" s="71"/>
+      <c r="E67" s="71"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="71"/>
+      <c r="H67" s="71"/>
+      <c r="I67" s="71"/>
+      <c r="J67" s="71"/>
+      <c r="K67" s="71"/>
+      <c r="L67" s="71"/>
+      <c r="M67" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:P59"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:P57"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="A52:A59"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="B56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="B48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:P45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:P63"/>
+    <mergeCell ref="A61:P61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="K62:P62"/>
     <mergeCell ref="B67:M67"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="D3:G3"/>
@@ -12081,15 +13033,75 @@
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A43:P43"/>
     <mergeCell ref="A44:A51"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:P63"/>
-    <mergeCell ref="A61:P61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K62:P62"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="B56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:P57"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:P59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12122,134 +13134,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="63" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="73" t="s">
         <v>472</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="49"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="63"/>
       <c r="N1" s="20"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="63" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="73" t="s">
         <v>475</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="61" t="s">
         <v>480</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="63" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="73" t="s">
         <v>476</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="78"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -12670,233 +13682,242 @@
       <c r="P18" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="55"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="81"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="68">
+      <c r="A21" s="82">
         <v>1</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="50" t="s">
+      <c r="C21" s="65"/>
+      <c r="D21" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
       <c r="G21" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H21" s="50"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="70" t="s">
+      <c r="H21" s="66"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="L21" s="71"/>
-      <c r="M21" s="47" t="s">
+      <c r="L21" s="57"/>
+      <c r="M21" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="49"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="63"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="69"/>
-      <c r="B22" s="56" t="s">
+      <c r="A22" s="83"/>
+      <c r="B22" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="50" t="s">
+      <c r="C22" s="65"/>
+      <c r="D22" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
       <c r="G22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="50" t="s">
+      <c r="H22" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="51"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="70" t="s">
+      <c r="I22" s="67"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="L22" s="71"/>
-      <c r="M22" s="47" t="s">
+      <c r="L22" s="57"/>
+      <c r="M22" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="49"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="63"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="69"/>
-      <c r="B23" s="56" t="s">
+      <c r="A23" s="83"/>
+      <c r="B23" s="64" t="s">
         <v>373</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
       <c r="G23" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="52"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="68"/>
       <c r="K23" s="24"/>
       <c r="L23" s="25"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="49"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="63"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="69"/>
-      <c r="B24" s="56" t="s">
+      <c r="A24" s="83"/>
+      <c r="B24" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="70" t="s">
+      <c r="C24" s="65"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L24" s="71"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="49"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="63"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="69"/>
-      <c r="B25" s="72" t="s">
+      <c r="A25" s="83"/>
+      <c r="B25" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="74"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="54"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="69"/>
+      <c r="A26" s="83"/>
       <c r="B26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="71"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57"/>
       <c r="F26" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="70" t="s">
+      <c r="G26" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="71"/>
-      <c r="I26" s="70" t="s">
+      <c r="H26" s="57"/>
+      <c r="I26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="71"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="77"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="59"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="69"/>
+      <c r="A27" s="83"/>
       <c r="B27" s="12">
         <v>1</v>
       </c>
-      <c r="C27" s="79" t="s">
+      <c r="C27" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="D27" s="80"/>
-      <c r="E27" s="81"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="51"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="79" t="s">
+      <c r="G27" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="81"/>
+      <c r="H27" s="51"/>
       <c r="I27" s="3"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="84"/>
-      <c r="P27" s="83"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="48"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="69"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="81"/>
+      <c r="A28" s="83"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="51"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="81"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="51"/>
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="83"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A20:P20"/>
     <mergeCell ref="A21:A28"/>
@@ -12913,27 +13934,18 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="H23:J23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12965,134 +13977,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="63" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="68"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="63" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="63" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="73" t="s">
         <v>435</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="78"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -13541,82 +14553,82 @@
       <c r="P19" s="1"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="79" t="s">
         <v>481</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="55"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="81"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="64" t="s">
         <v>482</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="56" t="s">
+      <c r="C22" s="65"/>
+      <c r="D22" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="57"/>
+      <c r="E22" s="65"/>
       <c r="F22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="58" t="s">
+      <c r="H22" s="75" t="s">
         <v>483</v>
       </c>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="56" t="s">
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="64" t="s">
         <v>484</v>
       </c>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="57"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="65"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>1</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="84" t="s">
         <v>488</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46" t="s">
+      <c r="C23" s="84"/>
+      <c r="D23" s="84" t="s">
         <v>489</v>
       </c>
-      <c r="E23" s="46"/>
+      <c r="E23" s="84"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="47" t="s">
+      <c r="H23" s="61" t="s">
         <v>490</v>
       </c>
-      <c r="I23" s="48"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="52"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="68"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="31"/>
@@ -13652,6 +14664,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="A21:P21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:P22"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
@@ -13665,15 +14686,6 @@
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="A21:P21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:P22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13684,7 +14696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2266CBF-16D7-4305-8E93-0AAD229883C5}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="M30" sqref="M30:P30"/>
     </sheetView>
   </sheetViews>
@@ -13706,134 +14718,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="63" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="67"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="78"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="68"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="63" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="67"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="63" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="73" t="s">
         <v>492</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="67"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="78"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="78"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -14174,235 +15186,235 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="55"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="81"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="68">
+      <c r="A18" s="82">
         <v>1</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="50" t="s">
+      <c r="C18" s="65"/>
+      <c r="D18" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
       <c r="G18" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H18" s="50" t="s">
+      <c r="H18" s="66" t="s">
         <v>299</v>
       </c>
-      <c r="I18" s="51"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="70" t="s">
+      <c r="I18" s="67"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="L18" s="71"/>
-      <c r="M18" s="47" t="s">
+      <c r="L18" s="57"/>
+      <c r="M18" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="49"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="63"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="69"/>
-      <c r="B19" s="56" t="s">
+      <c r="A19" s="83"/>
+      <c r="B19" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="50" t="s">
+      <c r="C19" s="65"/>
+      <c r="D19" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
       <c r="G19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="51"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="70" t="s">
+      <c r="I19" s="67"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="L19" s="71"/>
-      <c r="M19" s="47" t="s">
+      <c r="L19" s="57"/>
+      <c r="M19" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="49"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="63"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="69"/>
-      <c r="B20" s="56" t="s">
+      <c r="A20" s="83"/>
+      <c r="B20" s="64" t="s">
         <v>373</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="50" t="s">
+      <c r="C20" s="65"/>
+      <c r="D20" s="66" t="s">
         <v>375</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
       <c r="G20" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H20" s="51" t="s">
+      <c r="H20" s="67" t="s">
         <v>377</v>
       </c>
-      <c r="I20" s="51"/>
-      <c r="J20" s="52"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="68"/>
       <c r="K20" s="24"/>
       <c r="L20" s="25"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="49"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="63"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="69"/>
-      <c r="B21" s="56" t="s">
+      <c r="A21" s="83"/>
+      <c r="B21" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="70" t="s">
+      <c r="C21" s="65"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="71"/>
-      <c r="M21" s="47" t="s">
+      <c r="L21" s="57"/>
+      <c r="M21" s="61" t="s">
         <v>493</v>
       </c>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="49"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="63"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="69"/>
-      <c r="B22" s="72" t="s">
+      <c r="A22" s="83"/>
+      <c r="B22" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="74"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="54"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="69"/>
+      <c r="A23" s="83"/>
       <c r="B23" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="75"/>
-      <c r="E23" s="71"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
       <c r="F23" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="70" t="s">
+      <c r="G23" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="71"/>
-      <c r="I23" s="70" t="s">
+      <c r="H23" s="57"/>
+      <c r="I23" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="71"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="78"/>
-      <c r="P23" s="77"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="59"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="69"/>
+      <c r="A24" s="83"/>
       <c r="B24" s="12">
         <v>1</v>
       </c>
-      <c r="C24" s="79" t="s">
+      <c r="C24" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="80"/>
-      <c r="E24" s="81"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="79" t="s">
+      <c r="G24" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="H24" s="81"/>
+      <c r="H24" s="51"/>
       <c r="I24" s="3"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="83"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="48"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="69"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="81"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="81"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="51"/>
       <c r="I25" s="3"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="83"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="48"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="68">
+      <c r="A26" s="82">
         <v>2</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="57"/>
+      <c r="C26" s="65"/>
       <c r="D26" s="86" t="s">
         <v>121</v>
       </c>
@@ -14411,28 +15423,28 @@
       <c r="G26" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="66" t="s">
         <v>462</v>
       </c>
-      <c r="I26" s="51"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="70" t="s">
+      <c r="I26" s="67"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="L26" s="71"/>
-      <c r="M26" s="47" t="s">
+      <c r="L26" s="57"/>
+      <c r="M26" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="49"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="63"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="69"/>
-      <c r="B27" s="56" t="s">
+      <c r="A27" s="83"/>
+      <c r="B27" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="57"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="86" t="s">
         <v>106</v>
       </c>
@@ -14441,157 +15453,157 @@
       <c r="G27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="50" t="s">
+      <c r="H27" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="I27" s="51"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="70" t="s">
+      <c r="I27" s="67"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="L27" s="71"/>
-      <c r="M27" s="47" t="s">
+      <c r="L27" s="57"/>
+      <c r="M27" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="49"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="63"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="69"/>
-      <c r="B28" s="56" t="s">
+      <c r="A28" s="83"/>
+      <c r="B28" s="64" t="s">
         <v>373</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="50" t="s">
+      <c r="C28" s="65"/>
+      <c r="D28" s="66" t="s">
         <v>463</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
       <c r="G28" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H28" s="51" t="s">
+      <c r="H28" s="67" t="s">
         <v>464</v>
       </c>
-      <c r="I28" s="51"/>
-      <c r="J28" s="52"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="68"/>
       <c r="K28" s="24"/>
       <c r="L28" s="25"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="49"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="63"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="69"/>
-      <c r="B29" s="56" t="s">
+      <c r="A29" s="83"/>
+      <c r="B29" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="70" t="s">
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L29" s="71"/>
-      <c r="M29" s="47" t="s">
+      <c r="L29" s="57"/>
+      <c r="M29" s="61" t="s">
         <v>493</v>
       </c>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="49"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="63"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="69"/>
-      <c r="B30" s="72" t="s">
+      <c r="A30" s="83"/>
+      <c r="B30" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="74"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="54"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="69"/>
+      <c r="A31" s="83"/>
       <c r="B31" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="75"/>
-      <c r="E31" s="71"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="57"/>
       <c r="F31" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="70" t="s">
+      <c r="G31" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="71"/>
-      <c r="I31" s="70" t="s">
+      <c r="H31" s="57"/>
+      <c r="I31" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J31" s="71"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="77"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="59"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="69"/>
+      <c r="A32" s="83"/>
       <c r="B32" s="12">
         <v>1</v>
       </c>
-      <c r="C32" s="79" t="s">
+      <c r="C32" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="D32" s="80"/>
-      <c r="E32" s="81"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="51"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="79" t="s">
+      <c r="G32" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="H32" s="81"/>
+      <c r="H32" s="51"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="82"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="83"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="48"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="69"/>
+      <c r="A33" s="83"/>
       <c r="B33" s="29"/>
       <c r="C33" s="30"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="81"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="51"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="81"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="51"/>
       <c r="I33" s="3"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="83"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="48"/>
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
@@ -14599,6 +15611,73 @@
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
     <mergeCell ref="M28:P28"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C32:E32"/>
@@ -14615,73 +15694,6 @@
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="M31:P31"/>
     <mergeCell ref="M32:P32"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M29:P29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14714,134 +15726,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="63" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="67"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="78"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="49"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="63"/>
       <c r="N1" s="20"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="63" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="67"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="67"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="78"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="63" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="78"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -15274,442 +16286,463 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="52"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="68"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="55"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="81"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="68">
+      <c r="A22" s="82">
         <v>1</v>
       </c>
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="71"/>
-      <c r="D22" s="50" t="s">
+      <c r="C22" s="57"/>
+      <c r="D22" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
       <c r="G22" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H22" s="50" t="s">
+      <c r="H22" s="66" t="s">
         <v>300</v>
       </c>
-      <c r="I22" s="51"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="70" t="s">
+      <c r="I22" s="67"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="L22" s="71"/>
-      <c r="M22" s="47" t="s">
+      <c r="L22" s="57"/>
+      <c r="M22" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="49"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="63"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="69"/>
-      <c r="B23" s="70" t="s">
+      <c r="A23" s="83"/>
+      <c r="B23" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="50" t="s">
+      <c r="C23" s="57"/>
+      <c r="D23" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
       <c r="G23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="50" t="s">
+      <c r="H23" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="51"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="70" t="s">
+      <c r="I23" s="67"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="L23" s="71"/>
-      <c r="M23" s="47" t="s">
+      <c r="L23" s="57"/>
+      <c r="M23" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="49"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="63"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="69"/>
-      <c r="B24" s="70" t="s">
+      <c r="A24" s="83"/>
+      <c r="B24" s="55" t="s">
         <v>373</v>
       </c>
-      <c r="C24" s="71"/>
-      <c r="D24" s="50" t="s">
+      <c r="C24" s="57"/>
+      <c r="D24" s="66" t="s">
         <v>378</v>
       </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
       <c r="G24" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="H24" s="51" t="s">
+      <c r="H24" s="67" t="s">
         <v>379</v>
       </c>
-      <c r="I24" s="51"/>
-      <c r="J24" s="52"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="68"/>
       <c r="K24" s="24"/>
       <c r="L24" s="25"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="52"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="68"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="69"/>
-      <c r="B25" s="70" t="s">
+      <c r="A25" s="83"/>
+      <c r="B25" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="70" t="s">
+      <c r="C25" s="57"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="71"/>
-      <c r="M25" s="47" t="s">
+      <c r="L25" s="57"/>
+      <c r="M25" s="61" t="s">
         <v>445</v>
       </c>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="49"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="63"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="69"/>
-      <c r="B26" s="72" t="s">
+      <c r="A26" s="83"/>
+      <c r="B26" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="89"/>
-      <c r="O26" s="89"/>
-      <c r="P26" s="90"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="91"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="69"/>
+      <c r="A27" s="83"/>
       <c r="B27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="75"/>
-      <c r="E27" s="71"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57"/>
       <c r="F27" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="70" t="s">
+      <c r="G27" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="71"/>
-      <c r="I27" s="70" t="s">
+      <c r="H27" s="57"/>
+      <c r="I27" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="71"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="77"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="59"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="69"/>
+      <c r="A28" s="83"/>
       <c r="B28" s="12">
         <v>1</v>
       </c>
-      <c r="C28" s="79" t="s">
+      <c r="C28" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="80"/>
-      <c r="E28" s="81"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="51"/>
       <c r="F28" s="28"/>
-      <c r="G28" s="79" t="s">
+      <c r="G28" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="H28" s="81"/>
+      <c r="H28" s="51"/>
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="83"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="48"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="69"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="81"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="51"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="81"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="51"/>
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="83"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="48"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="68">
+      <c r="A30" s="82">
         <v>2</v>
       </c>
-      <c r="B30" s="70" t="s">
+      <c r="B30" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="71"/>
-      <c r="D30" s="50" t="s">
+      <c r="C30" s="57"/>
+      <c r="D30" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
       <c r="G30" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="70" t="s">
+      <c r="H30" s="66"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="L30" s="71"/>
-      <c r="M30" s="47" t="s">
+      <c r="L30" s="57"/>
+      <c r="M30" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="49"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="63"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="69"/>
-      <c r="B31" s="70" t="s">
+      <c r="A31" s="83"/>
+      <c r="B31" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="50" t="s">
+      <c r="C31" s="57"/>
+      <c r="D31" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
       <c r="G31" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="50" t="s">
+      <c r="H31" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="I31" s="51"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="70" t="s">
+      <c r="I31" s="67"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="L31" s="71"/>
-      <c r="M31" s="47" t="s">
+      <c r="L31" s="57"/>
+      <c r="M31" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="49"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="63"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="69"/>
-      <c r="B32" s="70" t="s">
+      <c r="A32" s="83"/>
+      <c r="B32" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="70" t="s">
+      <c r="C32" s="57"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L32" s="71"/>
-      <c r="M32" s="47" t="s">
+      <c r="L32" s="57"/>
+      <c r="M32" s="61" t="s">
         <v>387</v>
       </c>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="49"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="63"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="69"/>
-      <c r="B33" s="72" t="s">
+      <c r="A33" s="83"/>
+      <c r="B33" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="74"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="54"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="69"/>
+      <c r="A34" s="83"/>
       <c r="B34" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="70" t="s">
+      <c r="C34" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="71"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="57"/>
       <c r="F34" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="70" t="s">
+      <c r="G34" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="71"/>
-      <c r="I34" s="70" t="s">
+      <c r="H34" s="57"/>
+      <c r="I34" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="71"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="78"/>
-      <c r="O34" s="78"/>
-      <c r="P34" s="77"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="59"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="69"/>
+      <c r="A35" s="83"/>
       <c r="B35" s="12">
         <v>1</v>
       </c>
-      <c r="C35" s="79" t="s">
+      <c r="C35" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="80"/>
-      <c r="E35" s="81"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="51"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="79" t="s">
+      <c r="G35" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="H35" s="81"/>
+      <c r="H35" s="51"/>
       <c r="I35" s="3"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="84"/>
-      <c r="O35" s="84"/>
-      <c r="P35" s="83"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="48"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="91"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="81"/>
+      <c r="A36" s="88"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="51"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="81"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="51"/>
       <c r="I36" s="3"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="84"/>
-      <c r="O36" s="84"/>
-      <c r="P36" s="83"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="A21:P21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="M29:P29"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="M28:P28"/>
     <mergeCell ref="K32:L32"/>
@@ -15726,48 +16759,27 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="D31:F31"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A20:P20"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="A21:P21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="D25:J25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15799,136 +16811,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="63" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="73" t="s">
         <v>367</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="67"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="78"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="68"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="63" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="73" t="s">
         <v>368</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="67"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="61" t="s">
         <v>369</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="63" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="73" t="s">
         <v>440</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="67"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="78"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="52"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="68"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="63" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="73" t="s">
         <v>346</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="67"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="78"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">

--- a/nop-auth/model/nop-auth.orm.xlsx
+++ b/nop-auth/model/nop-auth.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-auth\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C366935-DADA-4970-84A3-E7D97F25E5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD6D80E-884A-436B-A8E6-26B48D1ECCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="8" activeTab="11" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="6" activeTab="9" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="514">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2123,6 +2123,18 @@
   </si>
   <si>
     <t>BIZ_OBJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub,ref-pub,cascade-delete,ref-connection</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2488,49 +2500,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2542,12 +2512,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2557,7 +2521,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2575,9 +2557,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2587,34 +2566,64 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2625,6 +2634,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3188,10 +3200,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FA4F0DF-629C-4898-BB59-2F1675DF9202}">
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="Q50" sqref="Q50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3211,65 +3223,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="73" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="78"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="67"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="68"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="73" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="63" t="s">
         <v>447</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="78"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="67"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="47" t="s">
         <v>448</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="78"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="67"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -3281,64 +3293,64 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="73" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="78"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="67"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -4317,50 +4329,50 @@
       <c r="P35" s="1"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="79" t="s">
+      <c r="A37" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
-      <c r="M37" s="80"/>
-      <c r="N37" s="80"/>
-      <c r="O37" s="80"/>
-      <c r="P37" s="81"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="55"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="82">
+      <c r="A38" s="68">
         <v>1</v>
       </c>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="66" t="s">
+      <c r="C38" s="57"/>
+      <c r="D38" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="E38" s="67"/>
-      <c r="F38" s="68"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="52"/>
       <c r="G38" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H38" s="66" t="s">
+      <c r="H38" s="50" t="s">
         <v>436</v>
       </c>
-      <c r="I38" s="67"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="55" t="s">
+      <c r="I38" s="51"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="L38" s="57"/>
+      <c r="L38" s="71"/>
       <c r="M38" s="14" t="s">
         <v>210</v>
       </c>
@@ -4369,54 +4381,54 @@
       <c r="P38" s="1"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="83"/>
-      <c r="B39" s="64" t="s">
+      <c r="A39" s="69"/>
+      <c r="B39" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="66" t="s">
+      <c r="C39" s="57"/>
+      <c r="D39" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="E39" s="67"/>
-      <c r="F39" s="68"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="52"/>
       <c r="G39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H39" s="66" t="s">
+      <c r="H39" s="50" t="s">
         <v>343</v>
       </c>
-      <c r="I39" s="67"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="55" t="s">
+      <c r="I39" s="51"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="L39" s="57"/>
-      <c r="M39" s="61" t="s">
+      <c r="L39" s="71"/>
+      <c r="M39" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="N39" s="62"/>
-      <c r="O39" s="62"/>
-      <c r="P39" s="63"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="49"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="83"/>
-      <c r="B40" s="64" t="s">
+      <c r="A40" s="69"/>
+      <c r="B40" s="56" t="s">
         <v>373</v>
       </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="66" t="s">
+      <c r="C40" s="57"/>
+      <c r="D40" s="50" t="s">
         <v>438</v>
       </c>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
       <c r="G40" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H40" s="67" t="s">
+      <c r="H40" s="51" t="s">
         <v>439</v>
       </c>
-      <c r="I40" s="67"/>
-      <c r="J40" s="68"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="52"/>
       <c r="K40" s="24"/>
       <c r="L40" s="25"/>
       <c r="M40" s="22"/>
@@ -4425,42 +4437,42 @@
       <c r="P40" s="20"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="83"/>
-      <c r="B41" s="64" t="s">
+      <c r="A41" s="69"/>
+      <c r="B41" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="65"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="55" t="s">
+      <c r="C41" s="57"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L41" s="57"/>
-      <c r="M41" s="61" t="s">
+      <c r="L41" s="71"/>
+      <c r="M41" s="47" t="s">
         <v>446</v>
       </c>
-      <c r="N41" s="62"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="63"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="49"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="83"/>
-      <c r="B42" s="52" t="s">
+      <c r="A42" s="69"/>
+      <c r="B42" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="54"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="74"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
@@ -4469,66 +4481,66 @@
       <c r="P42" s="5"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="83"/>
+      <c r="A43" s="69"/>
       <c r="B43" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="57"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="71"/>
       <c r="F43" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="55" t="s">
+      <c r="G43" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H43" s="57"/>
-      <c r="I43" s="55" t="s">
+      <c r="H43" s="71"/>
+      <c r="I43" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J43" s="57"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="60"/>
-      <c r="O43" s="60"/>
-      <c r="P43" s="59"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="77"/>
+      <c r="M43" s="76"/>
+      <c r="N43" s="78"/>
+      <c r="O43" s="78"/>
+      <c r="P43" s="77"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="83"/>
+      <c r="A44" s="69"/>
       <c r="B44" s="12">
         <v>1</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="79" t="s">
         <v>344</v>
       </c>
-      <c r="D44" s="50"/>
-      <c r="E44" s="51"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="81"/>
       <c r="F44" s="12"/>
-      <c r="G44" s="49" t="s">
+      <c r="G44" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="H44" s="51"/>
+      <c r="H44" s="81"/>
       <c r="I44" s="3"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="47"/>
-      <c r="P44" s="48"/>
+      <c r="K44" s="82"/>
+      <c r="L44" s="83"/>
+      <c r="M44" s="82"/>
+      <c r="N44" s="84"/>
+      <c r="O44" s="84"/>
+      <c r="P44" s="83"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="83"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="51"/>
+      <c r="A45" s="69"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="81"/>
       <c r="F45" s="12"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="51"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="81"/>
       <c r="I45" s="3"/>
       <c r="J45" s="4"/>
       <c r="K45" s="13"/>
@@ -4539,28 +4551,30 @@
       <c r="P45" s="6"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="82">
+      <c r="A46" s="68">
         <v>2</v>
       </c>
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="65"/>
-      <c r="D46" s="66" t="s">
+      <c r="C46" s="57"/>
+      <c r="D46" s="50" t="s">
         <v>363</v>
       </c>
-      <c r="E46" s="67"/>
-      <c r="F46" s="68"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="52"/>
       <c r="G46" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H46" s="66"/>
-      <c r="I46" s="67"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="55" t="s">
+      <c r="H46" s="50" t="s">
+        <v>511</v>
+      </c>
+      <c r="I46" s="51"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="L46" s="57"/>
+      <c r="L46" s="71"/>
       <c r="M46" s="14" t="s">
         <v>365</v>
       </c>
@@ -4569,190 +4583,190 @@
       <c r="P46" s="1"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="83"/>
-      <c r="B47" s="64" t="s">
+      <c r="A47" s="69"/>
+      <c r="B47" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="65"/>
-      <c r="D47" s="66" t="s">
+      <c r="C47" s="57"/>
+      <c r="D47" s="50" t="s">
         <v>345</v>
       </c>
-      <c r="E47" s="67"/>
-      <c r="F47" s="68"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="52"/>
       <c r="G47" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="66" t="s">
+      <c r="H47" s="50" t="s">
         <v>364</v>
       </c>
-      <c r="I47" s="67"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="55" t="s">
+      <c r="I47" s="51"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="L47" s="57"/>
-      <c r="M47" s="61" t="s">
+      <c r="L47" s="71"/>
+      <c r="M47" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="N47" s="62"/>
-      <c r="O47" s="62"/>
-      <c r="P47" s="63"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="48"/>
+      <c r="P47" s="49"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="83"/>
-      <c r="B48" s="64" t="s">
+      <c r="A48" s="69"/>
+      <c r="B48" s="56" t="s">
+        <v>373</v>
+      </c>
+      <c r="C48" s="57"/>
+      <c r="D48" s="50" t="s">
+        <v>512</v>
+      </c>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="H48" s="51" t="s">
+        <v>381</v>
+      </c>
+      <c r="I48" s="51"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="20"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" s="69"/>
+      <c r="B49" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="65"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="55" t="s">
+      <c r="C49" s="57"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L48" s="57"/>
-      <c r="M48" s="61" t="s">
-        <v>387</v>
-      </c>
-      <c r="N48" s="62"/>
-      <c r="O48" s="62"/>
-      <c r="P48" s="63"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="83"/>
-      <c r="B49" s="52" t="s">
+      <c r="L49" s="71"/>
+      <c r="M49" s="47" t="s">
+        <v>513</v>
+      </c>
+      <c r="N49" s="48"/>
+      <c r="O49" s="48"/>
+      <c r="P49" s="49"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" s="69"/>
+      <c r="B50" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="5"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="83"/>
-      <c r="B50" s="18" t="s">
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="73"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="5"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" s="69"/>
+      <c r="B51" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="55" t="s">
+      <c r="C51" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="56"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="7" t="s">
+      <c r="D51" s="75"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G50" s="55" t="s">
+      <c r="G51" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="57"/>
-      <c r="I50" s="55" t="s">
+      <c r="H51" s="71"/>
+      <c r="I51" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J50" s="57"/>
-      <c r="K50" s="58"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="58"/>
-      <c r="N50" s="60"/>
-      <c r="O50" s="60"/>
-      <c r="P50" s="59"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="83"/>
-      <c r="B51" s="12">
+      <c r="J51" s="71"/>
+      <c r="K51" s="76"/>
+      <c r="L51" s="77"/>
+      <c r="M51" s="76"/>
+      <c r="N51" s="78"/>
+      <c r="O51" s="78"/>
+      <c r="P51" s="77"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" s="69"/>
+      <c r="B52" s="12">
         <v>1</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C52" s="79" t="s">
         <v>366</v>
       </c>
-      <c r="D51" s="50"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="49" t="s">
+      <c r="D52" s="80"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="79" t="s">
         <v>366</v>
       </c>
-      <c r="H51" s="51"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="48"/>
-      <c r="M51" s="46"/>
-      <c r="N51" s="47"/>
-      <c r="O51" s="47"/>
-      <c r="P51" s="48"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="83"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="51"/>
+      <c r="H52" s="81"/>
       <c r="I52" s="3"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="6"/>
+      <c r="K52" s="82"/>
+      <c r="L52" s="83"/>
+      <c r="M52" s="82"/>
+      <c r="N52" s="84"/>
+      <c r="O52" s="84"/>
+      <c r="P52" s="83"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53" s="69"/>
+      <c r="B53" s="79"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="79"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="B49:J49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="H40:J40"/>
+  <mergeCells count="71">
+    <mergeCell ref="A37:P37"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
     <mergeCell ref="A38:A45"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:F38"/>
@@ -4769,19 +4783,48 @@
     <mergeCell ref="G45:H45"/>
     <mergeCell ref="B45:E45"/>
     <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A37:P37"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4793,7 +4836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E728D8DB-CA04-401F-A90E-01349EF3FF55}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="M35" sqref="M35:P35"/>
     </sheetView>
   </sheetViews>
@@ -4814,67 +4857,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="73" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="78"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="67"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="68"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="73" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="78"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="67"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="73" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="63" t="s">
         <v>492</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="78"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="67"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -4886,64 +4929,64 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="73" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="63" t="s">
         <v>170</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="78"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="67"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -5348,50 +5391,50 @@
       <c r="P18" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="81"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="55"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="82">
+      <c r="A21" s="68">
         <v>1</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="66" t="s">
+      <c r="C21" s="57"/>
+      <c r="D21" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="67"/>
-      <c r="F21" s="68"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
       <c r="G21" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H21" s="66" t="s">
+      <c r="H21" s="50" t="s">
         <v>301</v>
       </c>
-      <c r="I21" s="67"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="55" t="s">
+      <c r="I21" s="51"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="L21" s="57"/>
+      <c r="L21" s="71"/>
       <c r="M21" s="14" t="s">
         <v>209</v>
       </c>
@@ -5400,54 +5443,54 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="83"/>
-      <c r="B22" s="64" t="s">
+      <c r="A22" s="69"/>
+      <c r="B22" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="66" t="s">
+      <c r="C22" s="57"/>
+      <c r="D22" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="67"/>
-      <c r="F22" s="68"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="52"/>
       <c r="G22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="66" t="s">
+      <c r="H22" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="I22" s="67"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="55" t="s">
+      <c r="I22" s="51"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="L22" s="57"/>
-      <c r="M22" s="61" t="s">
+      <c r="L22" s="71"/>
+      <c r="M22" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="63"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="49"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
-      <c r="B23" s="64" t="s">
+      <c r="A23" s="69"/>
+      <c r="B23" s="56" t="s">
         <v>373</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="66" t="s">
+      <c r="C23" s="57"/>
+      <c r="D23" s="50" t="s">
         <v>380</v>
       </c>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
       <c r="G23" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H23" s="67" t="s">
+      <c r="H23" s="51" t="s">
         <v>381</v>
       </c>
-      <c r="I23" s="67"/>
-      <c r="J23" s="68"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
       <c r="K23" s="24"/>
       <c r="L23" s="25"/>
       <c r="M23" s="22"/>
@@ -5456,42 +5499,42 @@
       <c r="P23" s="20"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="83"/>
-      <c r="B24" s="64" t="s">
+      <c r="A24" s="69"/>
+      <c r="B24" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="55" t="s">
+      <c r="C24" s="57"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L24" s="57"/>
-      <c r="M24" s="61" t="s">
+      <c r="L24" s="71"/>
+      <c r="M24" s="47" t="s">
         <v>493</v>
       </c>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="63"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="49"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="83"/>
-      <c r="B25" s="52" t="s">
+      <c r="A25" s="69"/>
+      <c r="B25" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="54"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="74"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
@@ -5500,66 +5543,66 @@
       <c r="P25" s="5"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="83"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="71"/>
       <c r="F26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="55" t="s">
+      <c r="G26" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="57"/>
-      <c r="I26" s="55" t="s">
+      <c r="H26" s="71"/>
+      <c r="I26" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="57"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="59"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="77"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="83"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="12">
         <v>1</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="51"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="81"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="49" t="s">
+      <c r="G27" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="H27" s="51"/>
+      <c r="H27" s="81"/>
       <c r="I27" s="3"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="48"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="83"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="83"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="51"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="81"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="51"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="81"/>
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
       <c r="K28" s="13"/>
@@ -5570,30 +5613,30 @@
       <c r="P28" s="6"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="82">
+      <c r="A29" s="68">
         <v>2</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="66" t="s">
+      <c r="C29" s="57"/>
+      <c r="D29" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="E29" s="67"/>
-      <c r="F29" s="68"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="52"/>
       <c r="G29" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H29" s="66" t="s">
+      <c r="H29" s="50" t="s">
         <v>299</v>
       </c>
-      <c r="I29" s="67"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="55" t="s">
+      <c r="I29" s="51"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="L29" s="57"/>
+      <c r="L29" s="71"/>
       <c r="M29" s="14" t="s">
         <v>210</v>
       </c>
@@ -5602,54 +5645,54 @@
       <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="83"/>
-      <c r="B30" s="64" t="s">
+      <c r="A30" s="69"/>
+      <c r="B30" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="66" t="s">
+      <c r="C30" s="57"/>
+      <c r="D30" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="E30" s="67"/>
-      <c r="F30" s="68"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="52"/>
       <c r="G30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="66" t="s">
+      <c r="H30" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="I30" s="67"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="55" t="s">
+      <c r="I30" s="51"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="L30" s="57"/>
-      <c r="M30" s="61" t="s">
+      <c r="L30" s="71"/>
+      <c r="M30" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="63"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="49"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="83"/>
-      <c r="B31" s="64" t="s">
+      <c r="A31" s="69"/>
+      <c r="B31" s="56" t="s">
         <v>373</v>
       </c>
-      <c r="C31" s="65"/>
-      <c r="D31" s="66" t="s">
+      <c r="C31" s="57"/>
+      <c r="D31" s="50" t="s">
         <v>375</v>
       </c>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
       <c r="G31" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H31" s="67" t="s">
+      <c r="H31" s="51" t="s">
         <v>376</v>
       </c>
-      <c r="I31" s="67"/>
-      <c r="J31" s="68"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="52"/>
       <c r="K31" s="24"/>
       <c r="L31" s="25"/>
       <c r="M31" s="22"/>
@@ -5658,42 +5701,42 @@
       <c r="P31" s="20"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="83"/>
-      <c r="B32" s="64" t="s">
+      <c r="A32" s="69"/>
+      <c r="B32" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="65"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="55" t="s">
+      <c r="C32" s="57"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L32" s="57"/>
-      <c r="M32" s="61" t="s">
+      <c r="L32" s="71"/>
+      <c r="M32" s="47" t="s">
         <v>493</v>
       </c>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="63"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="49"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="83"/>
-      <c r="B33" s="52" t="s">
+      <c r="A33" s="69"/>
+      <c r="B33" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="54"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="74"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
@@ -5702,66 +5745,66 @@
       <c r="P33" s="5"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="83"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="57"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="71"/>
       <c r="F34" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="55" t="s">
+      <c r="G34" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="57"/>
-      <c r="I34" s="55" t="s">
+      <c r="H34" s="71"/>
+      <c r="I34" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="57"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="59"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="78"/>
+      <c r="O34" s="78"/>
+      <c r="P34" s="77"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="83"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="12">
         <v>1</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="51"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="81"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="49" t="s">
+      <c r="G35" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="H35" s="51"/>
+      <c r="H35" s="81"/>
       <c r="I35" s="3"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="48"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="83"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="83"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="83"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="51"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="81"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="51"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="81"/>
       <c r="I36" s="3"/>
       <c r="J36" s="4"/>
       <c r="K36" s="13"/>
@@ -5773,6 +5816,61 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="H22:J22"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="A6:P6"/>
@@ -5789,61 +5887,6 @@
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A20:P20"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5854,7 +5897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D5B415-1AC7-4CB6-8CE2-6AA77FBD913C}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -5875,65 +5918,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="73" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="63" t="s">
         <v>494</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="78"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="67"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="68"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="73" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="63" t="s">
         <v>495</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="78"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="67"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="47" t="s">
         <v>497</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="78"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="67"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -5945,64 +5988,64 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="73" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="63" t="s">
         <v>496</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="78"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="67"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -6505,50 +6548,50 @@
       <c r="P21" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="81"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="55"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="82">
+      <c r="A24" s="68">
         <v>1</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="66" t="s">
+      <c r="C24" s="57"/>
+      <c r="D24" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="67"/>
-      <c r="F24" s="68"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
       <c r="G24" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H24" s="66" t="s">
+      <c r="H24" s="50" t="s">
         <v>301</v>
       </c>
-      <c r="I24" s="67"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="55" t="s">
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="L24" s="57"/>
+      <c r="L24" s="71"/>
       <c r="M24" s="14" t="s">
         <v>209</v>
       </c>
@@ -6557,54 +6600,54 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="83"/>
-      <c r="B25" s="64" t="s">
+      <c r="A25" s="69"/>
+      <c r="B25" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="66" t="s">
+      <c r="C25" s="57"/>
+      <c r="D25" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="67"/>
-      <c r="F25" s="68"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="52"/>
       <c r="G25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="66" t="s">
+      <c r="H25" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="I25" s="67"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="55" t="s">
+      <c r="I25" s="51"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="L25" s="57"/>
-      <c r="M25" s="61" t="s">
+      <c r="L25" s="71"/>
+      <c r="M25" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="N25" s="62"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="63"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="49"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="83"/>
-      <c r="B26" s="64" t="s">
+      <c r="A26" s="69"/>
+      <c r="B26" s="56" t="s">
         <v>373</v>
       </c>
-      <c r="C26" s="65"/>
-      <c r="D26" s="66" t="s">
+      <c r="C26" s="57"/>
+      <c r="D26" s="50" t="s">
         <v>380</v>
       </c>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
       <c r="G26" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H26" s="67" t="s">
+      <c r="H26" s="51" t="s">
         <v>381</v>
       </c>
-      <c r="I26" s="67"/>
-      <c r="J26" s="68"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="52"/>
       <c r="K26" s="24"/>
       <c r="L26" s="25"/>
       <c r="M26" s="22"/>
@@ -6613,42 +6656,42 @@
       <c r="P26" s="20"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="83"/>
-      <c r="B27" s="64" t="s">
+      <c r="A27" s="69"/>
+      <c r="B27" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="55" t="s">
+      <c r="C27" s="57"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="57"/>
-      <c r="M27" s="61" t="s">
+      <c r="L27" s="71"/>
+      <c r="M27" s="47" t="s">
         <v>493</v>
       </c>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="63"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="49"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="83"/>
-      <c r="B28" s="52" t="s">
+      <c r="A28" s="69"/>
+      <c r="B28" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="74"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
@@ -6657,66 +6700,66 @@
       <c r="P28" s="5"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="83"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="71"/>
       <c r="F29" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="55" t="s">
+      <c r="G29" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="57"/>
-      <c r="I29" s="55" t="s">
+      <c r="H29" s="71"/>
+      <c r="I29" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="57"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="59"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="77"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="83"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="12">
         <v>1</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="50"/>
-      <c r="E30" s="51"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="81"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="49" t="s">
+      <c r="G30" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="H30" s="51"/>
+      <c r="H30" s="81"/>
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="48"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="83"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="83"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="51"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="81"/>
       <c r="F31" s="12"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="51"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="81"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
       <c r="K31" s="13"/>
@@ -6728,26 +6771,18 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
     <mergeCell ref="A23:P23"/>
     <mergeCell ref="A24:A31"/>
     <mergeCell ref="B24:C24"/>
@@ -6758,18 +6793,26 @@
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="H25:J25"/>
     <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="G31:H31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6801,134 +6844,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="73" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="63" t="s">
         <v>260</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="78"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="67"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="68"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="73" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="78"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="67"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="73" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="63" t="s">
         <v>392</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="78"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="67"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="63"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="78"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="67"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -7596,67 +7639,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="73" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="78"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="67"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="68"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="73" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="63" t="s">
         <v>449</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="78"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="67"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="73" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="63" t="s">
         <v>392</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="78"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="67"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -7668,64 +7711,64 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="73" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="78"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="67"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -8185,48 +8228,48 @@
       <c r="E21" s="31"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="80"/>
-      <c r="P22" s="81"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="55"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="82">
+      <c r="A23" s="68">
         <v>1</v>
       </c>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="66" t="s">
+      <c r="C23" s="57"/>
+      <c r="D23" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="E23" s="67"/>
-      <c r="F23" s="68"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="52"/>
       <c r="G23" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H23" s="66"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="55" t="s">
+      <c r="H23" s="50"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="L23" s="57"/>
+      <c r="L23" s="71"/>
       <c r="M23" s="14" t="s">
         <v>282</v>
       </c>
@@ -8235,72 +8278,72 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="83"/>
-      <c r="B24" s="64" t="s">
+      <c r="A24" s="69"/>
+      <c r="B24" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="66" t="s">
+      <c r="C24" s="57"/>
+      <c r="D24" s="50" t="s">
         <v>233</v>
       </c>
-      <c r="E24" s="67"/>
-      <c r="F24" s="68"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
       <c r="G24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="66" t="s">
+      <c r="H24" s="50" t="s">
         <v>234</v>
       </c>
-      <c r="I24" s="67"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="55" t="s">
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="L24" s="57"/>
-      <c r="M24" s="61" t="s">
+      <c r="L24" s="71"/>
+      <c r="M24" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="63"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="49"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="83"/>
-      <c r="B25" s="64" t="s">
+      <c r="A25" s="69"/>
+      <c r="B25" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="55" t="s">
+      <c r="C25" s="57"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="57"/>
-      <c r="M25" s="61" t="s">
+      <c r="L25" s="71"/>
+      <c r="M25" s="47" t="s">
         <v>387</v>
       </c>
-      <c r="N25" s="62"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="63"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="49"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="83"/>
-      <c r="B26" s="52" t="s">
+      <c r="A26" s="69"/>
+      <c r="B26" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="54"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="74"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
@@ -8309,7 +8352,7 @@
       <c r="P26" s="5"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="83"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="18" t="s">
         <v>22</v>
       </c>
@@ -8321,87 +8364,65 @@
       <c r="F27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="55" t="s">
+      <c r="G27" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="57"/>
-      <c r="I27" s="55" t="s">
+      <c r="H27" s="71"/>
+      <c r="I27" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="57"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="59"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="77"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="83"/>
+      <c r="A28" s="69"/>
       <c r="B28" s="12">
         <v>1</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="79" t="s">
         <v>235</v>
       </c>
-      <c r="D28" s="51"/>
+      <c r="D28" s="81"/>
       <c r="E28" s="4"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="49" t="s">
+      <c r="G28" s="79" t="s">
         <v>235</v>
       </c>
-      <c r="H28" s="51"/>
+      <c r="H28" s="81"/>
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="48"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="83"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="83"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="51"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="H23:J23"/>
     <mergeCell ref="B24:C24"/>
@@ -8418,6 +8439,28 @@
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="M25:P25"/>
     <mergeCell ref="C27:D27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8449,132 +8492,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="76" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="65" t="s">
         <v>246</v>
       </c>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
       <c r="G1" s="93"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="68"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="73" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="78"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="67"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="78"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="67"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="63"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="78"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="67"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -9111,50 +9154,50 @@
       <c r="P22" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="79" t="s">
+      <c r="A24" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="81"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="55"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="82">
+      <c r="A25" s="68">
         <v>1</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="66" t="s">
+      <c r="C25" s="57"/>
+      <c r="D25" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="67"/>
-      <c r="F25" s="68"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="52"/>
       <c r="G25" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H25" s="66" t="s">
+      <c r="H25" s="50" t="s">
         <v>436</v>
       </c>
-      <c r="I25" s="67"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="55" t="s">
+      <c r="I25" s="51"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="L25" s="57"/>
+      <c r="L25" s="71"/>
       <c r="M25" s="14" t="s">
         <v>417</v>
       </c>
@@ -9163,54 +9206,54 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="83"/>
-      <c r="B26" s="64" t="s">
+      <c r="A26" s="69"/>
+      <c r="B26" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="65"/>
-      <c r="D26" s="66" t="s">
+      <c r="C26" s="57"/>
+      <c r="D26" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="E26" s="67"/>
-      <c r="F26" s="68"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="52"/>
       <c r="G26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="66" t="s">
+      <c r="H26" s="50" t="s">
         <v>343</v>
       </c>
-      <c r="I26" s="67"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="55" t="s">
+      <c r="I26" s="51"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="L26" s="57"/>
-      <c r="M26" s="61" t="s">
+      <c r="L26" s="71"/>
+      <c r="M26" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="63"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="49"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="83"/>
-      <c r="B27" s="64" t="s">
+      <c r="A27" s="69"/>
+      <c r="B27" s="56" t="s">
         <v>373</v>
       </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="66" t="s">
+      <c r="C27" s="57"/>
+      <c r="D27" s="50" t="s">
         <v>438</v>
       </c>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
       <c r="G27" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H27" s="67" t="s">
+      <c r="H27" s="51" t="s">
         <v>439</v>
       </c>
-      <c r="I27" s="67"/>
-      <c r="J27" s="68"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="52"/>
       <c r="K27" s="24"/>
       <c r="L27" s="25"/>
       <c r="M27" s="22"/>
@@ -9219,42 +9262,42 @@
       <c r="P27" s="20"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="83"/>
-      <c r="B28" s="64" t="s">
+      <c r="A28" s="69"/>
+      <c r="B28" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="55" t="s">
+      <c r="C28" s="57"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="57"/>
-      <c r="M28" s="61" t="s">
+      <c r="L28" s="71"/>
+      <c r="M28" s="47" t="s">
         <v>386</v>
       </c>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="63"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="49"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="83"/>
-      <c r="B29" s="52" t="s">
+      <c r="A29" s="69"/>
+      <c r="B29" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="54"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="74"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
@@ -9263,66 +9306,66 @@
       <c r="P29" s="5"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="83"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="57"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="71"/>
       <c r="F30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="55" t="s">
+      <c r="G30" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="57"/>
-      <c r="I30" s="55" t="s">
+      <c r="H30" s="71"/>
+      <c r="I30" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="57"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="59"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="77"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="83"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="12">
         <v>1</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="79" t="s">
         <v>344</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="51"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="81"/>
       <c r="F31" s="12"/>
-      <c r="G31" s="49" t="s">
+      <c r="G31" s="79" t="s">
         <v>418</v>
       </c>
-      <c r="H31" s="51"/>
+      <c r="H31" s="81"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="48"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="83"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="84"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="83"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="83"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="51"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="81"/>
       <c r="F32" s="12"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="51"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="81"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
       <c r="K32" s="13"/>
@@ -9334,19 +9377,20 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
     <mergeCell ref="A24:P24"/>
     <mergeCell ref="A25:A32"/>
     <mergeCell ref="B25:C25"/>
@@ -9363,20 +9407,19 @@
     <mergeCell ref="H27:J27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9408,132 +9451,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="73" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="63" t="s">
         <v>429</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="78"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="67"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="68"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="73" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="63" t="s">
         <v>430</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="78"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="67"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="47" t="s">
         <v>405</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="78"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="67"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="63"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="78"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="67"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -9917,6 +9960,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -9924,12 +9973,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9961,132 +10004,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="76" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="65" t="s">
         <v>255</v>
       </c>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
       <c r="G1" s="93"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="68"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="73" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="63" t="s">
         <v>256</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="78"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="67"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="78"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="67"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="63"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="78"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="67"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -11155,134 +11198,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="76" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="63"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="20"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="73" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="73" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="63" t="s">
         <v>435</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="63"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="78"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="67"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -12463,494 +12506,494 @@
       <c r="P41" s="1"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="79" t="s">
+      <c r="A43" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="80"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="80"/>
-      <c r="I43" s="80"/>
-      <c r="J43" s="80"/>
-      <c r="K43" s="80"/>
-      <c r="L43" s="80"/>
-      <c r="M43" s="80"/>
-      <c r="N43" s="80"/>
-      <c r="O43" s="80"/>
-      <c r="P43" s="81"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="55"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="82">
+      <c r="A44" s="68">
         <v>1</v>
       </c>
-      <c r="B44" s="64" t="s">
+      <c r="B44" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="66" t="s">
+      <c r="C44" s="57"/>
+      <c r="D44" s="50" t="s">
         <v>416</v>
       </c>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
       <c r="G44" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H44" s="66"/>
-      <c r="I44" s="67"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="55" t="s">
+      <c r="H44" s="50"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="L44" s="57"/>
-      <c r="M44" s="61" t="s">
+      <c r="L44" s="71"/>
+      <c r="M44" s="47" t="s">
         <v>417</v>
       </c>
-      <c r="N44" s="62"/>
-      <c r="O44" s="62"/>
-      <c r="P44" s="63"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="48"/>
+      <c r="P44" s="49"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="83"/>
-      <c r="B45" s="64" t="s">
+      <c r="A45" s="69"/>
+      <c r="B45" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="65"/>
-      <c r="D45" s="66" t="s">
+      <c r="C45" s="57"/>
+      <c r="D45" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
       <c r="G45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H45" s="66" t="s">
+      <c r="H45" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="I45" s="67"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="55" t="s">
+      <c r="I45" s="51"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="L45" s="57"/>
-      <c r="M45" s="61" t="s">
+      <c r="L45" s="71"/>
+      <c r="M45" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="N45" s="62"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="63"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="49"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="83"/>
-      <c r="B46" s="64" t="s">
+      <c r="A46" s="69"/>
+      <c r="B46" s="56" t="s">
         <v>373</v>
       </c>
-      <c r="C46" s="65"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
       <c r="G46" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H46" s="67"/>
-      <c r="I46" s="67"/>
-      <c r="J46" s="68"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="52"/>
       <c r="K46" s="24"/>
       <c r="L46" s="25"/>
-      <c r="M46" s="61"/>
-      <c r="N46" s="62"/>
-      <c r="O46" s="62"/>
-      <c r="P46" s="63"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="48"/>
+      <c r="P46" s="49"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="83"/>
-      <c r="B47" s="64" t="s">
+      <c r="A47" s="69"/>
+      <c r="B47" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="65"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="55" t="s">
+      <c r="C47" s="57"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L47" s="57"/>
-      <c r="M47" s="61" t="s">
+      <c r="L47" s="71"/>
+      <c r="M47" s="47" t="s">
         <v>386</v>
       </c>
-      <c r="N47" s="62"/>
-      <c r="O47" s="62"/>
-      <c r="P47" s="63"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="48"/>
+      <c r="P47" s="49"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="83"/>
-      <c r="B48" s="52" t="s">
+      <c r="A48" s="69"/>
+      <c r="B48" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="54"/>
-      <c r="M48" s="52"/>
-      <c r="N48" s="53"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="54"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="72"/>
+      <c r="L48" s="74"/>
+      <c r="M48" s="72"/>
+      <c r="N48" s="73"/>
+      <c r="O48" s="73"/>
+      <c r="P48" s="74"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="83"/>
+      <c r="A49" s="69"/>
       <c r="B49" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="56"/>
-      <c r="E49" s="57"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="71"/>
       <c r="F49" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="55" t="s">
+      <c r="G49" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H49" s="57"/>
-      <c r="I49" s="55" t="s">
+      <c r="H49" s="71"/>
+      <c r="I49" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J49" s="57"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="59"/>
-      <c r="M49" s="58"/>
-      <c r="N49" s="60"/>
-      <c r="O49" s="60"/>
-      <c r="P49" s="59"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="77"/>
+      <c r="M49" s="76"/>
+      <c r="N49" s="78"/>
+      <c r="O49" s="78"/>
+      <c r="P49" s="77"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="83"/>
+      <c r="A50" s="69"/>
       <c r="B50" s="12">
         <v>1</v>
       </c>
-      <c r="C50" s="49" t="s">
+      <c r="C50" s="79" t="s">
         <v>418</v>
       </c>
-      <c r="D50" s="50"/>
-      <c r="E50" s="51"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="81"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="49" t="s">
+      <c r="G50" s="79" t="s">
         <v>418</v>
       </c>
-      <c r="H50" s="51"/>
+      <c r="H50" s="81"/>
       <c r="I50" s="3"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="48"/>
-      <c r="M50" s="46"/>
-      <c r="N50" s="47"/>
-      <c r="O50" s="47"/>
-      <c r="P50" s="48"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="83"/>
+      <c r="M50" s="82"/>
+      <c r="N50" s="84"/>
+      <c r="O50" s="84"/>
+      <c r="P50" s="83"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="83"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="51"/>
+      <c r="A51" s="69"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="81"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="51"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="81"/>
       <c r="I51" s="3"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="48"/>
-      <c r="M51" s="46"/>
-      <c r="N51" s="47"/>
-      <c r="O51" s="47"/>
-      <c r="P51" s="48"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="83"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="84"/>
+      <c r="O51" s="84"/>
+      <c r="P51" s="83"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="69">
+      <c r="A52" s="85">
         <v>2</v>
       </c>
-      <c r="B52" s="64" t="s">
+      <c r="B52" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="65"/>
-      <c r="D52" s="66" t="s">
+      <c r="C52" s="57"/>
+      <c r="D52" s="50" t="s">
         <v>431</v>
       </c>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
       <c r="G52" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H52" s="66"/>
-      <c r="I52" s="67"/>
-      <c r="J52" s="68"/>
-      <c r="K52" s="55" t="s">
+      <c r="H52" s="50"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="L52" s="57"/>
-      <c r="M52" s="61" t="s">
+      <c r="L52" s="71"/>
+      <c r="M52" s="47" t="s">
         <v>432</v>
       </c>
-      <c r="N52" s="62"/>
-      <c r="O52" s="62"/>
-      <c r="P52" s="63"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="48"/>
+      <c r="P52" s="49"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="69"/>
-      <c r="B53" s="64" t="s">
+      <c r="A53" s="85"/>
+      <c r="B53" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="65"/>
-      <c r="D53" s="66" t="s">
+      <c r="C53" s="57"/>
+      <c r="D53" s="50" t="s">
         <v>430</v>
       </c>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
       <c r="G53" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H53" s="66" t="s">
+      <c r="H53" s="50" t="s">
         <v>405</v>
       </c>
-      <c r="I53" s="67"/>
-      <c r="J53" s="68"/>
-      <c r="K53" s="55" t="s">
+      <c r="I53" s="51"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="L53" s="57"/>
-      <c r="M53" s="61" t="s">
+      <c r="L53" s="71"/>
+      <c r="M53" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="N53" s="62"/>
-      <c r="O53" s="62"/>
-      <c r="P53" s="63"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="49"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="69"/>
-      <c r="B54" s="64" t="s">
+      <c r="A54" s="85"/>
+      <c r="B54" s="56" t="s">
         <v>373</v>
       </c>
-      <c r="C54" s="65"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
       <c r="G54" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="68"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="52"/>
       <c r="K54" s="24"/>
       <c r="L54" s="25"/>
-      <c r="M54" s="61"/>
-      <c r="N54" s="62"/>
-      <c r="O54" s="62"/>
-      <c r="P54" s="63"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="48"/>
+      <c r="P54" s="49"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="69"/>
-      <c r="B55" s="64" t="s">
+      <c r="A55" s="85"/>
+      <c r="B55" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="65"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="68"/>
-      <c r="K55" s="55" t="s">
+      <c r="C55" s="57"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L55" s="57"/>
-      <c r="M55" s="61" t="s">
+      <c r="L55" s="71"/>
+      <c r="M55" s="47" t="s">
         <v>386</v>
       </c>
-      <c r="N55" s="62"/>
-      <c r="O55" s="62"/>
-      <c r="P55" s="63"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="48"/>
+      <c r="P55" s="49"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="69"/>
-      <c r="B56" s="52" t="s">
+      <c r="A56" s="85"/>
+      <c r="B56" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="54"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="54"/>
-      <c r="M56" s="52"/>
-      <c r="N56" s="53"/>
-      <c r="O56" s="53"/>
-      <c r="P56" s="54"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="73"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="72"/>
+      <c r="L56" s="74"/>
+      <c r="M56" s="72"/>
+      <c r="N56" s="73"/>
+      <c r="O56" s="73"/>
+      <c r="P56" s="74"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" s="69"/>
+      <c r="A57" s="85"/>
       <c r="B57" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="55" t="s">
+      <c r="C57" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="56"/>
-      <c r="E57" s="57"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="71"/>
       <c r="F57" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="55" t="s">
+      <c r="G57" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H57" s="57"/>
-      <c r="I57" s="55" t="s">
+      <c r="H57" s="71"/>
+      <c r="I57" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J57" s="57"/>
-      <c r="K57" s="58"/>
-      <c r="L57" s="59"/>
-      <c r="M57" s="58"/>
-      <c r="N57" s="60"/>
-      <c r="O57" s="60"/>
-      <c r="P57" s="59"/>
+      <c r="J57" s="71"/>
+      <c r="K57" s="76"/>
+      <c r="L57" s="77"/>
+      <c r="M57" s="76"/>
+      <c r="N57" s="78"/>
+      <c r="O57" s="78"/>
+      <c r="P57" s="77"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58" s="69"/>
+      <c r="A58" s="85"/>
       <c r="B58" s="12">
         <v>1</v>
       </c>
-      <c r="C58" s="49" t="s">
+      <c r="C58" s="79" t="s">
         <v>433</v>
       </c>
-      <c r="D58" s="50"/>
-      <c r="E58" s="51"/>
+      <c r="D58" s="80"/>
+      <c r="E58" s="81"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="49" t="s">
+      <c r="G58" s="79" t="s">
         <v>433</v>
       </c>
-      <c r="H58" s="51"/>
+      <c r="H58" s="81"/>
       <c r="I58" s="3"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="46"/>
-      <c r="L58" s="48"/>
-      <c r="M58" s="46"/>
-      <c r="N58" s="47"/>
-      <c r="O58" s="47"/>
-      <c r="P58" s="48"/>
+      <c r="K58" s="82"/>
+      <c r="L58" s="83"/>
+      <c r="M58" s="82"/>
+      <c r="N58" s="84"/>
+      <c r="O58" s="84"/>
+      <c r="P58" s="83"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" s="69"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="51"/>
+      <c r="A59" s="85"/>
+      <c r="B59" s="79"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="81"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="51"/>
+      <c r="G59" s="79"/>
+      <c r="H59" s="81"/>
       <c r="I59" s="3"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="46"/>
-      <c r="L59" s="48"/>
-      <c r="M59" s="46"/>
-      <c r="N59" s="47"/>
-      <c r="O59" s="47"/>
-      <c r="P59" s="48"/>
+      <c r="K59" s="82"/>
+      <c r="L59" s="83"/>
+      <c r="M59" s="82"/>
+      <c r="N59" s="84"/>
+      <c r="O59" s="84"/>
+      <c r="P59" s="83"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A61" s="79" t="s">
+      <c r="A61" s="53" t="s">
         <v>481</v>
       </c>
-      <c r="B61" s="80"/>
-      <c r="C61" s="80"/>
-      <c r="D61" s="80"/>
-      <c r="E61" s="80"/>
-      <c r="F61" s="80"/>
-      <c r="G61" s="80"/>
-      <c r="H61" s="80"/>
-      <c r="I61" s="80"/>
-      <c r="J61" s="80"/>
-      <c r="K61" s="80"/>
-      <c r="L61" s="80"/>
-      <c r="M61" s="80"/>
-      <c r="N61" s="80"/>
-      <c r="O61" s="80"/>
-      <c r="P61" s="81"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="54"/>
+      <c r="O61" s="54"/>
+      <c r="P61" s="55"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B62" s="64" t="s">
+      <c r="B62" s="56" t="s">
         <v>482</v>
       </c>
-      <c r="C62" s="65"/>
-      <c r="D62" s="64" t="s">
+      <c r="C62" s="57"/>
+      <c r="D62" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="E62" s="65"/>
+      <c r="E62" s="57"/>
       <c r="F62" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="75" t="s">
+      <c r="H62" s="58" t="s">
         <v>483</v>
       </c>
-      <c r="I62" s="75"/>
-      <c r="J62" s="75"/>
-      <c r="K62" s="64" t="s">
+      <c r="I62" s="58"/>
+      <c r="J62" s="58"/>
+      <c r="K62" s="56" t="s">
         <v>484</v>
       </c>
-      <c r="L62" s="85"/>
-      <c r="M62" s="85"/>
-      <c r="N62" s="85"/>
-      <c r="O62" s="85"/>
-      <c r="P62" s="65"/>
+      <c r="L62" s="59"/>
+      <c r="M62" s="59"/>
+      <c r="N62" s="59"/>
+      <c r="O62" s="59"/>
+      <c r="P62" s="57"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
         <v>1</v>
       </c>
-      <c r="B63" s="84" t="s">
+      <c r="B63" s="46" t="s">
         <v>485</v>
       </c>
-      <c r="C63" s="84"/>
-      <c r="D63" s="84" t="s">
+      <c r="C63" s="46"/>
+      <c r="D63" s="46" t="s">
         <v>487</v>
       </c>
-      <c r="E63" s="84"/>
+      <c r="E63" s="46"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="61" t="s">
+      <c r="H63" s="47" t="s">
         <v>486</v>
       </c>
-      <c r="I63" s="62"/>
-      <c r="J63" s="63"/>
-      <c r="K63" s="66"/>
-      <c r="L63" s="67"/>
-      <c r="M63" s="67"/>
-      <c r="N63" s="67"/>
-      <c r="O63" s="67"/>
-      <c r="P63" s="68"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="50"/>
+      <c r="L63" s="51"/>
+      <c r="M63" s="51"/>
+      <c r="N63" s="51"/>
+      <c r="O63" s="51"/>
+      <c r="P63" s="52"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="31"/>
@@ -12991,32 +13034,92 @@
       <c r="C66" s="17"/>
     </row>
     <row r="67" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="70" t="s">
+      <c r="B67" s="60" t="s">
         <v>452</v>
       </c>
-      <c r="C67" s="71"/>
-      <c r="D67" s="71"/>
-      <c r="E67" s="71"/>
-      <c r="F67" s="71"/>
-      <c r="G67" s="71"/>
-      <c r="H67" s="71"/>
-      <c r="I67" s="71"/>
-      <c r="J67" s="71"/>
-      <c r="K67" s="71"/>
-      <c r="L67" s="71"/>
-      <c r="M67" s="71"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
+      <c r="I67" s="61"/>
+      <c r="J67" s="61"/>
+      <c r="K67" s="61"/>
+      <c r="L67" s="61"/>
+      <c r="M67" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:P63"/>
-    <mergeCell ref="A61:P61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K62:P62"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:P59"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:P57"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="B56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:P44"/>
     <mergeCell ref="B67:M67"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="D3:G3"/>
@@ -13033,75 +13136,15 @@
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A43:P43"/>
     <mergeCell ref="A44:A51"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:P45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="B48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="A52:A59"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="B56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:P57"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:P59"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:P63"/>
+    <mergeCell ref="A61:P61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="K62:P62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13134,134 +13177,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="73" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="63" t="s">
         <v>472</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="63"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="20"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="73" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="63" t="s">
         <v>475</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="47" t="s">
         <v>480</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="63"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="73" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="63" t="s">
         <v>476</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="78"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="67"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -13682,221 +13725,254 @@
       <c r="P18" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="81"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="55"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="82">
+      <c r="A21" s="68">
         <v>1</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="66" t="s">
+      <c r="C21" s="57"/>
+      <c r="D21" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
       <c r="G21" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H21" s="66"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="55" t="s">
+      <c r="H21" s="50"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="L21" s="57"/>
-      <c r="M21" s="61" t="s">
+      <c r="L21" s="71"/>
+      <c r="M21" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="63"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="49"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="83"/>
-      <c r="B22" s="64" t="s">
+      <c r="A22" s="69"/>
+      <c r="B22" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="66" t="s">
+      <c r="C22" s="57"/>
+      <c r="D22" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
       <c r="G22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="66" t="s">
+      <c r="H22" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="67"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="55" t="s">
+      <c r="I22" s="51"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="L22" s="57"/>
-      <c r="M22" s="61" t="s">
+      <c r="L22" s="71"/>
+      <c r="M22" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="63"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="49"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
-      <c r="B23" s="64" t="s">
+      <c r="A23" s="69"/>
+      <c r="B23" s="56" t="s">
         <v>373</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
       <c r="G23" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="68"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
       <c r="K23" s="24"/>
       <c r="L23" s="25"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="63"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="49"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="83"/>
-      <c r="B24" s="64" t="s">
+      <c r="A24" s="69"/>
+      <c r="B24" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="55" t="s">
+      <c r="C24" s="57"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L24" s="57"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="63"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="49"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="83"/>
-      <c r="B25" s="52" t="s">
+      <c r="A25" s="69"/>
+      <c r="B25" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="54"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="74"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="83"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="71"/>
       <c r="F26" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="55" t="s">
+      <c r="G26" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="57"/>
-      <c r="I26" s="55" t="s">
+      <c r="H26" s="71"/>
+      <c r="I26" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="57"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="59"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="77"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="83"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="12">
         <v>1</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="51"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="81"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="49" t="s">
+      <c r="G27" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="51"/>
+      <c r="H27" s="81"/>
       <c r="I27" s="3"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="48"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="83"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="83"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="51"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="81"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="51"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="81"/>
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="48"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
     <mergeCell ref="B25:J25"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="M25:P25"/>
@@ -13913,39 +13989,6 @@
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A20:P20"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13977,134 +14020,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="73" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="68"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="73" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="73" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="63" t="s">
         <v>435</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="63"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="78"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="67"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -14553,82 +14596,82 @@
       <c r="P19" s="1"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="79" t="s">
+      <c r="A21" s="53" t="s">
         <v>481</v>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="80"/>
-      <c r="P21" s="81"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="55"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="56" t="s">
         <v>482</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="64" t="s">
+      <c r="C22" s="57"/>
+      <c r="D22" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="65"/>
+      <c r="E22" s="57"/>
       <c r="F22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="75" t="s">
+      <c r="H22" s="58" t="s">
         <v>483</v>
       </c>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="64" t="s">
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="56" t="s">
         <v>484</v>
       </c>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="65"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="57"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>1</v>
       </c>
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="46" t="s">
         <v>488</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84" t="s">
+      <c r="C23" s="46"/>
+      <c r="D23" s="46" t="s">
         <v>489</v>
       </c>
-      <c r="E23" s="84"/>
+      <c r="E23" s="46"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="61" t="s">
+      <c r="H23" s="47" t="s">
         <v>490</v>
       </c>
-      <c r="I23" s="62"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="68"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="52"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="31"/>
@@ -14664,15 +14707,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="A21:P21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:P22"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
@@ -14686,6 +14720,15 @@
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="A21:P21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:P22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14718,134 +14761,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="73" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="78"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="67"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="68"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="73" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="78"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="67"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="73" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="63" t="s">
         <v>492</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="78"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="67"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="63"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="78"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="67"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -15186,235 +15229,235 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="81"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="55"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="82">
+      <c r="A18" s="68">
         <v>1</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66" t="s">
+      <c r="C18" s="57"/>
+      <c r="D18" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
       <c r="G18" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H18" s="66" t="s">
+      <c r="H18" s="50" t="s">
         <v>299</v>
       </c>
-      <c r="I18" s="67"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="55" t="s">
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="L18" s="57"/>
-      <c r="M18" s="61" t="s">
+      <c r="L18" s="71"/>
+      <c r="M18" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="63"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="49"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="83"/>
-      <c r="B19" s="64" t="s">
+      <c r="A19" s="69"/>
+      <c r="B19" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="66" t="s">
+      <c r="C19" s="57"/>
+      <c r="D19" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
       <c r="G19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="66" t="s">
+      <c r="H19" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="67"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="55" t="s">
+      <c r="I19" s="51"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="L19" s="57"/>
-      <c r="M19" s="61" t="s">
+      <c r="L19" s="71"/>
+      <c r="M19" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="63"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="49"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="83"/>
-      <c r="B20" s="64" t="s">
+      <c r="A20" s="69"/>
+      <c r="B20" s="56" t="s">
         <v>373</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66" t="s">
+      <c r="C20" s="57"/>
+      <c r="D20" s="50" t="s">
         <v>375</v>
       </c>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
       <c r="G20" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H20" s="67" t="s">
+      <c r="H20" s="51" t="s">
         <v>377</v>
       </c>
-      <c r="I20" s="67"/>
-      <c r="J20" s="68"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="52"/>
       <c r="K20" s="24"/>
       <c r="L20" s="25"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="63"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="49"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="83"/>
-      <c r="B21" s="64" t="s">
+      <c r="A21" s="69"/>
+      <c r="B21" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="55" t="s">
+      <c r="C21" s="57"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="57"/>
-      <c r="M21" s="61" t="s">
+      <c r="L21" s="71"/>
+      <c r="M21" s="47" t="s">
         <v>493</v>
       </c>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="63"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="49"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="83"/>
-      <c r="B22" s="52" t="s">
+      <c r="A22" s="69"/>
+      <c r="B22" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="54"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="74"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="71"/>
       <c r="F23" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="57"/>
-      <c r="I23" s="55" t="s">
+      <c r="H23" s="71"/>
+      <c r="I23" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="57"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="59"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="77"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="83"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="12">
         <v>1</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="81"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="49" t="s">
+      <c r="G24" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="H24" s="51"/>
+      <c r="H24" s="81"/>
       <c r="I24" s="3"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="48"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="83"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="83"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="51"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="81"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="51"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="81"/>
       <c r="I25" s="3"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="48"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="83"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="82">
+      <c r="A26" s="68">
         <v>2</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="65"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="86" t="s">
         <v>121</v>
       </c>
@@ -15423,28 +15466,28 @@
       <c r="G26" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H26" s="66" t="s">
+      <c r="H26" s="50" t="s">
         <v>462</v>
       </c>
-      <c r="I26" s="67"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="55" t="s">
+      <c r="I26" s="51"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="L26" s="57"/>
-      <c r="M26" s="61" t="s">
+      <c r="L26" s="71"/>
+      <c r="M26" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="63"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="49"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="83"/>
-      <c r="B27" s="64" t="s">
+      <c r="A27" s="69"/>
+      <c r="B27" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="65"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="86" t="s">
         <v>106</v>
       </c>
@@ -15453,157 +15496,157 @@
       <c r="G27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="66" t="s">
+      <c r="H27" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="I27" s="67"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="55" t="s">
+      <c r="I27" s="51"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="L27" s="57"/>
-      <c r="M27" s="61" t="s">
+      <c r="L27" s="71"/>
+      <c r="M27" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="63"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="49"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="83"/>
-      <c r="B28" s="64" t="s">
+      <c r="A28" s="69"/>
+      <c r="B28" s="56" t="s">
         <v>373</v>
       </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="66" t="s">
+      <c r="C28" s="57"/>
+      <c r="D28" s="50" t="s">
         <v>463</v>
       </c>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
       <c r="G28" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H28" s="67" t="s">
+      <c r="H28" s="51" t="s">
         <v>464</v>
       </c>
-      <c r="I28" s="67"/>
-      <c r="J28" s="68"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="52"/>
       <c r="K28" s="24"/>
       <c r="L28" s="25"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="63"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="49"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="83"/>
-      <c r="B29" s="64" t="s">
+      <c r="A29" s="69"/>
+      <c r="B29" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="55" t="s">
+      <c r="C29" s="57"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L29" s="57"/>
-      <c r="M29" s="61" t="s">
+      <c r="L29" s="71"/>
+      <c r="M29" s="47" t="s">
         <v>493</v>
       </c>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="63"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="49"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="83"/>
-      <c r="B30" s="52" t="s">
+      <c r="A30" s="69"/>
+      <c r="B30" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="54"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="74"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="83"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="57"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="71"/>
       <c r="F31" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="55" t="s">
+      <c r="G31" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="57"/>
-      <c r="I31" s="55" t="s">
+      <c r="H31" s="71"/>
+      <c r="I31" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="59"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="77"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="83"/>
+      <c r="A32" s="69"/>
       <c r="B32" s="12">
         <v>1</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="51"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="81"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="49" t="s">
+      <c r="G32" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="H32" s="51"/>
+      <c r="H32" s="81"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="48"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="83"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="83"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="29"/>
       <c r="C33" s="30"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="51"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="81"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="51"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="81"/>
       <c r="I33" s="3"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="48"/>
+      <c r="K33" s="82"/>
+      <c r="L33" s="83"/>
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
@@ -15611,6 +15654,73 @@
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M18:P18"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="K33:L33"/>
@@ -15627,73 +15737,6 @@
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="M29:P29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M32:P32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15726,134 +15769,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="73" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="78"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="67"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="63"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="20"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="73" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="78"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="67"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="78"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="67"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="63"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="73" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="78"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="67"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -16286,431 +16329,474 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="66"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="68"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="52"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="79" t="s">
+      <c r="A21" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="80"/>
-      <c r="P21" s="81"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="55"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="82">
+      <c r="A22" s="68">
         <v>1</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="66" t="s">
+      <c r="C22" s="71"/>
+      <c r="D22" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
       <c r="G22" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H22" s="66" t="s">
+      <c r="H22" s="50" t="s">
         <v>300</v>
       </c>
-      <c r="I22" s="67"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="55" t="s">
+      <c r="I22" s="51"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="L22" s="57"/>
-      <c r="M22" s="61" t="s">
+      <c r="L22" s="71"/>
+      <c r="M22" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="63"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="49"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
-      <c r="B23" s="55" t="s">
+      <c r="A23" s="69"/>
+      <c r="B23" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="66" t="s">
+      <c r="C23" s="71"/>
+      <c r="D23" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
       <c r="G23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="66" t="s">
+      <c r="H23" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="67"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="55" t="s">
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="L23" s="57"/>
-      <c r="M23" s="61" t="s">
+      <c r="L23" s="71"/>
+      <c r="M23" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="63"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="49"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="83"/>
-      <c r="B24" s="55" t="s">
+      <c r="A24" s="69"/>
+      <c r="B24" s="70" t="s">
         <v>373</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="66" t="s">
+      <c r="C24" s="71"/>
+      <c r="D24" s="50" t="s">
         <v>378</v>
       </c>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
       <c r="G24" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="H24" s="67" t="s">
+      <c r="H24" s="51" t="s">
         <v>379</v>
       </c>
-      <c r="I24" s="67"/>
-      <c r="J24" s="68"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
       <c r="K24" s="24"/>
       <c r="L24" s="25"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="68"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="52"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="83"/>
-      <c r="B25" s="55" t="s">
+      <c r="A25" s="69"/>
+      <c r="B25" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="55" t="s">
+      <c r="C25" s="71"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="57"/>
-      <c r="M25" s="61" t="s">
+      <c r="L25" s="71"/>
+      <c r="M25" s="47" t="s">
         <v>445</v>
       </c>
-      <c r="N25" s="62"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="63"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="49"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="83"/>
-      <c r="B26" s="52" t="s">
+      <c r="A26" s="69"/>
+      <c r="B26" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="91"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="90"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="83"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="71"/>
       <c r="F27" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="55" t="s">
+      <c r="G27" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="57"/>
-      <c r="I27" s="55" t="s">
+      <c r="H27" s="71"/>
+      <c r="I27" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="57"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="59"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="77"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="83"/>
+      <c r="A28" s="69"/>
       <c r="B28" s="12">
         <v>1</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="51"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="81"/>
       <c r="F28" s="28"/>
-      <c r="G28" s="49" t="s">
+      <c r="G28" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="H28" s="51"/>
+      <c r="H28" s="81"/>
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="48"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="83"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="83"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="51"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="81"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="51"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="81"/>
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="48"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="83"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="82">
+      <c r="A30" s="68">
         <v>2</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="66" t="s">
+      <c r="C30" s="71"/>
+      <c r="D30" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
       <c r="G30" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H30" s="66"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="55" t="s">
+      <c r="H30" s="50"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="L30" s="57"/>
-      <c r="M30" s="61" t="s">
+      <c r="L30" s="71"/>
+      <c r="M30" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="63"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="49"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="83"/>
-      <c r="B31" s="55" t="s">
+      <c r="A31" s="69"/>
+      <c r="B31" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="66" t="s">
+      <c r="C31" s="71"/>
+      <c r="D31" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
       <c r="G31" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="66" t="s">
+      <c r="H31" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="I31" s="67"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="55" t="s">
+      <c r="I31" s="51"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="L31" s="57"/>
-      <c r="M31" s="61" t="s">
+      <c r="L31" s="71"/>
+      <c r="M31" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="63"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="49"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="83"/>
-      <c r="B32" s="55" t="s">
+      <c r="A32" s="69"/>
+      <c r="B32" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="55" t="s">
+      <c r="C32" s="71"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L32" s="57"/>
-      <c r="M32" s="61" t="s">
+      <c r="L32" s="71"/>
+      <c r="M32" s="47" t="s">
         <v>387</v>
       </c>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="63"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="49"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="83"/>
-      <c r="B33" s="52" t="s">
+      <c r="A33" s="69"/>
+      <c r="B33" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="54"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="74"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="83"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="57"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="71"/>
       <c r="F34" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="55" t="s">
+      <c r="G34" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="57"/>
-      <c r="I34" s="55" t="s">
+      <c r="H34" s="71"/>
+      <c r="I34" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="57"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="59"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="78"/>
+      <c r="O34" s="78"/>
+      <c r="P34" s="77"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="83"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="12">
         <v>1</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="79" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="51"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="81"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="49" t="s">
+      <c r="G35" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="H35" s="51"/>
+      <c r="H35" s="81"/>
       <c r="I35" s="3"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="48"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="83"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="83"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="88"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="51"/>
+      <c r="A36" s="91"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="81"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="51"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="81"/>
       <c r="I36" s="3"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="48"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="83"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="84"/>
+      <c r="O36" s="84"/>
+      <c r="P36" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="B33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="A21:P21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="M29:P29"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D24:F24"/>
@@ -16727,59 +16813,16 @@
     <mergeCell ref="I2:M2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A20:P20"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="A21:P21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="B33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:E28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16811,136 +16854,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="73" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="63" t="s">
         <v>367</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="78"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="67"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="68"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="73" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="63" t="s">
         <v>368</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="78"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="67"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="47" t="s">
         <v>369</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="73" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="63" t="s">
         <v>440</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="78"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="67"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="73" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="63" t="s">
         <v>346</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="78"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="67"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">

--- a/nop-auth/model/nop-auth.orm.xlsx
+++ b/nop-auth/model/nop-auth.orm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-auth\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD6D80E-884A-436B-A8E6-26B48D1ECCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA136710-A5BE-4262-9BCC-012D827C4F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="6" activeTab="9" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
@@ -2134,7 +2134,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pub,ref-pub,cascade-delete,ref-connection</t>
+    <t>pub,ref-pub,cascade-delete,ref-connection,queryable,sortable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2500,7 +2500,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2512,6 +2554,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2521,25 +2569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2557,6 +2587,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2566,64 +2599,34 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2634,9 +2637,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3202,8 +3202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FA4F0DF-629C-4898-BB59-2F1675DF9202}">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="Q50" sqref="Q50"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49:P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3223,65 +3223,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="63" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="67"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="78"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="68"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="63" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="73" t="s">
         <v>447</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="67"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="61" t="s">
         <v>448</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="67"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="78"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -3293,64 +3293,64 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="63" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="67"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="78"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -4329,50 +4329,50 @@
       <c r="P35" s="1"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="54"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="55"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="80"/>
+      <c r="O37" s="80"/>
+      <c r="P37" s="81"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="68">
+      <c r="A38" s="82">
         <v>1</v>
       </c>
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="57"/>
-      <c r="D38" s="50" t="s">
+      <c r="C38" s="65"/>
+      <c r="D38" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="52"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="68"/>
       <c r="G38" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H38" s="50" t="s">
+      <c r="H38" s="66" t="s">
         <v>436</v>
       </c>
-      <c r="I38" s="51"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="70" t="s">
+      <c r="I38" s="67"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="L38" s="71"/>
+      <c r="L38" s="57"/>
       <c r="M38" s="14" t="s">
         <v>210</v>
       </c>
@@ -4381,54 +4381,54 @@
       <c r="P38" s="1"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="69"/>
-      <c r="B39" s="56" t="s">
+      <c r="A39" s="83"/>
+      <c r="B39" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="57"/>
-      <c r="D39" s="50" t="s">
+      <c r="C39" s="65"/>
+      <c r="D39" s="66" t="s">
         <v>437</v>
       </c>
-      <c r="E39" s="51"/>
-      <c r="F39" s="52"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="68"/>
       <c r="G39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H39" s="50" t="s">
+      <c r="H39" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="I39" s="51"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="70" t="s">
+      <c r="I39" s="67"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="L39" s="71"/>
-      <c r="M39" s="47" t="s">
+      <c r="L39" s="57"/>
+      <c r="M39" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="49"/>
+      <c r="N39" s="62"/>
+      <c r="O39" s="62"/>
+      <c r="P39" s="63"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="69"/>
-      <c r="B40" s="56" t="s">
+      <c r="A40" s="83"/>
+      <c r="B40" s="64" t="s">
         <v>373</v>
       </c>
-      <c r="C40" s="57"/>
-      <c r="D40" s="50" t="s">
+      <c r="C40" s="65"/>
+      <c r="D40" s="66" t="s">
         <v>438</v>
       </c>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
       <c r="G40" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H40" s="51" t="s">
+      <c r="H40" s="67" t="s">
         <v>439</v>
       </c>
-      <c r="I40" s="51"/>
-      <c r="J40" s="52"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="68"/>
       <c r="K40" s="24"/>
       <c r="L40" s="25"/>
       <c r="M40" s="22"/>
@@ -4437,42 +4437,42 @@
       <c r="P40" s="20"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="69"/>
-      <c r="B41" s="56" t="s">
+      <c r="A41" s="83"/>
+      <c r="B41" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="57"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="70" t="s">
+      <c r="C41" s="65"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L41" s="71"/>
-      <c r="M41" s="47" t="s">
+      <c r="L41" s="57"/>
+      <c r="M41" s="61" t="s">
         <v>446</v>
       </c>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="49"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="63"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="69"/>
-      <c r="B42" s="72" t="s">
+      <c r="A42" s="83"/>
+      <c r="B42" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="74"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="54"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
@@ -4481,66 +4481,66 @@
       <c r="P42" s="5"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="69"/>
+      <c r="A43" s="83"/>
       <c r="B43" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="70" t="s">
+      <c r="C43" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="75"/>
-      <c r="E43" s="71"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="57"/>
       <c r="F43" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="70" t="s">
+      <c r="G43" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H43" s="71"/>
-      <c r="I43" s="70" t="s">
+      <c r="H43" s="57"/>
+      <c r="I43" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J43" s="71"/>
-      <c r="K43" s="76"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="76"/>
-      <c r="N43" s="78"/>
-      <c r="O43" s="78"/>
-      <c r="P43" s="77"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="60"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="59"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="69"/>
+      <c r="A44" s="83"/>
       <c r="B44" s="12">
         <v>1</v>
       </c>
-      <c r="C44" s="79" t="s">
+      <c r="C44" s="49" t="s">
         <v>344</v>
       </c>
-      <c r="D44" s="80"/>
-      <c r="E44" s="81"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="51"/>
       <c r="F44" s="12"/>
-      <c r="G44" s="79" t="s">
+      <c r="G44" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="H44" s="81"/>
+      <c r="H44" s="51"/>
       <c r="I44" s="3"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="82"/>
-      <c r="L44" s="83"/>
-      <c r="M44" s="82"/>
-      <c r="N44" s="84"/>
-      <c r="O44" s="84"/>
-      <c r="P44" s="83"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="48"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="69"/>
-      <c r="B45" s="79"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="81"/>
+      <c r="A45" s="83"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="51"/>
       <c r="F45" s="12"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="81"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="51"/>
       <c r="I45" s="3"/>
       <c r="J45" s="4"/>
       <c r="K45" s="13"/>
@@ -4551,30 +4551,30 @@
       <c r="P45" s="6"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="68">
+      <c r="A46" s="82">
         <v>2</v>
       </c>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="D46" s="50" t="s">
+      <c r="C46" s="65"/>
+      <c r="D46" s="66" t="s">
         <v>363</v>
       </c>
-      <c r="E46" s="51"/>
-      <c r="F46" s="52"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="68"/>
       <c r="G46" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H46" s="50" t="s">
+      <c r="H46" s="66" t="s">
         <v>511</v>
       </c>
-      <c r="I46" s="51"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="70" t="s">
+      <c r="I46" s="67"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="L46" s="71"/>
+      <c r="L46" s="57"/>
       <c r="M46" s="14" t="s">
         <v>365</v>
       </c>
@@ -4583,54 +4583,54 @@
       <c r="P46" s="1"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="69"/>
-      <c r="B47" s="56" t="s">
+      <c r="A47" s="83"/>
+      <c r="B47" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="57"/>
-      <c r="D47" s="50" t="s">
+      <c r="C47" s="65"/>
+      <c r="D47" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="E47" s="51"/>
-      <c r="F47" s="52"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="68"/>
       <c r="G47" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="50" t="s">
+      <c r="H47" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="I47" s="51"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="70" t="s">
+      <c r="I47" s="67"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="L47" s="71"/>
-      <c r="M47" s="47" t="s">
+      <c r="L47" s="57"/>
+      <c r="M47" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="N47" s="48"/>
-      <c r="O47" s="48"/>
-      <c r="P47" s="49"/>
+      <c r="N47" s="62"/>
+      <c r="O47" s="62"/>
+      <c r="P47" s="63"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="69"/>
-      <c r="B48" s="56" t="s">
+      <c r="A48" s="83"/>
+      <c r="B48" s="64" t="s">
         <v>373</v>
       </c>
-      <c r="C48" s="57"/>
-      <c r="D48" s="50" t="s">
+      <c r="C48" s="65"/>
+      <c r="D48" s="66" t="s">
         <v>512</v>
       </c>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
       <c r="G48" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H48" s="51" t="s">
+      <c r="H48" s="67" t="s">
         <v>381</v>
       </c>
-      <c r="I48" s="51"/>
-      <c r="J48" s="52"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="68"/>
       <c r="K48" s="24"/>
       <c r="L48" s="25"/>
       <c r="M48" s="22"/>
@@ -4639,42 +4639,42 @@
       <c r="P48" s="20"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="69"/>
-      <c r="B49" s="56" t="s">
+      <c r="A49" s="83"/>
+      <c r="B49" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="57"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="52"/>
-      <c r="K49" s="70" t="s">
+      <c r="C49" s="65"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L49" s="71"/>
-      <c r="M49" s="47" t="s">
+      <c r="L49" s="57"/>
+      <c r="M49" s="61" t="s">
         <v>513</v>
       </c>
-      <c r="N49" s="48"/>
-      <c r="O49" s="48"/>
-      <c r="P49" s="49"/>
+      <c r="N49" s="62"/>
+      <c r="O49" s="62"/>
+      <c r="P49" s="63"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="69"/>
-      <c r="B50" s="72" t="s">
+      <c r="A50" s="83"/>
+      <c r="B50" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="73"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="73"/>
-      <c r="F50" s="73"/>
-      <c r="G50" s="73"/>
-      <c r="H50" s="73"/>
-      <c r="I50" s="73"/>
-      <c r="J50" s="74"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="54"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
       <c r="M50" s="11"/>
@@ -4683,66 +4683,66 @@
       <c r="P50" s="5"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="69"/>
+      <c r="A51" s="83"/>
       <c r="B51" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="70" t="s">
+      <c r="C51" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="75"/>
-      <c r="E51" s="71"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="57"/>
       <c r="F51" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G51" s="70" t="s">
+      <c r="G51" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="71"/>
-      <c r="I51" s="70" t="s">
+      <c r="H51" s="57"/>
+      <c r="I51" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J51" s="71"/>
-      <c r="K51" s="76"/>
-      <c r="L51" s="77"/>
-      <c r="M51" s="76"/>
-      <c r="N51" s="78"/>
-      <c r="O51" s="78"/>
-      <c r="P51" s="77"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="58"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="58"/>
+      <c r="N51" s="60"/>
+      <c r="O51" s="60"/>
+      <c r="P51" s="59"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="69"/>
+      <c r="A52" s="83"/>
       <c r="B52" s="12">
         <v>1</v>
       </c>
-      <c r="C52" s="79" t="s">
+      <c r="C52" s="49" t="s">
         <v>366</v>
       </c>
-      <c r="D52" s="80"/>
-      <c r="E52" s="81"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="51"/>
       <c r="F52" s="12"/>
-      <c r="G52" s="79" t="s">
+      <c r="G52" s="49" t="s">
         <v>366</v>
       </c>
-      <c r="H52" s="81"/>
+      <c r="H52" s="51"/>
       <c r="I52" s="3"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="82"/>
-      <c r="L52" s="83"/>
-      <c r="M52" s="82"/>
-      <c r="N52" s="84"/>
-      <c r="O52" s="84"/>
-      <c r="P52" s="83"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="47"/>
+      <c r="O52" s="47"/>
+      <c r="P52" s="48"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="69"/>
-      <c r="B53" s="79"/>
-      <c r="C53" s="80"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="81"/>
+      <c r="A53" s="83"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="51"/>
       <c r="F53" s="12"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="81"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="51"/>
       <c r="I53" s="3"/>
       <c r="J53" s="4"/>
       <c r="K53" s="13"/>
@@ -4754,19 +4754,48 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="A37:P37"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="H40:J40"/>
     <mergeCell ref="A38:A45"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:F38"/>
@@ -4783,48 +4812,19 @@
     <mergeCell ref="G45:H45"/>
     <mergeCell ref="B45:E45"/>
     <mergeCell ref="B40:C40"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="A46:A53"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="B50:J50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="A37:P37"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4857,67 +4857,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="63" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="67"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="78"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="68"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="63" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="73" t="s">
         <v>168</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="67"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="63" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="73" t="s">
         <v>492</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="67"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="78"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -4929,64 +4929,64 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="63" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="67"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="78"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -5391,50 +5391,50 @@
       <c r="P18" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="55"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="81"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="68">
+      <c r="A21" s="82">
         <v>1</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="50" t="s">
+      <c r="C21" s="65"/>
+      <c r="D21" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="68"/>
       <c r="G21" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H21" s="50" t="s">
+      <c r="H21" s="66" t="s">
         <v>301</v>
       </c>
-      <c r="I21" s="51"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="70" t="s">
+      <c r="I21" s="67"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="L21" s="71"/>
+      <c r="L21" s="57"/>
       <c r="M21" s="14" t="s">
         <v>209</v>
       </c>
@@ -5443,54 +5443,54 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="69"/>
-      <c r="B22" s="56" t="s">
+      <c r="A22" s="83"/>
+      <c r="B22" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="50" t="s">
+      <c r="C22" s="65"/>
+      <c r="D22" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="68"/>
       <c r="G22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="50" t="s">
+      <c r="H22" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="I22" s="51"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="70" t="s">
+      <c r="I22" s="67"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="L22" s="71"/>
-      <c r="M22" s="47" t="s">
+      <c r="L22" s="57"/>
+      <c r="M22" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="49"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="63"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="69"/>
-      <c r="B23" s="56" t="s">
+      <c r="A23" s="83"/>
+      <c r="B23" s="64" t="s">
         <v>373</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="50" t="s">
+      <c r="C23" s="65"/>
+      <c r="D23" s="66" t="s">
         <v>380</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
       <c r="G23" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H23" s="51" t="s">
+      <c r="H23" s="67" t="s">
         <v>381</v>
       </c>
-      <c r="I23" s="51"/>
-      <c r="J23" s="52"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="68"/>
       <c r="K23" s="24"/>
       <c r="L23" s="25"/>
       <c r="M23" s="22"/>
@@ -5499,42 +5499,42 @@
       <c r="P23" s="20"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="69"/>
-      <c r="B24" s="56" t="s">
+      <c r="A24" s="83"/>
+      <c r="B24" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="70" t="s">
+      <c r="C24" s="65"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L24" s="71"/>
-      <c r="M24" s="47" t="s">
+      <c r="L24" s="57"/>
+      <c r="M24" s="61" t="s">
         <v>493</v>
       </c>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="49"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="63"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="69"/>
-      <c r="B25" s="72" t="s">
+      <c r="A25" s="83"/>
+      <c r="B25" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="74"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="54"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
@@ -5543,66 +5543,66 @@
       <c r="P25" s="5"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="69"/>
+      <c r="A26" s="83"/>
       <c r="B26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="71"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57"/>
       <c r="F26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="70" t="s">
+      <c r="G26" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="71"/>
-      <c r="I26" s="70" t="s">
+      <c r="H26" s="57"/>
+      <c r="I26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="71"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="77"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="59"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="69"/>
+      <c r="A27" s="83"/>
       <c r="B27" s="12">
         <v>1</v>
       </c>
-      <c r="C27" s="79" t="s">
+      <c r="C27" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="80"/>
-      <c r="E27" s="81"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="51"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="79" t="s">
+      <c r="G27" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="H27" s="81"/>
+      <c r="H27" s="51"/>
       <c r="I27" s="3"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="84"/>
-      <c r="P27" s="83"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="48"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="69"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="81"/>
+      <c r="A28" s="83"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="51"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="81"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="51"/>
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
       <c r="K28" s="13"/>
@@ -5613,30 +5613,30 @@
       <c r="P28" s="6"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="68">
+      <c r="A29" s="82">
         <v>2</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="50" t="s">
+      <c r="C29" s="65"/>
+      <c r="D29" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="52"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="68"/>
       <c r="G29" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H29" s="50" t="s">
+      <c r="H29" s="66" t="s">
         <v>299</v>
       </c>
-      <c r="I29" s="51"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="70" t="s">
+      <c r="I29" s="67"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="L29" s="71"/>
+      <c r="L29" s="57"/>
       <c r="M29" s="14" t="s">
         <v>210</v>
       </c>
@@ -5645,54 +5645,54 @@
       <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="69"/>
-      <c r="B30" s="56" t="s">
+      <c r="A30" s="83"/>
+      <c r="B30" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="50" t="s">
+      <c r="C30" s="65"/>
+      <c r="D30" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="52"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="68"/>
       <c r="G30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="50" t="s">
+      <c r="H30" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="I30" s="51"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="70" t="s">
+      <c r="I30" s="67"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="L30" s="71"/>
-      <c r="M30" s="47" t="s">
+      <c r="L30" s="57"/>
+      <c r="M30" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="49"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="63"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="69"/>
-      <c r="B31" s="56" t="s">
+      <c r="A31" s="83"/>
+      <c r="B31" s="64" t="s">
         <v>373</v>
       </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="50" t="s">
+      <c r="C31" s="65"/>
+      <c r="D31" s="66" t="s">
         <v>375</v>
       </c>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
       <c r="G31" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H31" s="51" t="s">
+      <c r="H31" s="67" t="s">
         <v>376</v>
       </c>
-      <c r="I31" s="51"/>
-      <c r="J31" s="52"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="68"/>
       <c r="K31" s="24"/>
       <c r="L31" s="25"/>
       <c r="M31" s="22"/>
@@ -5701,42 +5701,42 @@
       <c r="P31" s="20"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="69"/>
-      <c r="B32" s="56" t="s">
+      <c r="A32" s="83"/>
+      <c r="B32" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="70" t="s">
+      <c r="C32" s="65"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L32" s="71"/>
-      <c r="M32" s="47" t="s">
+      <c r="L32" s="57"/>
+      <c r="M32" s="61" t="s">
         <v>493</v>
       </c>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="49"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="63"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="69"/>
-      <c r="B33" s="72" t="s">
+      <c r="A33" s="83"/>
+      <c r="B33" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="74"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="54"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
@@ -5745,66 +5745,66 @@
       <c r="P33" s="5"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="69"/>
+      <c r="A34" s="83"/>
       <c r="B34" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="70" t="s">
+      <c r="C34" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="71"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="57"/>
       <c r="F34" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="70" t="s">
+      <c r="G34" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="71"/>
-      <c r="I34" s="70" t="s">
+      <c r="H34" s="57"/>
+      <c r="I34" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="71"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="78"/>
-      <c r="O34" s="78"/>
-      <c r="P34" s="77"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="59"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="69"/>
+      <c r="A35" s="83"/>
       <c r="B35" s="12">
         <v>1</v>
       </c>
-      <c r="C35" s="79" t="s">
+      <c r="C35" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="D35" s="80"/>
-      <c r="E35" s="81"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="51"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="79" t="s">
+      <c r="G35" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="H35" s="81"/>
+      <c r="H35" s="51"/>
       <c r="I35" s="3"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="84"/>
-      <c r="O35" s="84"/>
-      <c r="P35" s="83"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="48"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="69"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="81"/>
+      <c r="A36" s="83"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="51"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="81"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="51"/>
       <c r="I36" s="3"/>
       <c r="J36" s="4"/>
       <c r="K36" s="13"/>
@@ -5816,18 +5816,49 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="C34:E34"/>
     <mergeCell ref="K35:L35"/>
     <mergeCell ref="M35:P35"/>
     <mergeCell ref="M32:P32"/>
@@ -5844,49 +5875,18 @@
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="M27:P27"/>
     <mergeCell ref="M34:P34"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="A20:P20"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5918,65 +5918,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="63" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="73" t="s">
         <v>494</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="67"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="78"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="68"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="63" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="73" t="s">
         <v>495</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="67"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="61" t="s">
         <v>497</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="67"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="78"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -5988,64 +5988,64 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="63" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="73" t="s">
         <v>496</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="67"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="78"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -6548,50 +6548,50 @@
       <c r="P21" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="55"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="81"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="68">
+      <c r="A24" s="82">
         <v>1</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="50" t="s">
+      <c r="C24" s="65"/>
+      <c r="D24" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="52"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="68"/>
       <c r="G24" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H24" s="50" t="s">
+      <c r="H24" s="66" t="s">
         <v>301</v>
       </c>
-      <c r="I24" s="51"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="70" t="s">
+      <c r="I24" s="67"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="L24" s="71"/>
+      <c r="L24" s="57"/>
       <c r="M24" s="14" t="s">
         <v>209</v>
       </c>
@@ -6600,54 +6600,54 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="69"/>
-      <c r="B25" s="56" t="s">
+      <c r="A25" s="83"/>
+      <c r="B25" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="50" t="s">
+      <c r="C25" s="65"/>
+      <c r="D25" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="51"/>
-      <c r="F25" s="52"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="68"/>
       <c r="G25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="50" t="s">
+      <c r="H25" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="I25" s="51"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="70" t="s">
+      <c r="I25" s="67"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="L25" s="71"/>
-      <c r="M25" s="47" t="s">
+      <c r="L25" s="57"/>
+      <c r="M25" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="49"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="63"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="69"/>
-      <c r="B26" s="56" t="s">
+      <c r="A26" s="83"/>
+      <c r="B26" s="64" t="s">
         <v>373</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="50" t="s">
+      <c r="C26" s="65"/>
+      <c r="D26" s="66" t="s">
         <v>380</v>
       </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
       <c r="G26" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H26" s="51" t="s">
+      <c r="H26" s="67" t="s">
         <v>381</v>
       </c>
-      <c r="I26" s="51"/>
-      <c r="J26" s="52"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="68"/>
       <c r="K26" s="24"/>
       <c r="L26" s="25"/>
       <c r="M26" s="22"/>
@@ -6656,42 +6656,42 @@
       <c r="P26" s="20"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="69"/>
-      <c r="B27" s="56" t="s">
+      <c r="A27" s="83"/>
+      <c r="B27" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="70" t="s">
+      <c r="C27" s="65"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="71"/>
-      <c r="M27" s="47" t="s">
+      <c r="L27" s="57"/>
+      <c r="M27" s="61" t="s">
         <v>493</v>
       </c>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="49"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="63"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="69"/>
-      <c r="B28" s="72" t="s">
+      <c r="A28" s="83"/>
+      <c r="B28" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="74"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
@@ -6700,66 +6700,66 @@
       <c r="P28" s="5"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="69"/>
+      <c r="A29" s="83"/>
       <c r="B29" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="75"/>
-      <c r="E29" s="71"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57"/>
       <c r="F29" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="70" t="s">
+      <c r="G29" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="71"/>
-      <c r="I29" s="70" t="s">
+      <c r="H29" s="57"/>
+      <c r="I29" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="71"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78"/>
-      <c r="P29" s="77"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="59"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="69"/>
+      <c r="A30" s="83"/>
       <c r="B30" s="12">
         <v>1</v>
       </c>
-      <c r="C30" s="79" t="s">
+      <c r="C30" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="80"/>
-      <c r="E30" s="81"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="51"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="79" t="s">
+      <c r="G30" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="H30" s="81"/>
+      <c r="H30" s="51"/>
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="83"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="48"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="69"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="81"/>
+      <c r="A31" s="83"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="51"/>
       <c r="F31" s="12"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="81"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="51"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
       <c r="K31" s="13"/>
@@ -6771,18 +6771,20 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
     <mergeCell ref="A23:P23"/>
     <mergeCell ref="A24:A31"/>
     <mergeCell ref="B24:C24"/>
@@ -6799,20 +6801,18 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="H26:J26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6844,134 +6844,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="63" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="73" t="s">
         <v>260</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="67"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="78"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="68"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="63" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="73" t="s">
         <v>181</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="67"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="61" t="s">
         <v>234</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="63" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="73" t="s">
         <v>392</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="67"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="78"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="78"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -7639,67 +7639,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="63" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="73" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="67"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="78"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="68"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="63" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="73" t="s">
         <v>449</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="67"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="63" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="73" t="s">
         <v>392</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="67"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="78"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -7711,64 +7711,64 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="63" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="67"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="78"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -8228,48 +8228,48 @@
       <c r="E21" s="31"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="55"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="81"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="68">
+      <c r="A23" s="82">
         <v>1</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="50" t="s">
+      <c r="C23" s="65"/>
+      <c r="D23" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="52"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="68"/>
       <c r="G23" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H23" s="50"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="70" t="s">
+      <c r="H23" s="66"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="L23" s="71"/>
+      <c r="L23" s="57"/>
       <c r="M23" s="14" t="s">
         <v>282</v>
       </c>
@@ -8278,72 +8278,72 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="69"/>
-      <c r="B24" s="56" t="s">
+      <c r="A24" s="83"/>
+      <c r="B24" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="50" t="s">
+      <c r="C24" s="65"/>
+      <c r="D24" s="66" t="s">
         <v>233</v>
       </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="52"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="68"/>
       <c r="G24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="50" t="s">
+      <c r="H24" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="I24" s="51"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="70" t="s">
+      <c r="I24" s="67"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="L24" s="71"/>
-      <c r="M24" s="47" t="s">
+      <c r="L24" s="57"/>
+      <c r="M24" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="49"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="63"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="69"/>
-      <c r="B25" s="56" t="s">
+      <c r="A25" s="83"/>
+      <c r="B25" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="70" t="s">
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="71"/>
-      <c r="M25" s="47" t="s">
+      <c r="L25" s="57"/>
+      <c r="M25" s="61" t="s">
         <v>387</v>
       </c>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="49"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="63"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="69"/>
-      <c r="B26" s="72" t="s">
+      <c r="A26" s="83"/>
+      <c r="B26" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="74"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="54"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
@@ -8352,7 +8352,7 @@
       <c r="P26" s="5"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="69"/>
+      <c r="A27" s="83"/>
       <c r="B27" s="18" t="s">
         <v>22</v>
       </c>
@@ -8364,65 +8364,87 @@
       <c r="F27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="70" t="s">
+      <c r="G27" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="71"/>
-      <c r="I27" s="70" t="s">
+      <c r="H27" s="57"/>
+      <c r="I27" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="71"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="77"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="59"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="69"/>
+      <c r="A28" s="83"/>
       <c r="B28" s="12">
         <v>1</v>
       </c>
-      <c r="C28" s="79" t="s">
+      <c r="C28" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="D28" s="81"/>
+      <c r="D28" s="51"/>
       <c r="E28" s="4"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="79" t="s">
+      <c r="G28" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="H28" s="81"/>
+      <c r="H28" s="51"/>
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="83"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="48"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="69"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="81"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="H23:J23"/>
     <mergeCell ref="B24:C24"/>
@@ -8439,28 +8461,6 @@
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="M25:P25"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8492,132 +8492,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="65" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="76" t="s">
         <v>246</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
       <c r="G1" s="93"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="68"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="63" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="67"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="67"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="78"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="78"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -9154,50 +9154,50 @@
       <c r="P22" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="55"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="81"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="68">
+      <c r="A25" s="82">
         <v>1</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="50" t="s">
+      <c r="C25" s="65"/>
+      <c r="D25" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="51"/>
-      <c r="F25" s="52"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="68"/>
       <c r="G25" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H25" s="50" t="s">
+      <c r="H25" s="66" t="s">
         <v>436</v>
       </c>
-      <c r="I25" s="51"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="70" t="s">
+      <c r="I25" s="67"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="L25" s="71"/>
+      <c r="L25" s="57"/>
       <c r="M25" s="14" t="s">
         <v>417</v>
       </c>
@@ -9206,54 +9206,54 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="69"/>
-      <c r="B26" s="56" t="s">
+      <c r="A26" s="83"/>
+      <c r="B26" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="50" t="s">
+      <c r="C26" s="65"/>
+      <c r="D26" s="66" t="s">
         <v>437</v>
       </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="52"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="68"/>
       <c r="G26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="I26" s="51"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="70" t="s">
+      <c r="I26" s="67"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="L26" s="71"/>
-      <c r="M26" s="47" t="s">
+      <c r="L26" s="57"/>
+      <c r="M26" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="49"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="63"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="69"/>
-      <c r="B27" s="56" t="s">
+      <c r="A27" s="83"/>
+      <c r="B27" s="64" t="s">
         <v>373</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="50" t="s">
+      <c r="C27" s="65"/>
+      <c r="D27" s="66" t="s">
         <v>438</v>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
       <c r="G27" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H27" s="51" t="s">
+      <c r="H27" s="67" t="s">
         <v>439</v>
       </c>
-      <c r="I27" s="51"/>
-      <c r="J27" s="52"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="68"/>
       <c r="K27" s="24"/>
       <c r="L27" s="25"/>
       <c r="M27" s="22"/>
@@ -9262,42 +9262,42 @@
       <c r="P27" s="20"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="69"/>
-      <c r="B28" s="56" t="s">
+      <c r="A28" s="83"/>
+      <c r="B28" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="70" t="s">
+      <c r="C28" s="65"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="71"/>
-      <c r="M28" s="47" t="s">
+      <c r="L28" s="57"/>
+      <c r="M28" s="61" t="s">
         <v>386</v>
       </c>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="49"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="63"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="69"/>
-      <c r="B29" s="72" t="s">
+      <c r="A29" s="83"/>
+      <c r="B29" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="74"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="54"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
@@ -9306,66 +9306,66 @@
       <c r="P29" s="5"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="69"/>
+      <c r="A30" s="83"/>
       <c r="B30" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="70" t="s">
+      <c r="C30" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="75"/>
-      <c r="E30" s="71"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="57"/>
       <c r="F30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="70" t="s">
+      <c r="G30" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="71"/>
-      <c r="I30" s="70" t="s">
+      <c r="H30" s="57"/>
+      <c r="I30" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="71"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="77"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="59"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="69"/>
+      <c r="A31" s="83"/>
       <c r="B31" s="12">
         <v>1</v>
       </c>
-      <c r="C31" s="79" t="s">
+      <c r="C31" s="49" t="s">
         <v>344</v>
       </c>
-      <c r="D31" s="80"/>
-      <c r="E31" s="81"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="51"/>
       <c r="F31" s="12"/>
-      <c r="G31" s="79" t="s">
+      <c r="G31" s="49" t="s">
         <v>418</v>
       </c>
-      <c r="H31" s="81"/>
+      <c r="H31" s="51"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="83"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="48"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="69"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="81"/>
+      <c r="A32" s="83"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="51"/>
       <c r="F32" s="12"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="81"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="51"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
       <c r="K32" s="13"/>
@@ -9377,20 +9377,19 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
     <mergeCell ref="A24:P24"/>
     <mergeCell ref="A25:A32"/>
     <mergeCell ref="B25:C25"/>
@@ -9407,19 +9406,20 @@
     <mergeCell ref="H27:J27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:J28"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9451,132 +9451,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="63" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="73" t="s">
         <v>429</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="67"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="78"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="68"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="63" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="73" t="s">
         <v>430</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="67"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="61" t="s">
         <v>405</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="67"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="78"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="78"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -9960,12 +9960,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -9973,6 +9967,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10004,132 +10004,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="65" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="76" t="s">
         <v>255</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
       <c r="G1" s="93"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="68"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="63" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="73" t="s">
         <v>256</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="67"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="61" t="s">
         <v>257</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="67"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="78"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="78"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -11198,134 +11198,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="65" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="49"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="63"/>
       <c r="N1" s="20"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="63" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="63" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="73" t="s">
         <v>435</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="78"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -12506,494 +12506,494 @@
       <c r="P41" s="1"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="53" t="s">
+      <c r="A43" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="54"/>
-      <c r="O43" s="54"/>
-      <c r="P43" s="55"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="80"/>
+      <c r="I43" s="80"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="80"/>
+      <c r="N43" s="80"/>
+      <c r="O43" s="80"/>
+      <c r="P43" s="81"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="68">
+      <c r="A44" s="82">
         <v>1</v>
       </c>
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="57"/>
-      <c r="D44" s="50" t="s">
+      <c r="C44" s="65"/>
+      <c r="D44" s="66" t="s">
         <v>416</v>
       </c>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
       <c r="G44" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H44" s="50"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="70" t="s">
+      <c r="H44" s="66"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="L44" s="71"/>
-      <c r="M44" s="47" t="s">
+      <c r="L44" s="57"/>
+      <c r="M44" s="61" t="s">
         <v>417</v>
       </c>
-      <c r="N44" s="48"/>
-      <c r="O44" s="48"/>
-      <c r="P44" s="49"/>
+      <c r="N44" s="62"/>
+      <c r="O44" s="62"/>
+      <c r="P44" s="63"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="69"/>
-      <c r="B45" s="56" t="s">
+      <c r="A45" s="83"/>
+      <c r="B45" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="57"/>
-      <c r="D45" s="50" t="s">
+      <c r="C45" s="65"/>
+      <c r="D45" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
       <c r="G45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H45" s="50" t="s">
+      <c r="H45" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="I45" s="51"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="70" t="s">
+      <c r="I45" s="67"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="L45" s="71"/>
-      <c r="M45" s="47" t="s">
+      <c r="L45" s="57"/>
+      <c r="M45" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="N45" s="48"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="49"/>
+      <c r="N45" s="62"/>
+      <c r="O45" s="62"/>
+      <c r="P45" s="63"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="69"/>
-      <c r="B46" s="56" t="s">
+      <c r="A46" s="83"/>
+      <c r="B46" s="64" t="s">
         <v>373</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
       <c r="G46" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="52"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="68"/>
       <c r="K46" s="24"/>
       <c r="L46" s="25"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="48"/>
-      <c r="O46" s="48"/>
-      <c r="P46" s="49"/>
+      <c r="M46" s="61"/>
+      <c r="N46" s="62"/>
+      <c r="O46" s="62"/>
+      <c r="P46" s="63"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="69"/>
-      <c r="B47" s="56" t="s">
+      <c r="A47" s="83"/>
+      <c r="B47" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="57"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="70" t="s">
+      <c r="C47" s="65"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L47" s="71"/>
-      <c r="M47" s="47" t="s">
+      <c r="L47" s="57"/>
+      <c r="M47" s="61" t="s">
         <v>386</v>
       </c>
-      <c r="N47" s="48"/>
-      <c r="O47" s="48"/>
-      <c r="P47" s="49"/>
+      <c r="N47" s="62"/>
+      <c r="O47" s="62"/>
+      <c r="P47" s="63"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="69"/>
-      <c r="B48" s="72" t="s">
+      <c r="A48" s="83"/>
+      <c r="B48" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="73"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="74"/>
-      <c r="K48" s="72"/>
-      <c r="L48" s="74"/>
-      <c r="M48" s="72"/>
-      <c r="N48" s="73"/>
-      <c r="O48" s="73"/>
-      <c r="P48" s="74"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="53"/>
+      <c r="P48" s="54"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="69"/>
+      <c r="A49" s="83"/>
       <c r="B49" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="70" t="s">
+      <c r="C49" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="75"/>
-      <c r="E49" s="71"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="57"/>
       <c r="F49" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="70" t="s">
+      <c r="G49" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H49" s="71"/>
-      <c r="I49" s="70" t="s">
+      <c r="H49" s="57"/>
+      <c r="I49" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J49" s="71"/>
-      <c r="K49" s="76"/>
-      <c r="L49" s="77"/>
-      <c r="M49" s="76"/>
-      <c r="N49" s="78"/>
-      <c r="O49" s="78"/>
-      <c r="P49" s="77"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="58"/>
+      <c r="N49" s="60"/>
+      <c r="O49" s="60"/>
+      <c r="P49" s="59"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="69"/>
+      <c r="A50" s="83"/>
       <c r="B50" s="12">
         <v>1</v>
       </c>
-      <c r="C50" s="79" t="s">
+      <c r="C50" s="49" t="s">
         <v>418</v>
       </c>
-      <c r="D50" s="80"/>
-      <c r="E50" s="81"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="51"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="79" t="s">
+      <c r="G50" s="49" t="s">
         <v>418</v>
       </c>
-      <c r="H50" s="81"/>
+      <c r="H50" s="51"/>
       <c r="I50" s="3"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="82"/>
-      <c r="L50" s="83"/>
-      <c r="M50" s="82"/>
-      <c r="N50" s="84"/>
-      <c r="O50" s="84"/>
-      <c r="P50" s="83"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="48"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="69"/>
-      <c r="B51" s="79"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="81"/>
+      <c r="A51" s="83"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="51"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="79"/>
-      <c r="H51" s="81"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="51"/>
       <c r="I51" s="3"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="82"/>
-      <c r="L51" s="83"/>
-      <c r="M51" s="82"/>
-      <c r="N51" s="84"/>
-      <c r="O51" s="84"/>
-      <c r="P51" s="83"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="48"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="85">
+      <c r="A52" s="69">
         <v>2</v>
       </c>
-      <c r="B52" s="56" t="s">
+      <c r="B52" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="57"/>
-      <c r="D52" s="50" t="s">
+      <c r="C52" s="65"/>
+      <c r="D52" s="66" t="s">
         <v>431</v>
       </c>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
       <c r="G52" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H52" s="50"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="70" t="s">
+      <c r="H52" s="66"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="L52" s="71"/>
-      <c r="M52" s="47" t="s">
+      <c r="L52" s="57"/>
+      <c r="M52" s="61" t="s">
         <v>432</v>
       </c>
-      <c r="N52" s="48"/>
-      <c r="O52" s="48"/>
-      <c r="P52" s="49"/>
+      <c r="N52" s="62"/>
+      <c r="O52" s="62"/>
+      <c r="P52" s="63"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="85"/>
-      <c r="B53" s="56" t="s">
+      <c r="A53" s="69"/>
+      <c r="B53" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="57"/>
-      <c r="D53" s="50" t="s">
+      <c r="C53" s="65"/>
+      <c r="D53" s="66" t="s">
         <v>430</v>
       </c>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
       <c r="G53" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H53" s="50" t="s">
+      <c r="H53" s="66" t="s">
         <v>405</v>
       </c>
-      <c r="I53" s="51"/>
-      <c r="J53" s="52"/>
-      <c r="K53" s="70" t="s">
+      <c r="I53" s="67"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="L53" s="71"/>
-      <c r="M53" s="47" t="s">
+      <c r="L53" s="57"/>
+      <c r="M53" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="N53" s="48"/>
-      <c r="O53" s="48"/>
-      <c r="P53" s="49"/>
+      <c r="N53" s="62"/>
+      <c r="O53" s="62"/>
+      <c r="P53" s="63"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="85"/>
-      <c r="B54" s="56" t="s">
+      <c r="A54" s="69"/>
+      <c r="B54" s="64" t="s">
         <v>373</v>
       </c>
-      <c r="C54" s="57"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="51"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
       <c r="G54" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H54" s="51"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="52"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="68"/>
       <c r="K54" s="24"/>
       <c r="L54" s="25"/>
-      <c r="M54" s="47"/>
-      <c r="N54" s="48"/>
-      <c r="O54" s="48"/>
-      <c r="P54" s="49"/>
+      <c r="M54" s="61"/>
+      <c r="N54" s="62"/>
+      <c r="O54" s="62"/>
+      <c r="P54" s="63"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="85"/>
-      <c r="B55" s="56" t="s">
+      <c r="A55" s="69"/>
+      <c r="B55" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="57"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="70" t="s">
+      <c r="C55" s="65"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="67"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="67"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L55" s="71"/>
-      <c r="M55" s="47" t="s">
+      <c r="L55" s="57"/>
+      <c r="M55" s="61" t="s">
         <v>386</v>
       </c>
-      <c r="N55" s="48"/>
-      <c r="O55" s="48"/>
-      <c r="P55" s="49"/>
+      <c r="N55" s="62"/>
+      <c r="O55" s="62"/>
+      <c r="P55" s="63"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="85"/>
-      <c r="B56" s="72" t="s">
+      <c r="A56" s="69"/>
+      <c r="B56" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="73"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="73"/>
-      <c r="G56" s="73"/>
-      <c r="H56" s="73"/>
-      <c r="I56" s="73"/>
-      <c r="J56" s="74"/>
-      <c r="K56" s="72"/>
-      <c r="L56" s="74"/>
-      <c r="M56" s="72"/>
-      <c r="N56" s="73"/>
-      <c r="O56" s="73"/>
-      <c r="P56" s="74"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="54"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="53"/>
+      <c r="O56" s="53"/>
+      <c r="P56" s="54"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" s="85"/>
+      <c r="A57" s="69"/>
       <c r="B57" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="70" t="s">
+      <c r="C57" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="75"/>
-      <c r="E57" s="71"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="57"/>
       <c r="F57" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="70" t="s">
+      <c r="G57" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H57" s="71"/>
-      <c r="I57" s="70" t="s">
+      <c r="H57" s="57"/>
+      <c r="I57" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J57" s="71"/>
-      <c r="K57" s="76"/>
-      <c r="L57" s="77"/>
-      <c r="M57" s="76"/>
-      <c r="N57" s="78"/>
-      <c r="O57" s="78"/>
-      <c r="P57" s="77"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="58"/>
+      <c r="L57" s="59"/>
+      <c r="M57" s="58"/>
+      <c r="N57" s="60"/>
+      <c r="O57" s="60"/>
+      <c r="P57" s="59"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58" s="85"/>
+      <c r="A58" s="69"/>
       <c r="B58" s="12">
         <v>1</v>
       </c>
-      <c r="C58" s="79" t="s">
+      <c r="C58" s="49" t="s">
         <v>433</v>
       </c>
-      <c r="D58" s="80"/>
-      <c r="E58" s="81"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="51"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="79" t="s">
+      <c r="G58" s="49" t="s">
         <v>433</v>
       </c>
-      <c r="H58" s="81"/>
+      <c r="H58" s="51"/>
       <c r="I58" s="3"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="82"/>
-      <c r="L58" s="83"/>
-      <c r="M58" s="82"/>
-      <c r="N58" s="84"/>
-      <c r="O58" s="84"/>
-      <c r="P58" s="83"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="48"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="47"/>
+      <c r="O58" s="47"/>
+      <c r="P58" s="48"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" s="85"/>
-      <c r="B59" s="79"/>
-      <c r="C59" s="80"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="81"/>
+      <c r="A59" s="69"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="51"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="79"/>
-      <c r="H59" s="81"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="51"/>
       <c r="I59" s="3"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="82"/>
-      <c r="L59" s="83"/>
-      <c r="M59" s="82"/>
-      <c r="N59" s="84"/>
-      <c r="O59" s="84"/>
-      <c r="P59" s="83"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="48"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="47"/>
+      <c r="O59" s="47"/>
+      <c r="P59" s="48"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A61" s="53" t="s">
+      <c r="A61" s="79" t="s">
         <v>481</v>
       </c>
-      <c r="B61" s="54"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="54"/>
-      <c r="J61" s="54"/>
-      <c r="K61" s="54"/>
-      <c r="L61" s="54"/>
-      <c r="M61" s="54"/>
-      <c r="N61" s="54"/>
-      <c r="O61" s="54"/>
-      <c r="P61" s="55"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="80"/>
+      <c r="D61" s="80"/>
+      <c r="E61" s="80"/>
+      <c r="F61" s="80"/>
+      <c r="G61" s="80"/>
+      <c r="H61" s="80"/>
+      <c r="I61" s="80"/>
+      <c r="J61" s="80"/>
+      <c r="K61" s="80"/>
+      <c r="L61" s="80"/>
+      <c r="M61" s="80"/>
+      <c r="N61" s="80"/>
+      <c r="O61" s="80"/>
+      <c r="P61" s="81"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B62" s="56" t="s">
+      <c r="B62" s="64" t="s">
         <v>482</v>
       </c>
-      <c r="C62" s="57"/>
-      <c r="D62" s="56" t="s">
+      <c r="C62" s="65"/>
+      <c r="D62" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="E62" s="57"/>
+      <c r="E62" s="65"/>
       <c r="F62" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="58" t="s">
+      <c r="H62" s="75" t="s">
         <v>483</v>
       </c>
-      <c r="I62" s="58"/>
-      <c r="J62" s="58"/>
-      <c r="K62" s="56" t="s">
+      <c r="I62" s="75"/>
+      <c r="J62" s="75"/>
+      <c r="K62" s="64" t="s">
         <v>484</v>
       </c>
-      <c r="L62" s="59"/>
-      <c r="M62" s="59"/>
-      <c r="N62" s="59"/>
-      <c r="O62" s="59"/>
-      <c r="P62" s="57"/>
+      <c r="L62" s="85"/>
+      <c r="M62" s="85"/>
+      <c r="N62" s="85"/>
+      <c r="O62" s="85"/>
+      <c r="P62" s="65"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
         <v>1</v>
       </c>
-      <c r="B63" s="46" t="s">
+      <c r="B63" s="84" t="s">
         <v>485</v>
       </c>
-      <c r="C63" s="46"/>
-      <c r="D63" s="46" t="s">
+      <c r="C63" s="84"/>
+      <c r="D63" s="84" t="s">
         <v>487</v>
       </c>
-      <c r="E63" s="46"/>
+      <c r="E63" s="84"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="47" t="s">
+      <c r="H63" s="61" t="s">
         <v>486</v>
       </c>
-      <c r="I63" s="48"/>
-      <c r="J63" s="49"/>
-      <c r="K63" s="50"/>
-      <c r="L63" s="51"/>
-      <c r="M63" s="51"/>
-      <c r="N63" s="51"/>
-      <c r="O63" s="51"/>
-      <c r="P63" s="52"/>
+      <c r="I63" s="62"/>
+      <c r="J63" s="63"/>
+      <c r="K63" s="66"/>
+      <c r="L63" s="67"/>
+      <c r="M63" s="67"/>
+      <c r="N63" s="67"/>
+      <c r="O63" s="67"/>
+      <c r="P63" s="68"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="31"/>
@@ -13034,92 +13034,32 @@
       <c r="C66" s="17"/>
     </row>
     <row r="67" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="60" t="s">
+      <c r="B67" s="70" t="s">
         <v>452</v>
       </c>
-      <c r="C67" s="61"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="61"/>
-      <c r="I67" s="61"/>
-      <c r="J67" s="61"/>
-      <c r="K67" s="61"/>
-      <c r="L67" s="61"/>
-      <c r="M67" s="61"/>
+      <c r="C67" s="71"/>
+      <c r="D67" s="71"/>
+      <c r="E67" s="71"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="71"/>
+      <c r="H67" s="71"/>
+      <c r="I67" s="71"/>
+      <c r="J67" s="71"/>
+      <c r="K67" s="71"/>
+      <c r="L67" s="71"/>
+      <c r="M67" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:P59"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:P57"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="A52:A59"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="B56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="B48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:P45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:P63"/>
+    <mergeCell ref="A61:P61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="K62:P62"/>
     <mergeCell ref="B67:M67"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="D3:G3"/>
@@ -13136,15 +13076,75 @@
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A43:P43"/>
     <mergeCell ref="A44:A51"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:P63"/>
-    <mergeCell ref="A61:P61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K62:P62"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="B56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:P57"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:P59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13177,134 +13177,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="63" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="73" t="s">
         <v>472</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="49"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="63"/>
       <c r="N1" s="20"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="63" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="73" t="s">
         <v>475</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="61" t="s">
         <v>480</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="63" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="73" t="s">
         <v>476</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="78"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -13725,233 +13725,242 @@
       <c r="P18" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="55"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="81"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="68">
+      <c r="A21" s="82">
         <v>1</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="50" t="s">
+      <c r="C21" s="65"/>
+      <c r="D21" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
       <c r="G21" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H21" s="50"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="70" t="s">
+      <c r="H21" s="66"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="L21" s="71"/>
-      <c r="M21" s="47" t="s">
+      <c r="L21" s="57"/>
+      <c r="M21" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="49"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="63"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="69"/>
-      <c r="B22" s="56" t="s">
+      <c r="A22" s="83"/>
+      <c r="B22" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="50" t="s">
+      <c r="C22" s="65"/>
+      <c r="D22" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
       <c r="G22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="50" t="s">
+      <c r="H22" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="51"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="70" t="s">
+      <c r="I22" s="67"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="L22" s="71"/>
-      <c r="M22" s="47" t="s">
+      <c r="L22" s="57"/>
+      <c r="M22" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="49"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="63"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="69"/>
-      <c r="B23" s="56" t="s">
+      <c r="A23" s="83"/>
+      <c r="B23" s="64" t="s">
         <v>373</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
       <c r="G23" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="52"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="68"/>
       <c r="K23" s="24"/>
       <c r="L23" s="25"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="49"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="63"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="69"/>
-      <c r="B24" s="56" t="s">
+      <c r="A24" s="83"/>
+      <c r="B24" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="70" t="s">
+      <c r="C24" s="65"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L24" s="71"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="49"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="63"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="69"/>
-      <c r="B25" s="72" t="s">
+      <c r="A25" s="83"/>
+      <c r="B25" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="74"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="54"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="69"/>
+      <c r="A26" s="83"/>
       <c r="B26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="71"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57"/>
       <c r="F26" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="70" t="s">
+      <c r="G26" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="71"/>
-      <c r="I26" s="70" t="s">
+      <c r="H26" s="57"/>
+      <c r="I26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="71"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="77"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="59"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="69"/>
+      <c r="A27" s="83"/>
       <c r="B27" s="12">
         <v>1</v>
       </c>
-      <c r="C27" s="79" t="s">
+      <c r="C27" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="D27" s="80"/>
-      <c r="E27" s="81"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="51"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="79" t="s">
+      <c r="G27" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="81"/>
+      <c r="H27" s="51"/>
       <c r="I27" s="3"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="84"/>
-      <c r="P27" s="83"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="48"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="69"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="81"/>
+      <c r="A28" s="83"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="51"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="81"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="51"/>
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="83"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A20:P20"/>
     <mergeCell ref="A21:A28"/>
@@ -13968,27 +13977,18 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="H23:J23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14020,134 +14020,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="63" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="68"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="63" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="63" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="73" t="s">
         <v>435</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="78"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -14596,82 +14596,82 @@
       <c r="P19" s="1"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="79" t="s">
         <v>481</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="55"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="81"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="64" t="s">
         <v>482</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="56" t="s">
+      <c r="C22" s="65"/>
+      <c r="D22" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="57"/>
+      <c r="E22" s="65"/>
       <c r="F22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="58" t="s">
+      <c r="H22" s="75" t="s">
         <v>483</v>
       </c>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="56" t="s">
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="64" t="s">
         <v>484</v>
       </c>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="57"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="65"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>1</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="84" t="s">
         <v>488</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46" t="s">
+      <c r="C23" s="84"/>
+      <c r="D23" s="84" t="s">
         <v>489</v>
       </c>
-      <c r="E23" s="46"/>
+      <c r="E23" s="84"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="47" t="s">
+      <c r="H23" s="61" t="s">
         <v>490</v>
       </c>
-      <c r="I23" s="48"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="52"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="68"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="31"/>
@@ -14707,6 +14707,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="A21:P21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:P22"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
@@ -14720,15 +14729,6 @@
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="A21:P21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:P22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14761,134 +14761,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="63" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="67"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="78"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="68"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="63" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="67"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="63" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="73" t="s">
         <v>492</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="67"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="78"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="78"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -15229,235 +15229,235 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="55"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="81"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="68">
+      <c r="A18" s="82">
         <v>1</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="50" t="s">
+      <c r="C18" s="65"/>
+      <c r="D18" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
       <c r="G18" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H18" s="50" t="s">
+      <c r="H18" s="66" t="s">
         <v>299</v>
       </c>
-      <c r="I18" s="51"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="70" t="s">
+      <c r="I18" s="67"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="L18" s="71"/>
-      <c r="M18" s="47" t="s">
+      <c r="L18" s="57"/>
+      <c r="M18" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="49"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="63"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="69"/>
-      <c r="B19" s="56" t="s">
+      <c r="A19" s="83"/>
+      <c r="B19" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="50" t="s">
+      <c r="C19" s="65"/>
+      <c r="D19" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
       <c r="G19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="51"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="70" t="s">
+      <c r="I19" s="67"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="L19" s="71"/>
-      <c r="M19" s="47" t="s">
+      <c r="L19" s="57"/>
+      <c r="M19" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="49"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="63"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="69"/>
-      <c r="B20" s="56" t="s">
+      <c r="A20" s="83"/>
+      <c r="B20" s="64" t="s">
         <v>373</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="50" t="s">
+      <c r="C20" s="65"/>
+      <c r="D20" s="66" t="s">
         <v>375</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
       <c r="G20" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H20" s="51" t="s">
+      <c r="H20" s="67" t="s">
         <v>377</v>
       </c>
-      <c r="I20" s="51"/>
-      <c r="J20" s="52"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="68"/>
       <c r="K20" s="24"/>
       <c r="L20" s="25"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="49"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="63"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="69"/>
-      <c r="B21" s="56" t="s">
+      <c r="A21" s="83"/>
+      <c r="B21" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="70" t="s">
+      <c r="C21" s="65"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="71"/>
-      <c r="M21" s="47" t="s">
+      <c r="L21" s="57"/>
+      <c r="M21" s="61" t="s">
         <v>493</v>
       </c>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="49"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="63"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="69"/>
-      <c r="B22" s="72" t="s">
+      <c r="A22" s="83"/>
+      <c r="B22" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="74"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="54"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="69"/>
+      <c r="A23" s="83"/>
       <c r="B23" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="75"/>
-      <c r="E23" s="71"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
       <c r="F23" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="70" t="s">
+      <c r="G23" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="71"/>
-      <c r="I23" s="70" t="s">
+      <c r="H23" s="57"/>
+      <c r="I23" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="71"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="78"/>
-      <c r="P23" s="77"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="59"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="69"/>
+      <c r="A24" s="83"/>
       <c r="B24" s="12">
         <v>1</v>
       </c>
-      <c r="C24" s="79" t="s">
+      <c r="C24" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="80"/>
-      <c r="E24" s="81"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="79" t="s">
+      <c r="G24" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="H24" s="81"/>
+      <c r="H24" s="51"/>
       <c r="I24" s="3"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="83"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="48"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="69"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="81"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="81"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="51"/>
       <c r="I25" s="3"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="83"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="48"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="68">
+      <c r="A26" s="82">
         <v>2</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="57"/>
+      <c r="C26" s="65"/>
       <c r="D26" s="86" t="s">
         <v>121</v>
       </c>
@@ -15466,28 +15466,28 @@
       <c r="G26" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="66" t="s">
         <v>462</v>
       </c>
-      <c r="I26" s="51"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="70" t="s">
+      <c r="I26" s="67"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="L26" s="71"/>
-      <c r="M26" s="47" t="s">
+      <c r="L26" s="57"/>
+      <c r="M26" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="49"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="63"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="69"/>
-      <c r="B27" s="56" t="s">
+      <c r="A27" s="83"/>
+      <c r="B27" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="57"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="86" t="s">
         <v>106</v>
       </c>
@@ -15496,157 +15496,157 @@
       <c r="G27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="50" t="s">
+      <c r="H27" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="I27" s="51"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="70" t="s">
+      <c r="I27" s="67"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="L27" s="71"/>
-      <c r="M27" s="47" t="s">
+      <c r="L27" s="57"/>
+      <c r="M27" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="49"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="63"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="69"/>
-      <c r="B28" s="56" t="s">
+      <c r="A28" s="83"/>
+      <c r="B28" s="64" t="s">
         <v>373</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="50" t="s">
+      <c r="C28" s="65"/>
+      <c r="D28" s="66" t="s">
         <v>463</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
       <c r="G28" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H28" s="51" t="s">
+      <c r="H28" s="67" t="s">
         <v>464</v>
       </c>
-      <c r="I28" s="51"/>
-      <c r="J28" s="52"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="68"/>
       <c r="K28" s="24"/>
       <c r="L28" s="25"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="49"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="63"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="69"/>
-      <c r="B29" s="56" t="s">
+      <c r="A29" s="83"/>
+      <c r="B29" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="70" t="s">
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L29" s="71"/>
-      <c r="M29" s="47" t="s">
+      <c r="L29" s="57"/>
+      <c r="M29" s="61" t="s">
         <v>493</v>
       </c>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="49"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="63"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="69"/>
-      <c r="B30" s="72" t="s">
+      <c r="A30" s="83"/>
+      <c r="B30" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="74"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="54"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="69"/>
+      <c r="A31" s="83"/>
       <c r="B31" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="75"/>
-      <c r="E31" s="71"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="57"/>
       <c r="F31" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="70" t="s">
+      <c r="G31" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="71"/>
-      <c r="I31" s="70" t="s">
+      <c r="H31" s="57"/>
+      <c r="I31" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J31" s="71"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="77"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="59"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="69"/>
+      <c r="A32" s="83"/>
       <c r="B32" s="12">
         <v>1</v>
       </c>
-      <c r="C32" s="79" t="s">
+      <c r="C32" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="D32" s="80"/>
-      <c r="E32" s="81"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="51"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="79" t="s">
+      <c r="G32" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="H32" s="81"/>
+      <c r="H32" s="51"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="82"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="83"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="48"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="69"/>
+      <c r="A33" s="83"/>
       <c r="B33" s="29"/>
       <c r="C33" s="30"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="81"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="51"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="81"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="51"/>
       <c r="I33" s="3"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="83"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="48"/>
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
@@ -15654,6 +15654,73 @@
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
     <mergeCell ref="M28:P28"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C32:E32"/>
@@ -15670,73 +15737,6 @@
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="M31:P31"/>
     <mergeCell ref="M32:P32"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M29:P29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15769,134 +15769,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="63" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="67"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="78"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="49"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="63"/>
       <c r="N1" s="20"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="63" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="67"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="67"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="78"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="63" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="78"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -16329,442 +16329,463 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="52"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="68"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="55"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="81"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="68">
+      <c r="A22" s="82">
         <v>1</v>
       </c>
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="71"/>
-      <c r="D22" s="50" t="s">
+      <c r="C22" s="57"/>
+      <c r="D22" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
       <c r="G22" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H22" s="50" t="s">
+      <c r="H22" s="66" t="s">
         <v>300</v>
       </c>
-      <c r="I22" s="51"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="70" t="s">
+      <c r="I22" s="67"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="L22" s="71"/>
-      <c r="M22" s="47" t="s">
+      <c r="L22" s="57"/>
+      <c r="M22" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="49"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="63"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="69"/>
-      <c r="B23" s="70" t="s">
+      <c r="A23" s="83"/>
+      <c r="B23" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="50" t="s">
+      <c r="C23" s="57"/>
+      <c r="D23" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
       <c r="G23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="50" t="s">
+      <c r="H23" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="51"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="70" t="s">
+      <c r="I23" s="67"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="L23" s="71"/>
-      <c r="M23" s="47" t="s">
+      <c r="L23" s="57"/>
+      <c r="M23" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="49"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="63"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="69"/>
-      <c r="B24" s="70" t="s">
+      <c r="A24" s="83"/>
+      <c r="B24" s="55" t="s">
         <v>373</v>
       </c>
-      <c r="C24" s="71"/>
-      <c r="D24" s="50" t="s">
+      <c r="C24" s="57"/>
+      <c r="D24" s="66" t="s">
         <v>378</v>
       </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
       <c r="G24" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="H24" s="51" t="s">
+      <c r="H24" s="67" t="s">
         <v>379</v>
       </c>
-      <c r="I24" s="51"/>
-      <c r="J24" s="52"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="68"/>
       <c r="K24" s="24"/>
       <c r="L24" s="25"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="52"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="68"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="69"/>
-      <c r="B25" s="70" t="s">
+      <c r="A25" s="83"/>
+      <c r="B25" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="70" t="s">
+      <c r="C25" s="57"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="71"/>
-      <c r="M25" s="47" t="s">
+      <c r="L25" s="57"/>
+      <c r="M25" s="61" t="s">
         <v>445</v>
       </c>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="49"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="63"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="69"/>
-      <c r="B26" s="72" t="s">
+      <c r="A26" s="83"/>
+      <c r="B26" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="89"/>
-      <c r="O26" s="89"/>
-      <c r="P26" s="90"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="91"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="69"/>
+      <c r="A27" s="83"/>
       <c r="B27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="75"/>
-      <c r="E27" s="71"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57"/>
       <c r="F27" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="70" t="s">
+      <c r="G27" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="71"/>
-      <c r="I27" s="70" t="s">
+      <c r="H27" s="57"/>
+      <c r="I27" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="71"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="77"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="59"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="69"/>
+      <c r="A28" s="83"/>
       <c r="B28" s="12">
         <v>1</v>
       </c>
-      <c r="C28" s="79" t="s">
+      <c r="C28" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="80"/>
-      <c r="E28" s="81"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="51"/>
       <c r="F28" s="28"/>
-      <c r="G28" s="79" t="s">
+      <c r="G28" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="H28" s="81"/>
+      <c r="H28" s="51"/>
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="83"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="48"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="69"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="81"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="51"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="81"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="51"/>
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="83"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="48"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="68">
+      <c r="A30" s="82">
         <v>2</v>
       </c>
-      <c r="B30" s="70" t="s">
+      <c r="B30" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="71"/>
-      <c r="D30" s="50" t="s">
+      <c r="C30" s="57"/>
+      <c r="D30" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
       <c r="G30" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="70" t="s">
+      <c r="H30" s="66"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="L30" s="71"/>
-      <c r="M30" s="47" t="s">
+      <c r="L30" s="57"/>
+      <c r="M30" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="49"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="63"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="69"/>
-      <c r="B31" s="70" t="s">
+      <c r="A31" s="83"/>
+      <c r="B31" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="50" t="s">
+      <c r="C31" s="57"/>
+      <c r="D31" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
       <c r="G31" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="50" t="s">
+      <c r="H31" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="I31" s="51"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="70" t="s">
+      <c r="I31" s="67"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="L31" s="71"/>
-      <c r="M31" s="47" t="s">
+      <c r="L31" s="57"/>
+      <c r="M31" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="49"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="63"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="69"/>
-      <c r="B32" s="70" t="s">
+      <c r="A32" s="83"/>
+      <c r="B32" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="70" t="s">
+      <c r="C32" s="57"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L32" s="71"/>
-      <c r="M32" s="47" t="s">
+      <c r="L32" s="57"/>
+      <c r="M32" s="61" t="s">
         <v>387</v>
       </c>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="49"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="63"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="69"/>
-      <c r="B33" s="72" t="s">
+      <c r="A33" s="83"/>
+      <c r="B33" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="74"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="54"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="69"/>
+      <c r="A34" s="83"/>
       <c r="B34" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="70" t="s">
+      <c r="C34" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="71"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="57"/>
       <c r="F34" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="70" t="s">
+      <c r="G34" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="71"/>
-      <c r="I34" s="70" t="s">
+      <c r="H34" s="57"/>
+      <c r="I34" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="71"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="78"/>
-      <c r="O34" s="78"/>
-      <c r="P34" s="77"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="59"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="69"/>
+      <c r="A35" s="83"/>
       <c r="B35" s="12">
         <v>1</v>
       </c>
-      <c r="C35" s="79" t="s">
+      <c r="C35" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="80"/>
-      <c r="E35" s="81"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="51"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="79" t="s">
+      <c r="G35" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="H35" s="81"/>
+      <c r="H35" s="51"/>
       <c r="I35" s="3"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="84"/>
-      <c r="O35" s="84"/>
-      <c r="P35" s="83"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="48"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="91"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="81"/>
+      <c r="A36" s="88"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="51"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="81"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="51"/>
       <c r="I36" s="3"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="84"/>
-      <c r="O36" s="84"/>
-      <c r="P36" s="83"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="A21:P21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="M29:P29"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="M28:P28"/>
     <mergeCell ref="K32:L32"/>
@@ -16781,48 +16802,27 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="D31:F31"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A20:P20"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="A21:P21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="D25:J25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16854,136 +16854,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="63" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="73" t="s">
         <v>367</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="67"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="78"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="68"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="63" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="73" t="s">
         <v>368</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="67"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="61" t="s">
         <v>369</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="63" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="73" t="s">
         <v>440</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="67"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="78"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="52"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="68"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="63" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="73" t="s">
         <v>346</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="67"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="78"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">

--- a/nop-auth/model/nop-auth.orm.xlsx
+++ b/nop-auth/model/nop-auth.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-auth\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA136710-A5BE-4262-9BCC-012D827C4F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DBC6C4-ED69-4FA7-8A06-9503AA13DD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="6" activeTab="9" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="2" activeTab="2" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="515">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2135,6 +2135,10 @@
   </si>
   <si>
     <t>pub,ref-pub,cascade-delete,ref-connection,queryable,sortable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2500,49 +2504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2554,12 +2516,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2569,7 +2525,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2587,9 +2561,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2599,34 +2570,64 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2637,6 +2638,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3202,7 +3206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FA4F0DF-629C-4898-BB59-2F1675DF9202}">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="M49" sqref="M49:P49"/>
     </sheetView>
   </sheetViews>
@@ -3223,65 +3227,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="73" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="78"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="67"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="68"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="73" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="63" t="s">
         <v>447</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="78"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="67"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="47" t="s">
         <v>448</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="78"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="67"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -3293,64 +3297,64 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="73" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="78"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="67"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -4329,50 +4333,50 @@
       <c r="P35" s="1"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="79" t="s">
+      <c r="A37" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
-      <c r="M37" s="80"/>
-      <c r="N37" s="80"/>
-      <c r="O37" s="80"/>
-      <c r="P37" s="81"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="55"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="82">
+      <c r="A38" s="68">
         <v>1</v>
       </c>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="66" t="s">
+      <c r="C38" s="57"/>
+      <c r="D38" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="E38" s="67"/>
-      <c r="F38" s="68"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="52"/>
       <c r="G38" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H38" s="66" t="s">
+      <c r="H38" s="50" t="s">
         <v>436</v>
       </c>
-      <c r="I38" s="67"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="55" t="s">
+      <c r="I38" s="51"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="L38" s="57"/>
+      <c r="L38" s="71"/>
       <c r="M38" s="14" t="s">
         <v>210</v>
       </c>
@@ -4381,54 +4385,54 @@
       <c r="P38" s="1"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="83"/>
-      <c r="B39" s="64" t="s">
+      <c r="A39" s="69"/>
+      <c r="B39" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="66" t="s">
+      <c r="C39" s="57"/>
+      <c r="D39" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="E39" s="67"/>
-      <c r="F39" s="68"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="52"/>
       <c r="G39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H39" s="66" t="s">
+      <c r="H39" s="50" t="s">
         <v>343</v>
       </c>
-      <c r="I39" s="67"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="55" t="s">
+      <c r="I39" s="51"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="L39" s="57"/>
-      <c r="M39" s="61" t="s">
+      <c r="L39" s="71"/>
+      <c r="M39" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="N39" s="62"/>
-      <c r="O39" s="62"/>
-      <c r="P39" s="63"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="49"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="83"/>
-      <c r="B40" s="64" t="s">
+      <c r="A40" s="69"/>
+      <c r="B40" s="56" t="s">
         <v>373</v>
       </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="66" t="s">
+      <c r="C40" s="57"/>
+      <c r="D40" s="50" t="s">
         <v>438</v>
       </c>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
       <c r="G40" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H40" s="67" t="s">
+      <c r="H40" s="51" t="s">
         <v>439</v>
       </c>
-      <c r="I40" s="67"/>
-      <c r="J40" s="68"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="52"/>
       <c r="K40" s="24"/>
       <c r="L40" s="25"/>
       <c r="M40" s="22"/>
@@ -4437,42 +4441,42 @@
       <c r="P40" s="20"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="83"/>
-      <c r="B41" s="64" t="s">
+      <c r="A41" s="69"/>
+      <c r="B41" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="65"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="55" t="s">
+      <c r="C41" s="57"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L41" s="57"/>
-      <c r="M41" s="61" t="s">
+      <c r="L41" s="71"/>
+      <c r="M41" s="47" t="s">
         <v>446</v>
       </c>
-      <c r="N41" s="62"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="63"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="49"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="83"/>
-      <c r="B42" s="52" t="s">
+      <c r="A42" s="69"/>
+      <c r="B42" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="54"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="74"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
@@ -4481,66 +4485,66 @@
       <c r="P42" s="5"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="83"/>
+      <c r="A43" s="69"/>
       <c r="B43" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="57"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="71"/>
       <c r="F43" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="55" t="s">
+      <c r="G43" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H43" s="57"/>
-      <c r="I43" s="55" t="s">
+      <c r="H43" s="71"/>
+      <c r="I43" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J43" s="57"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="60"/>
-      <c r="O43" s="60"/>
-      <c r="P43" s="59"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="77"/>
+      <c r="M43" s="76"/>
+      <c r="N43" s="78"/>
+      <c r="O43" s="78"/>
+      <c r="P43" s="77"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="83"/>
+      <c r="A44" s="69"/>
       <c r="B44" s="12">
         <v>1</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="79" t="s">
         <v>344</v>
       </c>
-      <c r="D44" s="50"/>
-      <c r="E44" s="51"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="81"/>
       <c r="F44" s="12"/>
-      <c r="G44" s="49" t="s">
+      <c r="G44" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="H44" s="51"/>
+      <c r="H44" s="81"/>
       <c r="I44" s="3"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="47"/>
-      <c r="P44" s="48"/>
+      <c r="K44" s="82"/>
+      <c r="L44" s="83"/>
+      <c r="M44" s="82"/>
+      <c r="N44" s="84"/>
+      <c r="O44" s="84"/>
+      <c r="P44" s="83"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="83"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="51"/>
+      <c r="A45" s="69"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="81"/>
       <c r="F45" s="12"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="51"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="81"/>
       <c r="I45" s="3"/>
       <c r="J45" s="4"/>
       <c r="K45" s="13"/>
@@ -4551,30 +4555,30 @@
       <c r="P45" s="6"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="82">
+      <c r="A46" s="68">
         <v>2</v>
       </c>
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="65"/>
-      <c r="D46" s="66" t="s">
+      <c r="C46" s="57"/>
+      <c r="D46" s="50" t="s">
         <v>363</v>
       </c>
-      <c r="E46" s="67"/>
-      <c r="F46" s="68"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="52"/>
       <c r="G46" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H46" s="66" t="s">
+      <c r="H46" s="50" t="s">
         <v>511</v>
       </c>
-      <c r="I46" s="67"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="55" t="s">
+      <c r="I46" s="51"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="L46" s="57"/>
+      <c r="L46" s="71"/>
       <c r="M46" s="14" t="s">
         <v>365</v>
       </c>
@@ -4583,54 +4587,54 @@
       <c r="P46" s="1"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="83"/>
-      <c r="B47" s="64" t="s">
+      <c r="A47" s="69"/>
+      <c r="B47" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="65"/>
-      <c r="D47" s="66" t="s">
+      <c r="C47" s="57"/>
+      <c r="D47" s="50" t="s">
         <v>345</v>
       </c>
-      <c r="E47" s="67"/>
-      <c r="F47" s="68"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="52"/>
       <c r="G47" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="66" t="s">
+      <c r="H47" s="50" t="s">
         <v>364</v>
       </c>
-      <c r="I47" s="67"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="55" t="s">
+      <c r="I47" s="51"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="L47" s="57"/>
-      <c r="M47" s="61" t="s">
+      <c r="L47" s="71"/>
+      <c r="M47" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="N47" s="62"/>
-      <c r="O47" s="62"/>
-      <c r="P47" s="63"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="48"/>
+      <c r="P47" s="49"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="83"/>
-      <c r="B48" s="64" t="s">
+      <c r="A48" s="69"/>
+      <c r="B48" s="56" t="s">
         <v>373</v>
       </c>
-      <c r="C48" s="65"/>
-      <c r="D48" s="66" t="s">
+      <c r="C48" s="57"/>
+      <c r="D48" s="50" t="s">
         <v>512</v>
       </c>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
       <c r="G48" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H48" s="67" t="s">
+      <c r="H48" s="51" t="s">
         <v>381</v>
       </c>
-      <c r="I48" s="67"/>
-      <c r="J48" s="68"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="52"/>
       <c r="K48" s="24"/>
       <c r="L48" s="25"/>
       <c r="M48" s="22"/>
@@ -4639,42 +4643,42 @@
       <c r="P48" s="20"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="83"/>
-      <c r="B49" s="64" t="s">
+      <c r="A49" s="69"/>
+      <c r="B49" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="65"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="55" t="s">
+      <c r="C49" s="57"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L49" s="57"/>
-      <c r="M49" s="61" t="s">
+      <c r="L49" s="71"/>
+      <c r="M49" s="47" t="s">
         <v>513</v>
       </c>
-      <c r="N49" s="62"/>
-      <c r="O49" s="62"/>
-      <c r="P49" s="63"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="48"/>
+      <c r="P49" s="49"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="83"/>
-      <c r="B50" s="52" t="s">
+      <c r="A50" s="69"/>
+      <c r="B50" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="54"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="73"/>
+      <c r="J50" s="74"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
       <c r="M50" s="11"/>
@@ -4683,66 +4687,66 @@
       <c r="P50" s="5"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="83"/>
+      <c r="A51" s="69"/>
       <c r="B51" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="56"/>
-      <c r="E51" s="57"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="71"/>
       <c r="F51" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G51" s="55" t="s">
+      <c r="G51" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="57"/>
-      <c r="I51" s="55" t="s">
+      <c r="H51" s="71"/>
+      <c r="I51" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J51" s="57"/>
-      <c r="K51" s="58"/>
-      <c r="L51" s="59"/>
-      <c r="M51" s="58"/>
-      <c r="N51" s="60"/>
-      <c r="O51" s="60"/>
-      <c r="P51" s="59"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="76"/>
+      <c r="L51" s="77"/>
+      <c r="M51" s="76"/>
+      <c r="N51" s="78"/>
+      <c r="O51" s="78"/>
+      <c r="P51" s="77"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="83"/>
+      <c r="A52" s="69"/>
       <c r="B52" s="12">
         <v>1</v>
       </c>
-      <c r="C52" s="49" t="s">
+      <c r="C52" s="79" t="s">
         <v>366</v>
       </c>
-      <c r="D52" s="50"/>
-      <c r="E52" s="51"/>
+      <c r="D52" s="80"/>
+      <c r="E52" s="81"/>
       <c r="F52" s="12"/>
-      <c r="G52" s="49" t="s">
+      <c r="G52" s="79" t="s">
         <v>366</v>
       </c>
-      <c r="H52" s="51"/>
+      <c r="H52" s="81"/>
       <c r="I52" s="3"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="48"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="47"/>
-      <c r="O52" s="47"/>
-      <c r="P52" s="48"/>
+      <c r="K52" s="82"/>
+      <c r="L52" s="83"/>
+      <c r="M52" s="82"/>
+      <c r="N52" s="84"/>
+      <c r="O52" s="84"/>
+      <c r="P52" s="83"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="83"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="51"/>
+      <c r="A53" s="69"/>
+      <c r="B53" s="79"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="81"/>
       <c r="F53" s="12"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="51"/>
+      <c r="G53" s="79"/>
+      <c r="H53" s="81"/>
       <c r="I53" s="3"/>
       <c r="J53" s="4"/>
       <c r="K53" s="13"/>
@@ -4754,19 +4758,48 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="A37:P37"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="B42:J42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="C44:E44"/>
     <mergeCell ref="A46:A53"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="D46:F46"/>
@@ -4783,48 +4816,19 @@
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="D48:F48"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="B42:J42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A37:P37"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4857,67 +4861,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="73" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="78"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="67"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="68"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="73" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="78"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="67"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="73" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="63" t="s">
         <v>492</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="78"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="67"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -4929,64 +4933,64 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="73" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="63" t="s">
         <v>170</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="78"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="67"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -5391,50 +5395,50 @@
       <c r="P18" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="81"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="55"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="82">
+      <c r="A21" s="68">
         <v>1</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="66" t="s">
+      <c r="C21" s="57"/>
+      <c r="D21" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="67"/>
-      <c r="F21" s="68"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
       <c r="G21" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H21" s="66" t="s">
+      <c r="H21" s="50" t="s">
         <v>301</v>
       </c>
-      <c r="I21" s="67"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="55" t="s">
+      <c r="I21" s="51"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="L21" s="57"/>
+      <c r="L21" s="71"/>
       <c r="M21" s="14" t="s">
         <v>209</v>
       </c>
@@ -5443,54 +5447,54 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="83"/>
-      <c r="B22" s="64" t="s">
+      <c r="A22" s="69"/>
+      <c r="B22" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="66" t="s">
+      <c r="C22" s="57"/>
+      <c r="D22" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="67"/>
-      <c r="F22" s="68"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="52"/>
       <c r="G22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="66" t="s">
+      <c r="H22" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="I22" s="67"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="55" t="s">
+      <c r="I22" s="51"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="L22" s="57"/>
-      <c r="M22" s="61" t="s">
+      <c r="L22" s="71"/>
+      <c r="M22" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="63"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="49"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
-      <c r="B23" s="64" t="s">
+      <c r="A23" s="69"/>
+      <c r="B23" s="56" t="s">
         <v>373</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="66" t="s">
+      <c r="C23" s="57"/>
+      <c r="D23" s="50" t="s">
         <v>380</v>
       </c>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
       <c r="G23" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H23" s="67" t="s">
+      <c r="H23" s="51" t="s">
         <v>381</v>
       </c>
-      <c r="I23" s="67"/>
-      <c r="J23" s="68"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
       <c r="K23" s="24"/>
       <c r="L23" s="25"/>
       <c r="M23" s="22"/>
@@ -5499,42 +5503,42 @@
       <c r="P23" s="20"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="83"/>
-      <c r="B24" s="64" t="s">
+      <c r="A24" s="69"/>
+      <c r="B24" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="55" t="s">
+      <c r="C24" s="57"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L24" s="57"/>
-      <c r="M24" s="61" t="s">
+      <c r="L24" s="71"/>
+      <c r="M24" s="47" t="s">
         <v>493</v>
       </c>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="63"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="49"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="83"/>
-      <c r="B25" s="52" t="s">
+      <c r="A25" s="69"/>
+      <c r="B25" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="54"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="74"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
@@ -5543,66 +5547,66 @@
       <c r="P25" s="5"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="83"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="71"/>
       <c r="F26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="55" t="s">
+      <c r="G26" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="57"/>
-      <c r="I26" s="55" t="s">
+      <c r="H26" s="71"/>
+      <c r="I26" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="57"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="59"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="77"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="83"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="12">
         <v>1</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="51"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="81"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="49" t="s">
+      <c r="G27" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="H27" s="51"/>
+      <c r="H27" s="81"/>
       <c r="I27" s="3"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="48"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="83"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="83"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="51"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="81"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="51"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="81"/>
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
       <c r="K28" s="13"/>
@@ -5613,30 +5617,30 @@
       <c r="P28" s="6"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="82">
+      <c r="A29" s="68">
         <v>2</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="66" t="s">
+      <c r="C29" s="57"/>
+      <c r="D29" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="E29" s="67"/>
-      <c r="F29" s="68"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="52"/>
       <c r="G29" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H29" s="66" t="s">
+      <c r="H29" s="50" t="s">
         <v>299</v>
       </c>
-      <c r="I29" s="67"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="55" t="s">
+      <c r="I29" s="51"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="L29" s="57"/>
+      <c r="L29" s="71"/>
       <c r="M29" s="14" t="s">
         <v>210</v>
       </c>
@@ -5645,54 +5649,54 @@
       <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="83"/>
-      <c r="B30" s="64" t="s">
+      <c r="A30" s="69"/>
+      <c r="B30" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="66" t="s">
+      <c r="C30" s="57"/>
+      <c r="D30" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="E30" s="67"/>
-      <c r="F30" s="68"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="52"/>
       <c r="G30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="66" t="s">
+      <c r="H30" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="I30" s="67"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="55" t="s">
+      <c r="I30" s="51"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="L30" s="57"/>
-      <c r="M30" s="61" t="s">
+      <c r="L30" s="71"/>
+      <c r="M30" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="63"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="49"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="83"/>
-      <c r="B31" s="64" t="s">
+      <c r="A31" s="69"/>
+      <c r="B31" s="56" t="s">
         <v>373</v>
       </c>
-      <c r="C31" s="65"/>
-      <c r="D31" s="66" t="s">
+      <c r="C31" s="57"/>
+      <c r="D31" s="50" t="s">
         <v>375</v>
       </c>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
       <c r="G31" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H31" s="67" t="s">
+      <c r="H31" s="51" t="s">
         <v>376</v>
       </c>
-      <c r="I31" s="67"/>
-      <c r="J31" s="68"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="52"/>
       <c r="K31" s="24"/>
       <c r="L31" s="25"/>
       <c r="M31" s="22"/>
@@ -5701,42 +5705,42 @@
       <c r="P31" s="20"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="83"/>
-      <c r="B32" s="64" t="s">
+      <c r="A32" s="69"/>
+      <c r="B32" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="65"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="55" t="s">
+      <c r="C32" s="57"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L32" s="57"/>
-      <c r="M32" s="61" t="s">
+      <c r="L32" s="71"/>
+      <c r="M32" s="47" t="s">
         <v>493</v>
       </c>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="63"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="49"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="83"/>
-      <c r="B33" s="52" t="s">
+      <c r="A33" s="69"/>
+      <c r="B33" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="54"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="74"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
@@ -5745,66 +5749,66 @@
       <c r="P33" s="5"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="83"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="57"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="71"/>
       <c r="F34" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="55" t="s">
+      <c r="G34" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="57"/>
-      <c r="I34" s="55" t="s">
+      <c r="H34" s="71"/>
+      <c r="I34" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="57"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="59"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="78"/>
+      <c r="O34" s="78"/>
+      <c r="P34" s="77"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="83"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="12">
         <v>1</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="51"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="81"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="49" t="s">
+      <c r="G35" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="H35" s="51"/>
+      <c r="H35" s="81"/>
       <c r="I35" s="3"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="48"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="83"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="83"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="83"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="51"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="81"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="51"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="81"/>
       <c r="I36" s="3"/>
       <c r="J36" s="4"/>
       <c r="K36" s="13"/>
@@ -5816,6 +5820,61 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="H22:J22"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="A6:P6"/>
@@ -5832,61 +5891,6 @@
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A20:P20"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5918,65 +5922,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="73" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="63" t="s">
         <v>494</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="78"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="67"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="68"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="73" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="63" t="s">
         <v>495</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="78"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="67"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="47" t="s">
         <v>497</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="78"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="67"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -5988,64 +5992,64 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="73" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="63" t="s">
         <v>496</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="78"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="67"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -6548,50 +6552,50 @@
       <c r="P21" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="81"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="55"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="82">
+      <c r="A24" s="68">
         <v>1</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="66" t="s">
+      <c r="C24" s="57"/>
+      <c r="D24" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="67"/>
-      <c r="F24" s="68"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
       <c r="G24" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H24" s="66" t="s">
+      <c r="H24" s="50" t="s">
         <v>301</v>
       </c>
-      <c r="I24" s="67"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="55" t="s">
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="L24" s="57"/>
+      <c r="L24" s="71"/>
       <c r="M24" s="14" t="s">
         <v>209</v>
       </c>
@@ -6600,54 +6604,54 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="83"/>
-      <c r="B25" s="64" t="s">
+      <c r="A25" s="69"/>
+      <c r="B25" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="66" t="s">
+      <c r="C25" s="57"/>
+      <c r="D25" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="67"/>
-      <c r="F25" s="68"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="52"/>
       <c r="G25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="66" t="s">
+      <c r="H25" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="I25" s="67"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="55" t="s">
+      <c r="I25" s="51"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="L25" s="57"/>
-      <c r="M25" s="61" t="s">
+      <c r="L25" s="71"/>
+      <c r="M25" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="N25" s="62"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="63"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="49"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="83"/>
-      <c r="B26" s="64" t="s">
+      <c r="A26" s="69"/>
+      <c r="B26" s="56" t="s">
         <v>373</v>
       </c>
-      <c r="C26" s="65"/>
-      <c r="D26" s="66" t="s">
+      <c r="C26" s="57"/>
+      <c r="D26" s="50" t="s">
         <v>380</v>
       </c>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
       <c r="G26" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H26" s="67" t="s">
+      <c r="H26" s="51" t="s">
         <v>381</v>
       </c>
-      <c r="I26" s="67"/>
-      <c r="J26" s="68"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="52"/>
       <c r="K26" s="24"/>
       <c r="L26" s="25"/>
       <c r="M26" s="22"/>
@@ -6656,42 +6660,42 @@
       <c r="P26" s="20"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="83"/>
-      <c r="B27" s="64" t="s">
+      <c r="A27" s="69"/>
+      <c r="B27" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="55" t="s">
+      <c r="C27" s="57"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="57"/>
-      <c r="M27" s="61" t="s">
+      <c r="L27" s="71"/>
+      <c r="M27" s="47" t="s">
         <v>493</v>
       </c>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="63"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="49"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="83"/>
-      <c r="B28" s="52" t="s">
+      <c r="A28" s="69"/>
+      <c r="B28" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="54"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="74"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
@@ -6700,66 +6704,66 @@
       <c r="P28" s="5"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="83"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="71"/>
       <c r="F29" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="55" t="s">
+      <c r="G29" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="57"/>
-      <c r="I29" s="55" t="s">
+      <c r="H29" s="71"/>
+      <c r="I29" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="57"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="59"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="77"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="83"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="12">
         <v>1</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="50"/>
-      <c r="E30" s="51"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="81"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="49" t="s">
+      <c r="G30" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="H30" s="51"/>
+      <c r="H30" s="81"/>
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="48"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="83"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="83"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="51"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="81"/>
       <c r="F31" s="12"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="51"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="81"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
       <c r="K31" s="13"/>
@@ -6771,20 +6775,18 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
     <mergeCell ref="A23:P23"/>
     <mergeCell ref="A24:A31"/>
     <mergeCell ref="B24:C24"/>
@@ -6801,18 +6803,20 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="H26:J26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="G31:H31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6844,134 +6848,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="73" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="63" t="s">
         <v>260</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="78"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="67"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="68"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="73" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="78"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="67"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="73" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="63" t="s">
         <v>392</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="78"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="67"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="63"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="78"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="67"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -7639,67 +7643,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="73" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="78"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="67"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="68"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="73" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="63" t="s">
         <v>449</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="78"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="67"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="73" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="63" t="s">
         <v>392</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="78"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="67"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -7711,64 +7715,64 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="73" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="78"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="67"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -8228,48 +8232,48 @@
       <c r="E21" s="31"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="80"/>
-      <c r="P22" s="81"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="55"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="82">
+      <c r="A23" s="68">
         <v>1</v>
       </c>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="66" t="s">
+      <c r="C23" s="57"/>
+      <c r="D23" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="E23" s="67"/>
-      <c r="F23" s="68"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="52"/>
       <c r="G23" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H23" s="66"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="55" t="s">
+      <c r="H23" s="50"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="L23" s="57"/>
+      <c r="L23" s="71"/>
       <c r="M23" s="14" t="s">
         <v>282</v>
       </c>
@@ -8278,72 +8282,72 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="83"/>
-      <c r="B24" s="64" t="s">
+      <c r="A24" s="69"/>
+      <c r="B24" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="66" t="s">
+      <c r="C24" s="57"/>
+      <c r="D24" s="50" t="s">
         <v>233</v>
       </c>
-      <c r="E24" s="67"/>
-      <c r="F24" s="68"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
       <c r="G24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="66" t="s">
+      <c r="H24" s="50" t="s">
         <v>234</v>
       </c>
-      <c r="I24" s="67"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="55" t="s">
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="L24" s="57"/>
-      <c r="M24" s="61" t="s">
+      <c r="L24" s="71"/>
+      <c r="M24" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="63"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="49"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="83"/>
-      <c r="B25" s="64" t="s">
+      <c r="A25" s="69"/>
+      <c r="B25" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="55" t="s">
+      <c r="C25" s="57"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="57"/>
-      <c r="M25" s="61" t="s">
+      <c r="L25" s="71"/>
+      <c r="M25" s="47" t="s">
         <v>387</v>
       </c>
-      <c r="N25" s="62"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="63"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="49"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="83"/>
-      <c r="B26" s="52" t="s">
+      <c r="A26" s="69"/>
+      <c r="B26" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="54"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="74"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
@@ -8352,7 +8356,7 @@
       <c r="P26" s="5"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="83"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="18" t="s">
         <v>22</v>
       </c>
@@ -8364,87 +8368,65 @@
       <c r="F27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="55" t="s">
+      <c r="G27" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="57"/>
-      <c r="I27" s="55" t="s">
+      <c r="H27" s="71"/>
+      <c r="I27" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="57"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="59"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="77"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="83"/>
+      <c r="A28" s="69"/>
       <c r="B28" s="12">
         <v>1</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="79" t="s">
         <v>235</v>
       </c>
-      <c r="D28" s="51"/>
+      <c r="D28" s="81"/>
       <c r="E28" s="4"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="49" t="s">
+      <c r="G28" s="79" t="s">
         <v>235</v>
       </c>
-      <c r="H28" s="51"/>
+      <c r="H28" s="81"/>
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="48"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="83"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="83"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="51"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="H23:J23"/>
     <mergeCell ref="B24:C24"/>
@@ -8461,6 +8443,28 @@
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="M25:P25"/>
     <mergeCell ref="C27:D27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8492,132 +8496,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="76" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="65" t="s">
         <v>246</v>
       </c>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
       <c r="G1" s="93"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="68"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="73" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="78"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="67"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="78"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="67"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="63"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="78"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="67"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -9154,50 +9158,50 @@
       <c r="P22" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="79" t="s">
+      <c r="A24" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="81"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="55"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="82">
+      <c r="A25" s="68">
         <v>1</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="66" t="s">
+      <c r="C25" s="57"/>
+      <c r="D25" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="67"/>
-      <c r="F25" s="68"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="52"/>
       <c r="G25" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H25" s="66" t="s">
+      <c r="H25" s="50" t="s">
         <v>436</v>
       </c>
-      <c r="I25" s="67"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="55" t="s">
+      <c r="I25" s="51"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="L25" s="57"/>
+      <c r="L25" s="71"/>
       <c r="M25" s="14" t="s">
         <v>417</v>
       </c>
@@ -9206,54 +9210,54 @@
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="83"/>
-      <c r="B26" s="64" t="s">
+      <c r="A26" s="69"/>
+      <c r="B26" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="65"/>
-      <c r="D26" s="66" t="s">
+      <c r="C26" s="57"/>
+      <c r="D26" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="E26" s="67"/>
-      <c r="F26" s="68"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="52"/>
       <c r="G26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="66" t="s">
+      <c r="H26" s="50" t="s">
         <v>343</v>
       </c>
-      <c r="I26" s="67"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="55" t="s">
+      <c r="I26" s="51"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="L26" s="57"/>
-      <c r="M26" s="61" t="s">
+      <c r="L26" s="71"/>
+      <c r="M26" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="63"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="49"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="83"/>
-      <c r="B27" s="64" t="s">
+      <c r="A27" s="69"/>
+      <c r="B27" s="56" t="s">
         <v>373</v>
       </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="66" t="s">
+      <c r="C27" s="57"/>
+      <c r="D27" s="50" t="s">
         <v>438</v>
       </c>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
       <c r="G27" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H27" s="67" t="s">
+      <c r="H27" s="51" t="s">
         <v>439</v>
       </c>
-      <c r="I27" s="67"/>
-      <c r="J27" s="68"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="52"/>
       <c r="K27" s="24"/>
       <c r="L27" s="25"/>
       <c r="M27" s="22"/>
@@ -9262,42 +9266,42 @@
       <c r="P27" s="20"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="83"/>
-      <c r="B28" s="64" t="s">
+      <c r="A28" s="69"/>
+      <c r="B28" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="55" t="s">
+      <c r="C28" s="57"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="57"/>
-      <c r="M28" s="61" t="s">
+      <c r="L28" s="71"/>
+      <c r="M28" s="47" t="s">
         <v>386</v>
       </c>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="63"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="49"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="83"/>
-      <c r="B29" s="52" t="s">
+      <c r="A29" s="69"/>
+      <c r="B29" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="54"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="74"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
@@ -9306,66 +9310,66 @@
       <c r="P29" s="5"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="83"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="57"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="71"/>
       <c r="F30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="55" t="s">
+      <c r="G30" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="57"/>
-      <c r="I30" s="55" t="s">
+      <c r="H30" s="71"/>
+      <c r="I30" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="57"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="59"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="77"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="83"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="12">
         <v>1</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="79" t="s">
         <v>344</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="51"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="81"/>
       <c r="F31" s="12"/>
-      <c r="G31" s="49" t="s">
+      <c r="G31" s="79" t="s">
         <v>418</v>
       </c>
-      <c r="H31" s="51"/>
+      <c r="H31" s="81"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="48"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="83"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="84"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="83"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="83"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="51"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="81"/>
       <c r="F32" s="12"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="51"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="81"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
       <c r="K32" s="13"/>
@@ -9377,19 +9381,20 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
     <mergeCell ref="A24:P24"/>
     <mergeCell ref="A25:A32"/>
     <mergeCell ref="B25:C25"/>
@@ -9406,20 +9411,19 @@
     <mergeCell ref="H27:J27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9451,132 +9455,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="73" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="63" t="s">
         <v>429</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="78"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="67"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="68"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="73" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="63" t="s">
         <v>430</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="78"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="67"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="47" t="s">
         <v>405</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="78"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="67"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="63"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="78"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="67"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -9960,6 +9964,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -9967,12 +9977,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10004,132 +10008,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="76" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="65" t="s">
         <v>255</v>
       </c>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
       <c r="G1" s="93"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="68"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="73" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="63" t="s">
         <v>256</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="78"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="67"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="78"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="67"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="63"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="78"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="67"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -10779,8 +10783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6B1C0B-16AE-459C-999C-D9C9CBAA7576}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10835,7 +10839,9 @@
       <c r="B3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>514</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
@@ -11176,7 +11182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
   <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B67" sqref="B67:M67"/>
     </sheetView>
   </sheetViews>
@@ -11198,134 +11204,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="76" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="63"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="20"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="73" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="73" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="63" t="s">
         <v>435</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="63"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="78"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="67"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -12506,494 +12512,494 @@
       <c r="P41" s="1"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="79" t="s">
+      <c r="A43" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="80"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="80"/>
-      <c r="I43" s="80"/>
-      <c r="J43" s="80"/>
-      <c r="K43" s="80"/>
-      <c r="L43" s="80"/>
-      <c r="M43" s="80"/>
-      <c r="N43" s="80"/>
-      <c r="O43" s="80"/>
-      <c r="P43" s="81"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="55"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="82">
+      <c r="A44" s="68">
         <v>1</v>
       </c>
-      <c r="B44" s="64" t="s">
+      <c r="B44" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="66" t="s">
+      <c r="C44" s="57"/>
+      <c r="D44" s="50" t="s">
         <v>416</v>
       </c>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
       <c r="G44" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H44" s="66"/>
-      <c r="I44" s="67"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="55" t="s">
+      <c r="H44" s="50"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="L44" s="57"/>
-      <c r="M44" s="61" t="s">
+      <c r="L44" s="71"/>
+      <c r="M44" s="47" t="s">
         <v>417</v>
       </c>
-      <c r="N44" s="62"/>
-      <c r="O44" s="62"/>
-      <c r="P44" s="63"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="48"/>
+      <c r="P44" s="49"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="83"/>
-      <c r="B45" s="64" t="s">
+      <c r="A45" s="69"/>
+      <c r="B45" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="65"/>
-      <c r="D45" s="66" t="s">
+      <c r="C45" s="57"/>
+      <c r="D45" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
       <c r="G45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H45" s="66" t="s">
+      <c r="H45" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="I45" s="67"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="55" t="s">
+      <c r="I45" s="51"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="L45" s="57"/>
-      <c r="M45" s="61" t="s">
+      <c r="L45" s="71"/>
+      <c r="M45" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="N45" s="62"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="63"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="49"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="83"/>
-      <c r="B46" s="64" t="s">
+      <c r="A46" s="69"/>
+      <c r="B46" s="56" t="s">
         <v>373</v>
       </c>
-      <c r="C46" s="65"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
       <c r="G46" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H46" s="67"/>
-      <c r="I46" s="67"/>
-      <c r="J46" s="68"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="52"/>
       <c r="K46" s="24"/>
       <c r="L46" s="25"/>
-      <c r="M46" s="61"/>
-      <c r="N46" s="62"/>
-      <c r="O46" s="62"/>
-      <c r="P46" s="63"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="48"/>
+      <c r="P46" s="49"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="83"/>
-      <c r="B47" s="64" t="s">
+      <c r="A47" s="69"/>
+      <c r="B47" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="65"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="55" t="s">
+      <c r="C47" s="57"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L47" s="57"/>
-      <c r="M47" s="61" t="s">
+      <c r="L47" s="71"/>
+      <c r="M47" s="47" t="s">
         <v>386</v>
       </c>
-      <c r="N47" s="62"/>
-      <c r="O47" s="62"/>
-      <c r="P47" s="63"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="48"/>
+      <c r="P47" s="49"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="83"/>
-      <c r="B48" s="52" t="s">
+      <c r="A48" s="69"/>
+      <c r="B48" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="54"/>
-      <c r="M48" s="52"/>
-      <c r="N48" s="53"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="54"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="72"/>
+      <c r="L48" s="74"/>
+      <c r="M48" s="72"/>
+      <c r="N48" s="73"/>
+      <c r="O48" s="73"/>
+      <c r="P48" s="74"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="83"/>
+      <c r="A49" s="69"/>
       <c r="B49" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="56"/>
-      <c r="E49" s="57"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="71"/>
       <c r="F49" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="55" t="s">
+      <c r="G49" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H49" s="57"/>
-      <c r="I49" s="55" t="s">
+      <c r="H49" s="71"/>
+      <c r="I49" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J49" s="57"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="59"/>
-      <c r="M49" s="58"/>
-      <c r="N49" s="60"/>
-      <c r="O49" s="60"/>
-      <c r="P49" s="59"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="77"/>
+      <c r="M49" s="76"/>
+      <c r="N49" s="78"/>
+      <c r="O49" s="78"/>
+      <c r="P49" s="77"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="83"/>
+      <c r="A50" s="69"/>
       <c r="B50" s="12">
         <v>1</v>
       </c>
-      <c r="C50" s="49" t="s">
+      <c r="C50" s="79" t="s">
         <v>418</v>
       </c>
-      <c r="D50" s="50"/>
-      <c r="E50" s="51"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="81"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="49" t="s">
+      <c r="G50" s="79" t="s">
         <v>418</v>
       </c>
-      <c r="H50" s="51"/>
+      <c r="H50" s="81"/>
       <c r="I50" s="3"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="48"/>
-      <c r="M50" s="46"/>
-      <c r="N50" s="47"/>
-      <c r="O50" s="47"/>
-      <c r="P50" s="48"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="83"/>
+      <c r="M50" s="82"/>
+      <c r="N50" s="84"/>
+      <c r="O50" s="84"/>
+      <c r="P50" s="83"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="83"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="51"/>
+      <c r="A51" s="69"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="81"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="51"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="81"/>
       <c r="I51" s="3"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="48"/>
-      <c r="M51" s="46"/>
-      <c r="N51" s="47"/>
-      <c r="O51" s="47"/>
-      <c r="P51" s="48"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="83"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="84"/>
+      <c r="O51" s="84"/>
+      <c r="P51" s="83"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="69">
+      <c r="A52" s="85">
         <v>2</v>
       </c>
-      <c r="B52" s="64" t="s">
+      <c r="B52" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="65"/>
-      <c r="D52" s="66" t="s">
+      <c r="C52" s="57"/>
+      <c r="D52" s="50" t="s">
         <v>431</v>
       </c>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
       <c r="G52" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H52" s="66"/>
-      <c r="I52" s="67"/>
-      <c r="J52" s="68"/>
-      <c r="K52" s="55" t="s">
+      <c r="H52" s="50"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="L52" s="57"/>
-      <c r="M52" s="61" t="s">
+      <c r="L52" s="71"/>
+      <c r="M52" s="47" t="s">
         <v>432</v>
       </c>
-      <c r="N52" s="62"/>
-      <c r="O52" s="62"/>
-      <c r="P52" s="63"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="48"/>
+      <c r="P52" s="49"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="69"/>
-      <c r="B53" s="64" t="s">
+      <c r="A53" s="85"/>
+      <c r="B53" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="65"/>
-      <c r="D53" s="66" t="s">
+      <c r="C53" s="57"/>
+      <c r="D53" s="50" t="s">
         <v>430</v>
       </c>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
       <c r="G53" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H53" s="66" t="s">
+      <c r="H53" s="50" t="s">
         <v>405</v>
       </c>
-      <c r="I53" s="67"/>
-      <c r="J53" s="68"/>
-      <c r="K53" s="55" t="s">
+      <c r="I53" s="51"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="L53" s="57"/>
-      <c r="M53" s="61" t="s">
+      <c r="L53" s="71"/>
+      <c r="M53" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="N53" s="62"/>
-      <c r="O53" s="62"/>
-      <c r="P53" s="63"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="49"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="69"/>
-      <c r="B54" s="64" t="s">
+      <c r="A54" s="85"/>
+      <c r="B54" s="56" t="s">
         <v>373</v>
       </c>
-      <c r="C54" s="65"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
       <c r="G54" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="68"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="52"/>
       <c r="K54" s="24"/>
       <c r="L54" s="25"/>
-      <c r="M54" s="61"/>
-      <c r="N54" s="62"/>
-      <c r="O54" s="62"/>
-      <c r="P54" s="63"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="48"/>
+      <c r="P54" s="49"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="69"/>
-      <c r="B55" s="64" t="s">
+      <c r="A55" s="85"/>
+      <c r="B55" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="65"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="68"/>
-      <c r="K55" s="55" t="s">
+      <c r="C55" s="57"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L55" s="57"/>
-      <c r="M55" s="61" t="s">
+      <c r="L55" s="71"/>
+      <c r="M55" s="47" t="s">
         <v>386</v>
       </c>
-      <c r="N55" s="62"/>
-      <c r="O55" s="62"/>
-      <c r="P55" s="63"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="48"/>
+      <c r="P55" s="49"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="69"/>
-      <c r="B56" s="52" t="s">
+      <c r="A56" s="85"/>
+      <c r="B56" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="54"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="54"/>
-      <c r="M56" s="52"/>
-      <c r="N56" s="53"/>
-      <c r="O56" s="53"/>
-      <c r="P56" s="54"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="73"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="72"/>
+      <c r="L56" s="74"/>
+      <c r="M56" s="72"/>
+      <c r="N56" s="73"/>
+      <c r="O56" s="73"/>
+      <c r="P56" s="74"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" s="69"/>
+      <c r="A57" s="85"/>
       <c r="B57" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="55" t="s">
+      <c r="C57" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="56"/>
-      <c r="E57" s="57"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="71"/>
       <c r="F57" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="55" t="s">
+      <c r="G57" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H57" s="57"/>
-      <c r="I57" s="55" t="s">
+      <c r="H57" s="71"/>
+      <c r="I57" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J57" s="57"/>
-      <c r="K57" s="58"/>
-      <c r="L57" s="59"/>
-      <c r="M57" s="58"/>
-      <c r="N57" s="60"/>
-      <c r="O57" s="60"/>
-      <c r="P57" s="59"/>
+      <c r="J57" s="71"/>
+      <c r="K57" s="76"/>
+      <c r="L57" s="77"/>
+      <c r="M57" s="76"/>
+      <c r="N57" s="78"/>
+      <c r="O57" s="78"/>
+      <c r="P57" s="77"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58" s="69"/>
+      <c r="A58" s="85"/>
       <c r="B58" s="12">
         <v>1</v>
       </c>
-      <c r="C58" s="49" t="s">
+      <c r="C58" s="79" t="s">
         <v>433</v>
       </c>
-      <c r="D58" s="50"/>
-      <c r="E58" s="51"/>
+      <c r="D58" s="80"/>
+      <c r="E58" s="81"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="49" t="s">
+      <c r="G58" s="79" t="s">
         <v>433</v>
       </c>
-      <c r="H58" s="51"/>
+      <c r="H58" s="81"/>
       <c r="I58" s="3"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="46"/>
-      <c r="L58" s="48"/>
-      <c r="M58" s="46"/>
-      <c r="N58" s="47"/>
-      <c r="O58" s="47"/>
-      <c r="P58" s="48"/>
+      <c r="K58" s="82"/>
+      <c r="L58" s="83"/>
+      <c r="M58" s="82"/>
+      <c r="N58" s="84"/>
+      <c r="O58" s="84"/>
+      <c r="P58" s="83"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" s="69"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="51"/>
+      <c r="A59" s="85"/>
+      <c r="B59" s="79"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="81"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="51"/>
+      <c r="G59" s="79"/>
+      <c r="H59" s="81"/>
       <c r="I59" s="3"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="46"/>
-      <c r="L59" s="48"/>
-      <c r="M59" s="46"/>
-      <c r="N59" s="47"/>
-      <c r="O59" s="47"/>
-      <c r="P59" s="48"/>
+      <c r="K59" s="82"/>
+      <c r="L59" s="83"/>
+      <c r="M59" s="82"/>
+      <c r="N59" s="84"/>
+      <c r="O59" s="84"/>
+      <c r="P59" s="83"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A61" s="79" t="s">
+      <c r="A61" s="53" t="s">
         <v>481</v>
       </c>
-      <c r="B61" s="80"/>
-      <c r="C61" s="80"/>
-      <c r="D61" s="80"/>
-      <c r="E61" s="80"/>
-      <c r="F61" s="80"/>
-      <c r="G61" s="80"/>
-      <c r="H61" s="80"/>
-      <c r="I61" s="80"/>
-      <c r="J61" s="80"/>
-      <c r="K61" s="80"/>
-      <c r="L61" s="80"/>
-      <c r="M61" s="80"/>
-      <c r="N61" s="80"/>
-      <c r="O61" s="80"/>
-      <c r="P61" s="81"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="54"/>
+      <c r="O61" s="54"/>
+      <c r="P61" s="55"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B62" s="64" t="s">
+      <c r="B62" s="56" t="s">
         <v>482</v>
       </c>
-      <c r="C62" s="65"/>
-      <c r="D62" s="64" t="s">
+      <c r="C62" s="57"/>
+      <c r="D62" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="E62" s="65"/>
+      <c r="E62" s="57"/>
       <c r="F62" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="75" t="s">
+      <c r="H62" s="58" t="s">
         <v>483</v>
       </c>
-      <c r="I62" s="75"/>
-      <c r="J62" s="75"/>
-      <c r="K62" s="64" t="s">
+      <c r="I62" s="58"/>
+      <c r="J62" s="58"/>
+      <c r="K62" s="56" t="s">
         <v>484</v>
       </c>
-      <c r="L62" s="85"/>
-      <c r="M62" s="85"/>
-      <c r="N62" s="85"/>
-      <c r="O62" s="85"/>
-      <c r="P62" s="65"/>
+      <c r="L62" s="59"/>
+      <c r="M62" s="59"/>
+      <c r="N62" s="59"/>
+      <c r="O62" s="59"/>
+      <c r="P62" s="57"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
         <v>1</v>
       </c>
-      <c r="B63" s="84" t="s">
+      <c r="B63" s="46" t="s">
         <v>485</v>
       </c>
-      <c r="C63" s="84"/>
-      <c r="D63" s="84" t="s">
+      <c r="C63" s="46"/>
+      <c r="D63" s="46" t="s">
         <v>487</v>
       </c>
-      <c r="E63" s="84"/>
+      <c r="E63" s="46"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="61" t="s">
+      <c r="H63" s="47" t="s">
         <v>486</v>
       </c>
-      <c r="I63" s="62"/>
-      <c r="J63" s="63"/>
-      <c r="K63" s="66"/>
-      <c r="L63" s="67"/>
-      <c r="M63" s="67"/>
-      <c r="N63" s="67"/>
-      <c r="O63" s="67"/>
-      <c r="P63" s="68"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="50"/>
+      <c r="L63" s="51"/>
+      <c r="M63" s="51"/>
+      <c r="N63" s="51"/>
+      <c r="O63" s="51"/>
+      <c r="P63" s="52"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="31"/>
@@ -13034,32 +13040,92 @@
       <c r="C66" s="17"/>
     </row>
     <row r="67" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="70" t="s">
+      <c r="B67" s="60" t="s">
         <v>452</v>
       </c>
-      <c r="C67" s="71"/>
-      <c r="D67" s="71"/>
-      <c r="E67" s="71"/>
-      <c r="F67" s="71"/>
-      <c r="G67" s="71"/>
-      <c r="H67" s="71"/>
-      <c r="I67" s="71"/>
-      <c r="J67" s="71"/>
-      <c r="K67" s="71"/>
-      <c r="L67" s="71"/>
-      <c r="M67" s="71"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
+      <c r="I67" s="61"/>
+      <c r="J67" s="61"/>
+      <c r="K67" s="61"/>
+      <c r="L67" s="61"/>
+      <c r="M67" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:P63"/>
-    <mergeCell ref="A61:P61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K62:P62"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:P59"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:P57"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="B56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:P44"/>
     <mergeCell ref="B67:M67"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="D3:G3"/>
@@ -13076,75 +13142,15 @@
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A43:P43"/>
     <mergeCell ref="A44:A51"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:P45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="B48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="A52:A59"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="B56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:P57"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:P59"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:P63"/>
+    <mergeCell ref="A61:P61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="K62:P62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13177,134 +13183,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="73" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="63" t="s">
         <v>472</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="63"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="20"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="73" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="63" t="s">
         <v>475</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="47" t="s">
         <v>480</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="63"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="73" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="63" t="s">
         <v>476</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="78"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="67"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -13725,221 +13731,254 @@
       <c r="P18" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="81"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="55"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="82">
+      <c r="A21" s="68">
         <v>1</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="66" t="s">
+      <c r="C21" s="57"/>
+      <c r="D21" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
       <c r="G21" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H21" s="66"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="55" t="s">
+      <c r="H21" s="50"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="L21" s="57"/>
-      <c r="M21" s="61" t="s">
+      <c r="L21" s="71"/>
+      <c r="M21" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="63"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="49"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="83"/>
-      <c r="B22" s="64" t="s">
+      <c r="A22" s="69"/>
+      <c r="B22" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="66" t="s">
+      <c r="C22" s="57"/>
+      <c r="D22" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
       <c r="G22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="66" t="s">
+      <c r="H22" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="67"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="55" t="s">
+      <c r="I22" s="51"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="L22" s="57"/>
-      <c r="M22" s="61" t="s">
+      <c r="L22" s="71"/>
+      <c r="M22" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="63"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="49"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
-      <c r="B23" s="64" t="s">
+      <c r="A23" s="69"/>
+      <c r="B23" s="56" t="s">
         <v>373</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
       <c r="G23" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="68"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
       <c r="K23" s="24"/>
       <c r="L23" s="25"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="63"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="49"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="83"/>
-      <c r="B24" s="64" t="s">
+      <c r="A24" s="69"/>
+      <c r="B24" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="55" t="s">
+      <c r="C24" s="57"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L24" s="57"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="63"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="49"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="83"/>
-      <c r="B25" s="52" t="s">
+      <c r="A25" s="69"/>
+      <c r="B25" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="54"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="74"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="83"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="71"/>
       <c r="F26" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="55" t="s">
+      <c r="G26" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="57"/>
-      <c r="I26" s="55" t="s">
+      <c r="H26" s="71"/>
+      <c r="I26" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="57"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="59"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="77"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="83"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="12">
         <v>1</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="51"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="81"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="49" t="s">
+      <c r="G27" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="51"/>
+      <c r="H27" s="81"/>
       <c r="I27" s="3"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="48"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="83"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="83"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="51"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="81"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="51"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="81"/>
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="48"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
     <mergeCell ref="B25:J25"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="M25:P25"/>
@@ -13956,39 +13995,6 @@
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A20:P20"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14020,134 +14026,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="73" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="68"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="73" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="73" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="63" t="s">
         <v>435</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="63"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="78"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="67"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -14596,82 +14602,82 @@
       <c r="P19" s="1"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="79" t="s">
+      <c r="A21" s="53" t="s">
         <v>481</v>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="80"/>
-      <c r="P21" s="81"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="55"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="56" t="s">
         <v>482</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="64" t="s">
+      <c r="C22" s="57"/>
+      <c r="D22" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="65"/>
+      <c r="E22" s="57"/>
       <c r="F22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="75" t="s">
+      <c r="H22" s="58" t="s">
         <v>483</v>
       </c>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="64" t="s">
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="56" t="s">
         <v>484</v>
       </c>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="65"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="57"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>1</v>
       </c>
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="46" t="s">
         <v>488</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84" t="s">
+      <c r="C23" s="46"/>
+      <c r="D23" s="46" t="s">
         <v>489</v>
       </c>
-      <c r="E23" s="84"/>
+      <c r="E23" s="46"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="61" t="s">
+      <c r="H23" s="47" t="s">
         <v>490</v>
       </c>
-      <c r="I23" s="62"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="68"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="52"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="31"/>
@@ -14707,15 +14713,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="A21:P21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:P22"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
@@ -14729,6 +14726,15 @@
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="A21:P21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:P22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14761,134 +14767,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="73" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="78"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="67"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="68"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="73" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="78"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="67"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="73" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="63" t="s">
         <v>492</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="78"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="67"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="63"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="78"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="67"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -15229,235 +15235,235 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="81"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="55"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="82">
+      <c r="A18" s="68">
         <v>1</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66" t="s">
+      <c r="C18" s="57"/>
+      <c r="D18" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
       <c r="G18" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H18" s="66" t="s">
+      <c r="H18" s="50" t="s">
         <v>299</v>
       </c>
-      <c r="I18" s="67"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="55" t="s">
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="L18" s="57"/>
-      <c r="M18" s="61" t="s">
+      <c r="L18" s="71"/>
+      <c r="M18" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="63"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="49"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="83"/>
-      <c r="B19" s="64" t="s">
+      <c r="A19" s="69"/>
+      <c r="B19" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="66" t="s">
+      <c r="C19" s="57"/>
+      <c r="D19" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
       <c r="G19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="66" t="s">
+      <c r="H19" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="67"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="55" t="s">
+      <c r="I19" s="51"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="L19" s="57"/>
-      <c r="M19" s="61" t="s">
+      <c r="L19" s="71"/>
+      <c r="M19" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="63"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="49"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="83"/>
-      <c r="B20" s="64" t="s">
+      <c r="A20" s="69"/>
+      <c r="B20" s="56" t="s">
         <v>373</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66" t="s">
+      <c r="C20" s="57"/>
+      <c r="D20" s="50" t="s">
         <v>375</v>
       </c>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
       <c r="G20" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H20" s="67" t="s">
+      <c r="H20" s="51" t="s">
         <v>377</v>
       </c>
-      <c r="I20" s="67"/>
-      <c r="J20" s="68"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="52"/>
       <c r="K20" s="24"/>
       <c r="L20" s="25"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="63"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="49"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="83"/>
-      <c r="B21" s="64" t="s">
+      <c r="A21" s="69"/>
+      <c r="B21" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="55" t="s">
+      <c r="C21" s="57"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="57"/>
-      <c r="M21" s="61" t="s">
+      <c r="L21" s="71"/>
+      <c r="M21" s="47" t="s">
         <v>493</v>
       </c>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="63"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="49"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="83"/>
-      <c r="B22" s="52" t="s">
+      <c r="A22" s="69"/>
+      <c r="B22" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="54"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="74"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="71"/>
       <c r="F23" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="57"/>
-      <c r="I23" s="55" t="s">
+      <c r="H23" s="71"/>
+      <c r="I23" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="57"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="59"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="77"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="83"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="12">
         <v>1</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="81"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="49" t="s">
+      <c r="G24" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="H24" s="51"/>
+      <c r="H24" s="81"/>
       <c r="I24" s="3"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="48"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="83"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="83"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="51"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="81"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="51"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="81"/>
       <c r="I25" s="3"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="48"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="83"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="82">
+      <c r="A26" s="68">
         <v>2</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="65"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="86" t="s">
         <v>121</v>
       </c>
@@ -15466,28 +15472,28 @@
       <c r="G26" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H26" s="66" t="s">
+      <c r="H26" s="50" t="s">
         <v>462</v>
       </c>
-      <c r="I26" s="67"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="55" t="s">
+      <c r="I26" s="51"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="L26" s="57"/>
-      <c r="M26" s="61" t="s">
+      <c r="L26" s="71"/>
+      <c r="M26" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="63"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="49"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="83"/>
-      <c r="B27" s="64" t="s">
+      <c r="A27" s="69"/>
+      <c r="B27" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="65"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="86" t="s">
         <v>106</v>
       </c>
@@ -15496,157 +15502,157 @@
       <c r="G27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="66" t="s">
+      <c r="H27" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="I27" s="67"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="55" t="s">
+      <c r="I27" s="51"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="L27" s="57"/>
-      <c r="M27" s="61" t="s">
+      <c r="L27" s="71"/>
+      <c r="M27" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="63"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="49"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="83"/>
-      <c r="B28" s="64" t="s">
+      <c r="A28" s="69"/>
+      <c r="B28" s="56" t="s">
         <v>373</v>
       </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="66" t="s">
+      <c r="C28" s="57"/>
+      <c r="D28" s="50" t="s">
         <v>463</v>
       </c>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
       <c r="G28" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H28" s="67" t="s">
+      <c r="H28" s="51" t="s">
         <v>464</v>
       </c>
-      <c r="I28" s="67"/>
-      <c r="J28" s="68"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="52"/>
       <c r="K28" s="24"/>
       <c r="L28" s="25"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="63"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="49"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="83"/>
-      <c r="B29" s="64" t="s">
+      <c r="A29" s="69"/>
+      <c r="B29" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="55" t="s">
+      <c r="C29" s="57"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L29" s="57"/>
-      <c r="M29" s="61" t="s">
+      <c r="L29" s="71"/>
+      <c r="M29" s="47" t="s">
         <v>493</v>
       </c>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="63"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="49"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="83"/>
-      <c r="B30" s="52" t="s">
+      <c r="A30" s="69"/>
+      <c r="B30" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="54"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="74"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="83"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="57"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="71"/>
       <c r="F31" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="55" t="s">
+      <c r="G31" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="57"/>
-      <c r="I31" s="55" t="s">
+      <c r="H31" s="71"/>
+      <c r="I31" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="59"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="77"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="83"/>
+      <c r="A32" s="69"/>
       <c r="B32" s="12">
         <v>1</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="51"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="81"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="49" t="s">
+      <c r="G32" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="H32" s="51"/>
+      <c r="H32" s="81"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="48"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="83"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="83"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="29"/>
       <c r="C33" s="30"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="51"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="81"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="51"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="81"/>
       <c r="I33" s="3"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="48"/>
+      <c r="K33" s="82"/>
+      <c r="L33" s="83"/>
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
@@ -15654,6 +15660,73 @@
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M18:P18"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="K33:L33"/>
@@ -15670,73 +15743,6 @@
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="M29:P29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A17:P17"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M32:P32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15769,134 +15775,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="73" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="78"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="67"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="63"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="20"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="73" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="78"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="67"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="78"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="67"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="63"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="20"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="73" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="78"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="67"/>
       <c r="N4" s="19"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -16329,431 +16335,474 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="66"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="68"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="52"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="79" t="s">
+      <c r="A21" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="80"/>
-      <c r="P21" s="81"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="55"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="82">
+      <c r="A22" s="68">
         <v>1</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="66" t="s">
+      <c r="C22" s="71"/>
+      <c r="D22" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
       <c r="G22" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H22" s="66" t="s">
+      <c r="H22" s="50" t="s">
         <v>300</v>
       </c>
-      <c r="I22" s="67"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="55" t="s">
+      <c r="I22" s="51"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="L22" s="57"/>
-      <c r="M22" s="61" t="s">
+      <c r="L22" s="71"/>
+      <c r="M22" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="63"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="49"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
-      <c r="B23" s="55" t="s">
+      <c r="A23" s="69"/>
+      <c r="B23" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="66" t="s">
+      <c r="C23" s="71"/>
+      <c r="D23" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
       <c r="G23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="66" t="s">
+      <c r="H23" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="67"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="55" t="s">
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="L23" s="57"/>
-      <c r="M23" s="61" t="s">
+      <c r="L23" s="71"/>
+      <c r="M23" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="63"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="49"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="83"/>
-      <c r="B24" s="55" t="s">
+      <c r="A24" s="69"/>
+      <c r="B24" s="70" t="s">
         <v>373</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="66" t="s">
+      <c r="C24" s="71"/>
+      <c r="D24" s="50" t="s">
         <v>378</v>
       </c>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
       <c r="G24" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="H24" s="67" t="s">
+      <c r="H24" s="51" t="s">
         <v>379</v>
       </c>
-      <c r="I24" s="67"/>
-      <c r="J24" s="68"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
       <c r="K24" s="24"/>
       <c r="L24" s="25"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="68"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="52"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="83"/>
-      <c r="B25" s="55" t="s">
+      <c r="A25" s="69"/>
+      <c r="B25" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="55" t="s">
+      <c r="C25" s="71"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="57"/>
-      <c r="M25" s="61" t="s">
+      <c r="L25" s="71"/>
+      <c r="M25" s="47" t="s">
         <v>445</v>
       </c>
-      <c r="N25" s="62"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="63"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="49"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="83"/>
-      <c r="B26" s="52" t="s">
+      <c r="A26" s="69"/>
+      <c r="B26" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="91"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="90"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="83"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="71"/>
       <c r="F27" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="55" t="s">
+      <c r="G27" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="57"/>
-      <c r="I27" s="55" t="s">
+      <c r="H27" s="71"/>
+      <c r="I27" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="57"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="59"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="77"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="83"/>
+      <c r="A28" s="69"/>
       <c r="B28" s="12">
         <v>1</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="51"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="81"/>
       <c r="F28" s="28"/>
-      <c r="G28" s="49" t="s">
+      <c r="G28" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="H28" s="51"/>
+      <c r="H28" s="81"/>
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="48"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="83"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="83"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="51"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="81"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="51"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="81"/>
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="48"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="83"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="82">
+      <c r="A30" s="68">
         <v>2</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="66" t="s">
+      <c r="C30" s="71"/>
+      <c r="D30" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
       <c r="G30" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H30" s="66"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="55" t="s">
+      <c r="H30" s="50"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="L30" s="57"/>
-      <c r="M30" s="61" t="s">
+      <c r="L30" s="71"/>
+      <c r="M30" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="63"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="49"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="83"/>
-      <c r="B31" s="55" t="s">
+      <c r="A31" s="69"/>
+      <c r="B31" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="66" t="s">
+      <c r="C31" s="71"/>
+      <c r="D31" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
       <c r="G31" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="66" t="s">
+      <c r="H31" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="I31" s="67"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="55" t="s">
+      <c r="I31" s="51"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="L31" s="57"/>
-      <c r="M31" s="61" t="s">
+      <c r="L31" s="71"/>
+      <c r="M31" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="63"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="49"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="83"/>
-      <c r="B32" s="55" t="s">
+      <c r="A32" s="69"/>
+      <c r="B32" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="55" t="s">
+      <c r="C32" s="71"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L32" s="57"/>
-      <c r="M32" s="61" t="s">
+      <c r="L32" s="71"/>
+      <c r="M32" s="47" t="s">
         <v>387</v>
       </c>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="63"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="49"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="83"/>
-      <c r="B33" s="52" t="s">
+      <c r="A33" s="69"/>
+      <c r="B33" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="54"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="74"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="83"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="57"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="71"/>
       <c r="F34" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="55" t="s">
+      <c r="G34" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="57"/>
-      <c r="I34" s="55" t="s">
+      <c r="H34" s="71"/>
+      <c r="I34" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="57"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="59"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="78"/>
+      <c r="O34" s="78"/>
+      <c r="P34" s="77"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="83"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="12">
         <v>1</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="79" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="51"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="81"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="49" t="s">
+      <c r="G35" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="H35" s="51"/>
+      <c r="H35" s="81"/>
       <c r="I35" s="3"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="48"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="83"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="83"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="88"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="51"/>
+      <c r="A36" s="91"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="81"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="51"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="81"/>
       <c r="I36" s="3"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="48"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="83"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="84"/>
+      <c r="O36" s="84"/>
+      <c r="P36" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="B33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="A21:P21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="M29:P29"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D24:F24"/>
@@ -16770,59 +16819,16 @@
     <mergeCell ref="I2:M2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A20:P20"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="A21:P21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="B33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C28:E28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16854,136 +16860,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="73" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="63" t="s">
         <v>367</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="78"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="67"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="68"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="21"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="73" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="63" t="s">
         <v>368</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="78"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="67"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="47" t="s">
         <v>369</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="73" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="63" t="s">
         <v>440</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="78"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="67"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="73" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="63" t="s">
         <v>346</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="78"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="67"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">

--- a/nop-auth/model/nop-auth.orm.xlsx
+++ b/nop-auth/model/nop-auth.orm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-auth\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02EA8F0-72B1-4ED8-93C4-5A8DBCC5FCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EEC344-C6DB-43AE-B8AF-26FDE5AF42C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="557">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -13205,7 +13205,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="D3" sqref="D3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13280,7 +13280,9 @@
       </c>
       <c r="B3" s="75"/>
       <c r="C3" s="75"/>
-      <c r="D3" s="73"/>
+      <c r="D3" s="73" t="s">
+        <v>440</v>
+      </c>
       <c r="E3" s="74"/>
       <c r="F3" s="74"/>
       <c r="G3" s="78"/>
@@ -14239,7 +14241,7 @@
   <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:A43"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -20457,7 +20459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1EA77C-48C6-4C79-A89F-63884D9A79E6}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/nop-auth/model/nop-auth.orm.xlsx
+++ b/nop-auth/model/nop-auth.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-auth\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1A4F5E-F1F8-46FE-8A79-503442876760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328A3F72-0169-4C3D-9DCC-28EF0830EC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="11" activeTab="14" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="15" activeTab="15" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2576" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2605" uniqueCount="584">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2386,6 +2386,38 @@
   </si>
   <si>
     <t>部门负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OWNER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owner ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有者ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个人有可能建立自己私有的用户分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ownerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owner</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8722,7 +8754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9477A340-9635-48F5-81AF-7CDA39CFD039}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D36" sqref="D36:F36"/>
     </sheetView>
   </sheetViews>
@@ -9945,10 +9977,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995D1E5E-5A18-4CAF-9D14-3BA5BD7423EC}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10256,29 +10288,29 @@
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>389</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="E11" s="10"/>
       <c r="F11" s="14" t="s">
-        <v>85</v>
+        <v>577</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>320</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="H11" s="14"/>
       <c r="I11" s="10"/>
       <c r="J11" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="K11" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="K11" s="10">
+        <v>50</v>
+      </c>
       <c r="L11" s="10"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
-      <c r="O11" s="10"/>
+      <c r="O11" s="10" t="s">
+        <v>579</v>
+      </c>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -10288,25 +10320,23 @@
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="14" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>389</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>29</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="I12" s="10"/>
       <c r="J12" s="14" t="s">
-        <v>47</v>
+        <v>443</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -10322,29 +10352,27 @@
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>29</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="10">
-        <v>50</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
@@ -10358,27 +10386,29 @@
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="K14" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="K14" s="10">
+        <v>50</v>
+      </c>
       <c r="L14" s="10"/>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
@@ -10392,29 +10422,27 @@
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>393</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>29</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="10">
-        <v>50</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
@@ -10428,27 +10456,29 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>393</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>29</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="K16" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="K16" s="10">
+        <v>50</v>
+      </c>
       <c r="L16" s="10"/>
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
@@ -10462,27 +10492,27 @@
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="14" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="I17" s="10"/>
+        <v>315</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="J17" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" s="10">
-        <v>200</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
@@ -10490,278 +10520,543 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
+      <c r="A18" s="10">
+        <v>11</v>
+      </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="D18" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>383</v>
+      </c>
       <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="J18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="10">
+        <v>200</v>
+      </c>
       <c r="L18" s="10"/>
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
       <c r="O18" s="10"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="79" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="81"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="82">
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="81"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="82">
         <v>1</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B22" s="52" t="s">
         <v>14</v>
-      </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H21" s="54" t="s">
-        <v>436</v>
-      </c>
-      <c r="I21" s="55"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="57" t="s">
-        <v>208</v>
-      </c>
-      <c r="L21" s="58"/>
-      <c r="M21" s="14" t="s">
-        <v>527</v>
-      </c>
-      <c r="N21" s="14"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="83"/>
-      <c r="B22" s="52" t="s">
-        <v>4</v>
       </c>
       <c r="C22" s="53"/>
       <c r="D22" s="54" t="s">
-        <v>528</v>
+        <v>115</v>
       </c>
       <c r="E22" s="55"/>
       <c r="F22" s="56"/>
       <c r="G22" s="2" t="s">
-        <v>3</v>
+        <v>173</v>
       </c>
       <c r="H22" s="54" t="s">
-        <v>343</v>
+        <v>436</v>
       </c>
       <c r="I22" s="55"/>
       <c r="J22" s="56"/>
       <c r="K22" s="57" t="s">
-        <v>266</v>
+        <v>208</v>
       </c>
       <c r="L22" s="58"/>
-      <c r="M22" s="59" t="s">
-        <v>267</v>
-      </c>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="61"/>
+      <c r="M22" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="N22" s="14"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="83"/>
       <c r="B23" s="52" t="s">
-        <v>373</v>
+        <v>4</v>
       </c>
       <c r="C23" s="53"/>
       <c r="D23" s="54" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="26" t="s">
-        <v>374</v>
-      </c>
-      <c r="H23" s="55" t="s">
-        <v>439</v>
+      <c r="F23" s="56"/>
+      <c r="G23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="54" t="s">
+        <v>343</v>
       </c>
       <c r="I23" s="55"/>
       <c r="J23" s="56"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="20"/>
+      <c r="K23" s="57" t="s">
+        <v>266</v>
+      </c>
+      <c r="L23" s="58"/>
+      <c r="M23" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="61"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="83"/>
       <c r="B24" s="52" t="s">
-        <v>10</v>
+        <v>373</v>
       </c>
       <c r="C24" s="53"/>
-      <c r="D24" s="54"/>
+      <c r="D24" s="54" t="s">
+        <v>529</v>
+      </c>
       <c r="E24" s="55"/>
       <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
+      <c r="G24" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="H24" s="55" t="s">
+        <v>439</v>
+      </c>
       <c r="I24" s="55"/>
       <c r="J24" s="56"/>
-      <c r="K24" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="L24" s="58"/>
-      <c r="M24" s="59" t="s">
-        <v>386</v>
-      </c>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="61"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="20"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="83"/>
-      <c r="B25" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="5"/>
+      <c r="B25" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="53"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="58"/>
+      <c r="M25" s="59" t="s">
+        <v>386</v>
+      </c>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="61"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="83"/>
-      <c r="B26" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="65"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="58"/>
-      <c r="I26" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="58"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="67"/>
+      <c r="B26" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="5"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="83"/>
-      <c r="B27" s="12">
-        <v>1</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>344</v>
-      </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="49" t="s">
-        <v>530</v>
-      </c>
-      <c r="H27" s="51"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="48"/>
+      <c r="B27" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="65"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="58"/>
+      <c r="I27" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="58"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="67"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="83"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
+      <c r="B28" s="12">
+        <v>1</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>344</v>
+      </c>
       <c r="D28" s="50"/>
       <c r="E28" s="51"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="49"/>
+      <c r="G28" s="49" t="s">
+        <v>530</v>
+      </c>
       <c r="H28" s="51"/>
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="6"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="48"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="83"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="6"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="82">
+        <v>1</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="53"/>
+      <c r="D30" s="54" t="s">
+        <v>580</v>
+      </c>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="L30" s="58"/>
+      <c r="M30" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="61"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="83"/>
+      <c r="B31" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="53"/>
+      <c r="D31" s="54" t="s">
+        <v>582</v>
+      </c>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="54" t="s">
+        <v>583</v>
+      </c>
+      <c r="I31" s="55"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="57" t="s">
+        <v>266</v>
+      </c>
+      <c r="L31" s="58"/>
+      <c r="M31" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="61"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="83"/>
+      <c r="B32" s="52" t="s">
+        <v>373</v>
+      </c>
+      <c r="C32" s="53"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="61"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="83"/>
+      <c r="B33" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="53"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="58"/>
+      <c r="M33" s="59" t="s">
+        <v>490</v>
+      </c>
+      <c r="N33" s="60"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="61"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="83"/>
+      <c r="B34" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="64"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="83"/>
+      <c r="B35" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="65"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="58"/>
+      <c r="I35" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="58"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="67"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="83"/>
+      <c r="B36" s="12">
+        <v>1</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>581</v>
+      </c>
+      <c r="D36" s="50"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="H36" s="51"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="48"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="83"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
+  <mergeCells count="78">
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="G29:H29"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
     <mergeCell ref="K27:L27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:J26"/>
     <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A20:P20"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="A21:P21"/>
+    <mergeCell ref="A22:A29"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="H22:J22"/>
-    <mergeCell ref="M26:P26"/>
     <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="H23:J23"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="H24:J24"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
@@ -10784,7 +11079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0937A20-6233-402C-ABBF-5DA6AFB4F416}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -11824,8 +12119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12DACFD-8359-4AC0-9009-949A2F6313FD}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="A18:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/nop-auth/model/nop-auth.orm.xlsx
+++ b/nop-auth/model/nop-auth.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-auth\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328A3F72-0169-4C3D-9DCC-28EF0830EC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A3D481-E0FD-404F-BE0B-F02B64684F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="15" activeTab="15" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="7" activeTab="7" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2605" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="587">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2418,6 +2418,18 @@
   </si>
   <si>
     <t>Owner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORK_SCOPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work Scope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9979,7 +9991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995D1E5E-5A18-4CAF-9D14-3BA5BD7423EC}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H32" sqref="H32:J32"/>
     </sheetView>
   </sheetViews>
@@ -20166,10 +20178,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8E42C9-C05B-4E62-A510-6D91D5B4B214}">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36:H36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -20475,28 +20487,32 @@
       <c r="O10" s="10"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>4</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="14" t="s">
-        <v>129</v>
+        <v>584</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="14" t="s">
-        <v>130</v>
+        <v>585</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>131</v>
+        <v>586</v>
       </c>
       <c r="H11" s="14"/>
-      <c r="I11" s="10"/>
+      <c r="I11" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="J11" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="K11" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="K11" s="10">
+        <v>50</v>
+      </c>
       <c r="L11" s="10"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
@@ -20510,14 +20526,14 @@
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="10"/>
@@ -20538,25 +20554,19 @@
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>389</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="E13" s="10"/>
       <c r="F13" s="14" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>29</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="14" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -20572,27 +20582,27 @@
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="10"/>
+        <v>67</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>389</v>
+      </c>
       <c r="F14" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="10">
-        <v>50</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
@@ -20606,25 +20616,27 @@
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>29</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="K15" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="K15" s="10">
+        <v>50</v>
+      </c>
       <c r="L15" s="10"/>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
@@ -20638,27 +20650,25 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>29</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="10">
-        <v>50</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
@@ -20672,25 +20682,27 @@
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>29</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="K17" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="K17" s="10">
+        <v>50</v>
+      </c>
       <c r="L17" s="10"/>
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
@@ -20704,27 +20716,25 @@
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>391</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E18" s="10"/>
       <c r="F18" s="14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="I18" s="10"/>
+        <v>315</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="J18" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="10">
-        <v>200</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
@@ -20732,17 +20742,33 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
+      <c r="A19" s="10">
+        <v>12</v>
+      </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="D19" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>383</v>
+      </c>
       <c r="I19" s="10"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="10"/>
+      <c r="J19" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="10">
+        <v>200</v>
+      </c>
       <c r="L19" s="10"/>
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
@@ -20750,100 +20776,88 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="54"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="56"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="79" t="s">
+      <c r="A21" s="54"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="56"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="80"/>
-      <c r="P21" s="81"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="82">
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="81"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="82">
         <v>1</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B23" s="57" t="s">
         <v>14</v>
-      </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H22" s="54" t="s">
-        <v>300</v>
-      </c>
-      <c r="I22" s="55"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57" t="s">
-        <v>208</v>
-      </c>
-      <c r="L22" s="58"/>
-      <c r="M22" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="61"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
-      <c r="B23" s="57" t="s">
-        <v>4</v>
       </c>
       <c r="C23" s="58"/>
       <c r="D23" s="54" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="E23" s="55"/>
       <c r="F23" s="55"/>
       <c r="G23" s="7" t="s">
-        <v>3</v>
+        <v>173</v>
       </c>
       <c r="H23" s="54" t="s">
-        <v>26</v>
+        <v>300</v>
       </c>
       <c r="I23" s="55"/>
       <c r="J23" s="56"/>
       <c r="K23" s="57" t="s">
-        <v>266</v>
+        <v>208</v>
       </c>
       <c r="L23" s="58"/>
       <c r="M23" s="59" t="s">
-        <v>267</v>
+        <v>138</v>
       </c>
       <c r="N23" s="60"/>
       <c r="O23" s="60"/>
@@ -20852,133 +20866,145 @@
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="83"/>
       <c r="B24" s="57" t="s">
-        <v>373</v>
+        <v>4</v>
       </c>
       <c r="C24" s="58"/>
       <c r="D24" s="54" t="s">
-        <v>378</v>
+        <v>25</v>
       </c>
       <c r="E24" s="55"/>
       <c r="F24" s="55"/>
-      <c r="G24" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="H24" s="55" t="s">
-        <v>379</v>
+      <c r="G24" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="54" t="s">
+        <v>26</v>
       </c>
       <c r="I24" s="55"/>
       <c r="J24" s="56"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="56"/>
+      <c r="K24" s="57" t="s">
+        <v>266</v>
+      </c>
+      <c r="L24" s="58"/>
+      <c r="M24" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="61"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="83"/>
       <c r="B25" s="57" t="s">
-        <v>10</v>
+        <v>373</v>
       </c>
       <c r="C25" s="58"/>
-      <c r="D25" s="54"/>
+      <c r="D25" s="54" t="s">
+        <v>378</v>
+      </c>
       <c r="E25" s="55"/>
       <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
+      <c r="G25" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="H25" s="55" t="s">
+        <v>379</v>
+      </c>
       <c r="I25" s="55"/>
       <c r="J25" s="56"/>
-      <c r="K25" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="L25" s="58"/>
-      <c r="M25" s="59" t="s">
-        <v>445</v>
-      </c>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="61"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="56"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="83"/>
-      <c r="B26" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="91"/>
+      <c r="B26" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="58"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="58"/>
+      <c r="M26" s="59" t="s">
+        <v>445</v>
+      </c>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="61"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="83"/>
-      <c r="B27" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="58"/>
-      <c r="I27" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="58"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="67"/>
+      <c r="B27" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="91"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="83"/>
-      <c r="B28" s="12">
-        <v>1</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="H28" s="51"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="48"/>
+      <c r="B28" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="65"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="58"/>
+      <c r="I28" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="58"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="67"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="83"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
+      <c r="B29" s="12">
+        <v>1</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>119</v>
+      </c>
       <c r="D29" s="50"/>
       <c r="E29" s="51"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="49"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="49" t="s">
+        <v>119</v>
+      </c>
       <c r="H29" s="51"/>
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
@@ -20990,60 +21016,48 @@
       <c r="P29" s="48"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="82">
+      <c r="A30" s="83"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="48"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="82">
         <v>2</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B31" s="57" t="s">
         <v>14</v>
-      </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H30" s="54"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="57" t="s">
-        <v>208</v>
-      </c>
-      <c r="L30" s="58"/>
-      <c r="M30" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="61"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="83"/>
-      <c r="B31" s="57" t="s">
-        <v>4</v>
       </c>
       <c r="C31" s="58"/>
       <c r="D31" s="54" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="E31" s="55"/>
       <c r="F31" s="55"/>
       <c r="G31" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H31" s="54" t="s">
-        <v>136</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="H31" s="54"/>
       <c r="I31" s="55"/>
       <c r="J31" s="56"/>
       <c r="K31" s="57" t="s">
-        <v>266</v>
+        <v>208</v>
       </c>
       <c r="L31" s="58"/>
       <c r="M31" s="59" t="s">
-        <v>267</v>
+        <v>138</v>
       </c>
       <c r="N31" s="60"/>
       <c r="O31" s="60"/>
@@ -21052,22 +21066,28 @@
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="83"/>
       <c r="B32" s="57" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C32" s="58"/>
-      <c r="D32" s="54"/>
+      <c r="D32" s="54" t="s">
+        <v>106</v>
+      </c>
       <c r="E32" s="55"/>
       <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
+      <c r="G32" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="54" t="s">
+        <v>136</v>
+      </c>
       <c r="I32" s="55"/>
       <c r="J32" s="56"/>
       <c r="K32" s="57" t="s">
-        <v>9</v>
+        <v>266</v>
       </c>
       <c r="L32" s="58"/>
       <c r="M32" s="59" t="s">
-        <v>387</v>
+        <v>267</v>
       </c>
       <c r="N32" s="60"/>
       <c r="O32" s="60"/>
@@ -21075,84 +21095,90 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="83"/>
-      <c r="B33" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="64"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="63"/>
-      <c r="P33" s="64"/>
+      <c r="B33" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="58"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="58"/>
+      <c r="M33" s="59" t="s">
+        <v>387</v>
+      </c>
+      <c r="N33" s="60"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="61"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="83"/>
-      <c r="B34" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="65"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="58"/>
-      <c r="I34" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="J34" s="58"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="66"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="67"/>
+      <c r="B34" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="64"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="83"/>
-      <c r="B35" s="12">
+      <c r="B35" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="65"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="58"/>
+      <c r="I35" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="58"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="67"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="83"/>
+      <c r="B36" s="12">
         <v>1</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C36" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="H35" s="51"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="48"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="88"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="50"/>
       <c r="D36" s="50"/>
       <c r="E36" s="51"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="49"/>
+      <c r="G36" s="49" t="s">
+        <v>119</v>
+      </c>
       <c r="H36" s="51"/>
       <c r="I36" s="3"/>
       <c r="J36" s="4"/>
@@ -21163,28 +21189,46 @@
       <c r="O36" s="47"/>
       <c r="P36" s="48"/>
     </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="88"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="48"/>
+    </row>
   </sheetData>
   <mergeCells count="79">
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C29:E29"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
@@ -21192,58 +21236,58 @@
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A20:P20"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A21:P21"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="M23:P23"/>
-    <mergeCell ref="A21:P21"/>
-    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="A22:P22"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="H23:J23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="K30:L30"/>
     <mergeCell ref="M29:P29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="B34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="H32:J32"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="M32:P32"/>
-    <mergeCell ref="B33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
     <mergeCell ref="K36:L36"/>
     <mergeCell ref="M36:P36"/>
     <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="B30:E30"/>
     <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="D32:J32"/>
     <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="D26:J26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-auth/model/nop-auth.orm.xlsx
+++ b/nop-auth/model/nop-auth.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-auth\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1FFE85-8619-4EF8-B727-A6F25D74CCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92196FD9-B63A-44BD-809B-B35F60654576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="11" activeTab="12" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="11" activeTab="13" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2671" uniqueCount="601">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -906,14 +906,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DISPLAY_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -994,22 +986,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BIZ_OBJ_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIZ_ACTION_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Biz Action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>业务操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1211,10 +1187,6 @@
   </si>
   <si>
     <t>mysql,oracle,postgresql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TITLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2478,6 +2450,42 @@
   </si>
   <si>
     <t>pub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPERATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RET_MESSAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return Message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3396,7 +3404,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3416,7 +3424,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3426,7 +3434,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3596,7 +3604,7 @@
       <c r="B2" s="75"/>
       <c r="C2" s="75"/>
       <c r="D2" s="73" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="E2" s="74"/>
       <c r="F2" s="74"/>
@@ -3605,7 +3613,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="J2" s="60"/>
       <c r="K2" s="60"/>
@@ -3709,7 +3717,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -3721,7 +3729,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
@@ -3736,7 +3744,7 @@
         <v>66</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -3786,14 +3794,14 @@
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="14" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="14" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="10" t="s">
@@ -3807,11 +3815,11 @@
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="14" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="N9" s="14"/>
       <c r="O9" s="14" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="P9" s="1"/>
     </row>
@@ -3821,17 +3829,17 @@
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="10" t="s">
@@ -3855,16 +3863,16 @@
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>141</v>
@@ -3911,7 +3919,7 @@
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="14" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="N12" s="14"/>
       <c r="O12" s="10"/>
@@ -3929,7 +3937,7 @@
         <v>139</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>162</v>
@@ -3988,14 +3996,14 @@
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="14" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="14" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="10"/>
@@ -4078,7 +4086,7 @@
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="14" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="14" t="s">
@@ -4118,13 +4126,13 @@
         <v>154</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>29</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="K19" s="10">
         <v>1</v>
@@ -4142,23 +4150,23 @@
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="14" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="14" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>29</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="K20" s="10">
         <v>1</v>
@@ -4176,16 +4184,16 @@
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="14" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="10"/>
@@ -4199,7 +4207,7 @@
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
       <c r="O21" s="14" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="P21" s="1"/>
     </row>
@@ -4220,13 +4228,13 @@
         <v>157</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>29</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="K22" s="10">
         <v>1</v>
@@ -4244,16 +4252,16 @@
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="14" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="10"/>
@@ -4267,7 +4275,7 @@
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
       <c r="O23" s="14" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="P23" s="1"/>
     </row>
@@ -4277,28 +4285,28 @@
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>29</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="K24" s="10">
         <v>1</v>
@@ -4323,7 +4331,7 @@
         <v>64</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="10" t="s">
@@ -4335,7 +4343,7 @@
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="M25" s="14" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="N25" s="32">
         <v>1</v>
@@ -4350,19 +4358,19 @@
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="14" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="14" t="s">
@@ -4384,19 +4392,19 @@
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="14" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="14" t="s">
@@ -4421,7 +4429,7 @@
         <v>84</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>85</v>
@@ -4430,13 +4438,13 @@
         <v>86</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>29</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
@@ -4455,7 +4463,7 @@
         <v>67</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F29" s="14" t="s">
         <v>68</v>
@@ -4464,7 +4472,7 @@
         <v>69</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>29</v>
@@ -4489,7 +4497,7 @@
         <v>70</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F30" s="14" t="s">
         <v>71</v>
@@ -4498,7 +4506,7 @@
         <v>72</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>29</v>
@@ -4525,7 +4533,7 @@
         <v>74</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F31" s="14" t="s">
         <v>75</v>
@@ -4534,7 +4542,7 @@
         <v>76</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>29</v>
@@ -4559,7 +4567,7 @@
         <v>78</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>79</v>
@@ -4568,7 +4576,7 @@
         <v>80</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>29</v>
@@ -4595,7 +4603,7 @@
         <v>81</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F33" s="14" t="s">
         <v>82</v>
@@ -4604,7 +4612,7 @@
         <v>83</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>29</v>
@@ -4629,7 +4637,7 @@
         <v>87</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F34" s="14" t="s">
         <v>88</v>
@@ -4638,7 +4646,7 @@
         <v>10</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="I34" s="10"/>
       <c r="J34" s="14" t="s">
@@ -4708,7 +4716,7 @@
         <v>173</v>
       </c>
       <c r="H38" s="54" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="I38" s="55"/>
       <c r="J38" s="56"/>
@@ -4730,7 +4738,7 @@
       </c>
       <c r="C39" s="53"/>
       <c r="D39" s="54" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="E39" s="55"/>
       <c r="F39" s="56"/>
@@ -4738,16 +4746,16 @@
         <v>3</v>
       </c>
       <c r="H39" s="54" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="I39" s="55"/>
       <c r="J39" s="56"/>
       <c r="K39" s="57" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L39" s="58"/>
       <c r="M39" s="59" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N39" s="60"/>
       <c r="O39" s="60"/>
@@ -4756,19 +4764,19 @@
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="83"/>
       <c r="B40" s="52" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C40" s="53"/>
       <c r="D40" s="54" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
       <c r="G40" s="26" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H40" s="55" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="I40" s="55"/>
       <c r="J40" s="56"/>
@@ -4797,7 +4805,7 @@
       </c>
       <c r="L41" s="58"/>
       <c r="M41" s="59" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="N41" s="60"/>
       <c r="O41" s="60"/>
@@ -4857,7 +4865,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="49" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D44" s="50"/>
       <c r="E44" s="51"/>
@@ -4902,7 +4910,7 @@
       </c>
       <c r="C46" s="53"/>
       <c r="D46" s="54" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E46" s="55"/>
       <c r="F46" s="56"/>
@@ -4910,7 +4918,7 @@
         <v>173</v>
       </c>
       <c r="H46" s="54" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="I46" s="55"/>
       <c r="J46" s="56"/>
@@ -4919,7 +4927,7 @@
       </c>
       <c r="L46" s="58"/>
       <c r="M46" s="14" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="N46" s="14"/>
       <c r="O46" s="10"/>
@@ -4932,7 +4940,7 @@
       </c>
       <c r="C47" s="53"/>
       <c r="D47" s="54" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="E47" s="55"/>
       <c r="F47" s="56"/>
@@ -4940,16 +4948,16 @@
         <v>3</v>
       </c>
       <c r="H47" s="54" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="I47" s="55"/>
       <c r="J47" s="56"/>
       <c r="K47" s="57" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L47" s="58"/>
       <c r="M47" s="59" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N47" s="60"/>
       <c r="O47" s="60"/>
@@ -4958,19 +4966,19 @@
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="83"/>
       <c r="B48" s="52" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C48" s="53"/>
       <c r="D48" s="54" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="E48" s="55"/>
       <c r="F48" s="55"/>
       <c r="G48" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="H48" s="55" t="s">
         <v>374</v>
-      </c>
-      <c r="H48" s="55" t="s">
-        <v>381</v>
       </c>
       <c r="I48" s="55"/>
       <c r="J48" s="56"/>
@@ -4999,7 +5007,7 @@
       </c>
       <c r="L49" s="58"/>
       <c r="M49" s="59" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="N49" s="60"/>
       <c r="O49" s="60"/>
@@ -5059,13 +5067,13 @@
         <v>1</v>
       </c>
       <c r="C52" s="49" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D52" s="50"/>
       <c r="E52" s="51"/>
       <c r="F52" s="12"/>
       <c r="G52" s="49" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="H52" s="51"/>
       <c r="I52" s="3"/>
@@ -5256,7 +5264,7 @@
       <c r="B3" s="75"/>
       <c r="C3" s="75"/>
       <c r="D3" s="73" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="E3" s="74"/>
       <c r="F3" s="74"/>
@@ -5345,7 +5353,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -5357,7 +5365,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
@@ -5372,7 +5380,7 @@
         <v>66</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -5389,13 +5397,13 @@
         <v>27</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>28</v>
@@ -5493,7 +5501,7 @@
         <v>84</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>85</v>
@@ -5502,11 +5510,11 @@
         <v>86</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="14" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
@@ -5525,7 +5533,7 @@
         <v>67</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>68</v>
@@ -5534,7 +5542,7 @@
         <v>69</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>29</v>
@@ -5566,7 +5574,7 @@
         <v>72</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>29</v>
@@ -5600,7 +5608,7 @@
         <v>76</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>29</v>
@@ -5632,7 +5640,7 @@
         <v>80</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>29</v>
@@ -5666,7 +5674,7 @@
         <v>83</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>29</v>
@@ -5691,7 +5699,7 @@
         <v>87</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>88</v>
@@ -5700,7 +5708,7 @@
         <v>10</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="14" t="s">
@@ -5770,7 +5778,7 @@
         <v>173</v>
       </c>
       <c r="H21" s="54" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="I21" s="55"/>
       <c r="J21" s="56"/>
@@ -5805,11 +5813,11 @@
       <c r="I22" s="55"/>
       <c r="J22" s="56"/>
       <c r="K22" s="57" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L22" s="58"/>
       <c r="M22" s="59" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N22" s="60"/>
       <c r="O22" s="60"/>
@@ -5818,19 +5826,19 @@
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="83"/>
       <c r="B23" s="52" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C23" s="53"/>
       <c r="D23" s="54" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="E23" s="55"/>
       <c r="F23" s="55"/>
       <c r="G23" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="H23" s="55" t="s">
         <v>374</v>
-      </c>
-      <c r="H23" s="55" t="s">
-        <v>381</v>
       </c>
       <c r="I23" s="55"/>
       <c r="J23" s="56"/>
@@ -5859,7 +5867,7 @@
       </c>
       <c r="L24" s="58"/>
       <c r="M24" s="59" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="N24" s="60"/>
       <c r="O24" s="60"/>
@@ -5972,7 +5980,7 @@
         <v>173</v>
       </c>
       <c r="H29" s="54" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="I29" s="55"/>
       <c r="J29" s="56"/>
@@ -6007,11 +6015,11 @@
       <c r="I30" s="55"/>
       <c r="J30" s="56"/>
       <c r="K30" s="57" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L30" s="58"/>
       <c r="M30" s="59" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N30" s="60"/>
       <c r="O30" s="60"/>
@@ -6020,19 +6028,19 @@
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="83"/>
       <c r="B31" s="52" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C31" s="53"/>
       <c r="D31" s="54" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E31" s="55"/>
       <c r="F31" s="55"/>
       <c r="G31" s="26" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H31" s="55" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="I31" s="55"/>
       <c r="J31" s="56"/>
@@ -6061,7 +6069,7 @@
       </c>
       <c r="L32" s="58"/>
       <c r="M32" s="59" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="N32" s="60"/>
       <c r="O32" s="60"/>
@@ -6267,7 +6275,7 @@
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
       <c r="D1" s="73" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E1" s="74"/>
       <c r="F1" s="74"/>
@@ -6291,7 +6299,7 @@
       <c r="B2" s="75"/>
       <c r="C2" s="75"/>
       <c r="D2" s="73" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="E2" s="74"/>
       <c r="F2" s="74"/>
@@ -6300,7 +6308,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="J2" s="60"/>
       <c r="K2" s="60"/>
@@ -6337,7 +6345,7 @@
       <c r="B4" s="75"/>
       <c r="C4" s="75"/>
       <c r="D4" s="73" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="E4" s="74"/>
       <c r="F4" s="74"/>
@@ -6404,7 +6412,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -6416,7 +6424,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
@@ -6431,7 +6439,7 @@
         <v>66</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -6448,13 +6456,13 @@
         <v>27</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>28</v>
@@ -6519,14 +6527,14 @@
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="14" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="10"/>
@@ -6549,14 +6557,14 @@
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="14" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="14" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="10" t="s">
@@ -6570,7 +6578,7 @@
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
       <c r="O11" s="10" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="P11" s="1"/>
     </row>
@@ -6581,17 +6589,17 @@
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="14" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="14" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>29</v>
@@ -6615,16 +6623,16 @@
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="14" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="10"/>
@@ -6650,7 +6658,7 @@
         <v>84</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>85</v>
@@ -6659,11 +6667,11 @@
         <v>86</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="14" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
@@ -6682,7 +6690,7 @@
         <v>67</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>68</v>
@@ -6691,7 +6699,7 @@
         <v>69</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>29</v>
@@ -6723,7 +6731,7 @@
         <v>72</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>29</v>
@@ -6757,7 +6765,7 @@
         <v>76</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>29</v>
@@ -6789,7 +6797,7 @@
         <v>80</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>29</v>
@@ -6823,7 +6831,7 @@
         <v>83</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>29</v>
@@ -6848,7 +6856,7 @@
         <v>87</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>88</v>
@@ -6857,7 +6865,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="14" t="s">
@@ -6927,7 +6935,7 @@
         <v>173</v>
       </c>
       <c r="H24" s="54" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="I24" s="55"/>
       <c r="J24" s="56"/>
@@ -6962,11 +6970,11 @@
       <c r="I25" s="55"/>
       <c r="J25" s="56"/>
       <c r="K25" s="57" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L25" s="58"/>
       <c r="M25" s="59" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N25" s="60"/>
       <c r="O25" s="60"/>
@@ -6975,19 +6983,19 @@
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="83"/>
       <c r="B26" s="52" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C26" s="53"/>
       <c r="D26" s="54" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="E26" s="55"/>
       <c r="F26" s="55"/>
       <c r="G26" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="H26" s="55" t="s">
         <v>374</v>
-      </c>
-      <c r="H26" s="55" t="s">
-        <v>381</v>
       </c>
       <c r="I26" s="55"/>
       <c r="J26" s="56"/>
@@ -7016,7 +7024,7 @@
       </c>
       <c r="L27" s="58"/>
       <c r="M27" s="59" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="N27" s="60"/>
       <c r="O27" s="60"/>
@@ -7166,7 +7174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C953A90D-FDF2-4D86-8069-3DE5D3B98F32}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M34" sqref="M34:P34"/>
     </sheetView>
   </sheetViews>
@@ -7193,7 +7201,7 @@
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
       <c r="D1" s="73" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E1" s="74"/>
       <c r="F1" s="74"/>
@@ -7226,7 +7234,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J2" s="60"/>
       <c r="K2" s="60"/>
@@ -7243,7 +7251,7 @@
       <c r="B3" s="75"/>
       <c r="C3" s="75"/>
       <c r="D3" s="73" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="E3" s="74"/>
       <c r="F3" s="74"/>
@@ -7330,7 +7338,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -7342,7 +7350,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
@@ -7357,7 +7365,7 @@
         <v>66</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -7374,7 +7382,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>178</v>
@@ -7477,16 +7485,16 @@
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="14" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="10" t="s">
@@ -7571,14 +7579,14 @@
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="14" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="14" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="10"/>
@@ -7630,7 +7638,7 @@
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>89</v>
@@ -7682,7 +7690,7 @@
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="14" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="N17" s="14"/>
       <c r="O17" s="10"/>
@@ -7694,7 +7702,7 @@
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>185</v>
@@ -7744,7 +7752,7 @@
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="14" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="N19" s="14"/>
       <c r="O19" s="10"/>
@@ -7757,14 +7765,14 @@
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="14" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="14" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>73</v>
@@ -7788,13 +7796,13 @@
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>213</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>214</v>
@@ -7821,16 +7829,16 @@
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="14" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="10"/>
@@ -7853,16 +7861,16 @@
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="14" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="10"/>
@@ -7884,19 +7892,19 @@
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="10"/>
@@ -7922,7 +7930,7 @@
         <v>70</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>71</v>
@@ -7931,7 +7939,7 @@
         <v>72</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>29</v>
@@ -7958,7 +7966,7 @@
         <v>74</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>75</v>
@@ -7967,7 +7975,7 @@
         <v>76</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>29</v>
@@ -7992,7 +8000,7 @@
         <v>87</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>88</v>
@@ -8001,7 +8009,7 @@
         <v>10</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="14" t="s">
@@ -8104,11 +8112,11 @@
       <c r="I32" s="55"/>
       <c r="J32" s="56"/>
       <c r="K32" s="57" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L32" s="58"/>
       <c r="M32" s="59" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N32" s="60"/>
       <c r="O32" s="60"/>
@@ -8117,14 +8125,14 @@
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="83"/>
       <c r="B33" s="52" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C33" s="53"/>
       <c r="D33" s="54"/>
       <c r="E33" s="55"/>
       <c r="F33" s="55"/>
       <c r="G33" s="26" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H33" s="55"/>
       <c r="I33" s="55"/>
@@ -8154,7 +8162,7 @@
       </c>
       <c r="L34" s="58"/>
       <c r="M34" s="59" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="N34" s="60"/>
       <c r="O34" s="60"/>
@@ -8309,10 +8317,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AC8471-48F5-46E8-B6A0-736F600785E1}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:P29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8362,7 +8370,7 @@
       <c r="B2" s="75"/>
       <c r="C2" s="75"/>
       <c r="D2" s="73" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="E2" s="74"/>
       <c r="F2" s="74"/>
@@ -8388,7 +8396,7 @@
       <c r="B3" s="75"/>
       <c r="C3" s="75"/>
       <c r="D3" s="73" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="E3" s="74"/>
       <c r="F3" s="74"/>
@@ -8477,7 +8485,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -8489,7 +8497,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
@@ -8504,7 +8512,7 @@
         <v>66</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -8521,14 +8529,14 @@
         <v>27</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="14" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>21</v>
@@ -8590,22 +8598,26 @@
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="14" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="14" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="10"/>
+        <v>35</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="J10" s="14" t="s">
         <v>30</v>
       </c>
       <c r="K10" s="10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="14"/>
@@ -8620,14 +8632,14 @@
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="14" t="s">
-        <v>292</v>
+        <v>178</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="14" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="10"/>
@@ -8635,7 +8647,7 @@
         <v>30</v>
       </c>
       <c r="K11" s="10">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="14"/>
@@ -8650,14 +8662,14 @@
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="14" t="s">
-        <v>237</v>
+        <v>592</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="14" t="s">
-        <v>236</v>
+        <v>593</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="10"/>
@@ -8665,7 +8677,7 @@
         <v>30</v>
       </c>
       <c r="K12" s="10">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="14"/>
@@ -8680,14 +8692,14 @@
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="14" t="s">
-        <v>239</v>
+        <v>497</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="14" t="s">
-        <v>240</v>
+        <v>498</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>241</v>
+        <v>600</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="10"/>
@@ -8695,7 +8707,7 @@
         <v>30</v>
       </c>
       <c r="K13" s="10">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="14"/>
@@ -8710,27 +8722,25 @@
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="14" t="s">
-        <v>221</v>
+        <v>597</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="14" t="s">
-        <v>222</v>
+        <v>598</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>223</v>
+        <v>599</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="10"/>
       <c r="J14" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="10">
-        <v>8000</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="K14" s="10"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="10"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="14"/>
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -8740,23 +8750,21 @@
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="14" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="14" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="10"/>
       <c r="J15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="10">
-        <v>4000</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
@@ -8770,14 +8778,14 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="14" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="14" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="10"/>
@@ -8798,14 +8806,14 @@
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="14" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="10"/>
@@ -8819,7 +8827,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="14" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="P17" s="1"/>
     </row>
@@ -8830,54 +8838,52 @@
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="14" t="s">
-        <v>226</v>
+        <v>595</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="14" t="s">
-        <v>227</v>
+        <v>596</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>228</v>
+        <v>594</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="10"/>
       <c r="J18" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="K18" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="K18" s="10">
+        <v>1000</v>
+      </c>
       <c r="L18" s="10"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="10"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="14"/>
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="14" t="s">
-        <v>70</v>
+        <v>219</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="14" t="s">
-        <v>71</v>
+        <v>220</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>29</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="14" t="s">
         <v>30</v>
       </c>
       <c r="K19" s="10">
-        <v>50</v>
+        <v>8000</v>
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="14"/>
@@ -8887,30 +8893,28 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="14" t="s">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="14" t="s">
-        <v>75</v>
+        <v>218</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>29</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="10"/>
       <c r="J20" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="K20" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="K20" s="10">
+        <v>4000</v>
+      </c>
       <c r="L20" s="10"/>
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
@@ -8949,7 +8953,7 @@
       </c>
       <c r="C23" s="53"/>
       <c r="D23" s="54" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E23" s="55"/>
       <c r="F23" s="56"/>
@@ -8964,7 +8968,7 @@
       </c>
       <c r="L23" s="58"/>
       <c r="M23" s="14" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="N23" s="14"/>
       <c r="O23" s="10"/>
@@ -8977,7 +8981,7 @@
       </c>
       <c r="C24" s="53"/>
       <c r="D24" s="54" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E24" s="55"/>
       <c r="F24" s="56"/>
@@ -8985,16 +8989,16 @@
         <v>3</v>
       </c>
       <c r="H24" s="54" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I24" s="55"/>
       <c r="J24" s="56"/>
       <c r="K24" s="57" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L24" s="58"/>
       <c r="M24" s="59" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N24" s="60"/>
       <c r="O24" s="60"/>
@@ -9018,7 +9022,7 @@
       </c>
       <c r="L25" s="58"/>
       <c r="M25" s="59" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="N25" s="60"/>
       <c r="O25" s="60"/>
@@ -9078,13 +9082,13 @@
         <v>1</v>
       </c>
       <c r="C28" s="49" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D28" s="51"/>
       <c r="E28" s="4"/>
       <c r="F28" s="12"/>
       <c r="G28" s="49" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H28" s="51"/>
       <c r="I28" s="3"/>
@@ -9114,8 +9118,204 @@
       <c r="O29" s="50"/>
       <c r="P29" s="51"/>
     </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="82">
+        <v>2</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="53"/>
+      <c r="D30" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="L30" s="58"/>
+      <c r="M30" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="61"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="83"/>
+      <c r="B31" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="53"/>
+      <c r="D31" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="55"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="L31" s="58"/>
+      <c r="M31" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="61"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="83"/>
+      <c r="B32" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="C32" s="53"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="61"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="83"/>
+      <c r="B33" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="53"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="58"/>
+      <c r="M33" s="59" t="s">
+        <v>379</v>
+      </c>
+      <c r="N33" s="60"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="61"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="83"/>
+      <c r="B34" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="64"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="83"/>
+      <c r="B35" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="65"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="58"/>
+      <c r="I35" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="58"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="67"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="83"/>
+      <c r="B36" s="12">
+        <v>1</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="50"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="H36" s="51"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="48"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="83"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="48"/>
+    </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="73">
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="A4:C4"/>
@@ -9154,6 +9354,41 @@
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="M25:P25"/>
     <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:P37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9191,7 +9426,7 @@
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
       <c r="D1" s="76" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E1" s="77"/>
       <c r="F1" s="77"/>
@@ -9326,7 +9561,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -9338,7 +9573,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
@@ -9353,7 +9588,7 @@
         <v>66</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -9370,16 +9605,16 @@
         <v>27</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>21</v>
@@ -9406,17 +9641,17 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="14" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="10" t="s">
@@ -9447,10 +9682,10 @@
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="14" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="10"/>
@@ -9477,7 +9712,7 @@
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="14" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>141</v>
@@ -9501,11 +9736,11 @@
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="14" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="14" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>5</v>
@@ -9531,14 +9766,14 @@
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="14" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="14" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="10"/>
@@ -9628,7 +9863,7 @@
         <v>84</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F16" s="38" t="s">
         <v>85</v>
@@ -9637,11 +9872,11 @@
         <v>86</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="I16" s="37"/>
       <c r="J16" s="38" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="K16" s="37"/>
       <c r="L16" s="37"/>
@@ -9660,7 +9895,7 @@
         <v>67</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>68</v>
@@ -9669,7 +9904,7 @@
         <v>69</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>29</v>
@@ -9694,7 +9929,7 @@
         <v>70</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>71</v>
@@ -9703,7 +9938,7 @@
         <v>72</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>29</v>
@@ -9730,7 +9965,7 @@
         <v>74</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>75</v>
@@ -9739,7 +9974,7 @@
         <v>76</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>29</v>
@@ -9764,7 +9999,7 @@
         <v>78</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>79</v>
@@ -9773,7 +10008,7 @@
         <v>80</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>29</v>
@@ -9800,7 +10035,7 @@
         <v>81</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>82</v>
@@ -9809,7 +10044,7 @@
         <v>83</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>29</v>
@@ -9834,7 +10069,7 @@
         <v>87</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>88</v>
@@ -9843,7 +10078,7 @@
         <v>10</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="14" t="s">
@@ -9913,7 +10148,7 @@
         <v>173</v>
       </c>
       <c r="H26" s="54" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="I26" s="55"/>
       <c r="J26" s="56"/>
@@ -9922,7 +10157,7 @@
       </c>
       <c r="L26" s="58"/>
       <c r="M26" s="14" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="N26" s="14"/>
       <c r="O26" s="10"/>
@@ -9935,7 +10170,7 @@
       </c>
       <c r="C27" s="53"/>
       <c r="D27" s="54" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="E27" s="55"/>
       <c r="F27" s="56"/>
@@ -9943,16 +10178,16 @@
         <v>3</v>
       </c>
       <c r="H27" s="54" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="I27" s="55"/>
       <c r="J27" s="56"/>
       <c r="K27" s="57" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L27" s="58"/>
       <c r="M27" s="59" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N27" s="60"/>
       <c r="O27" s="60"/>
@@ -9961,19 +10196,19 @@
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="83"/>
       <c r="B28" s="52" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C28" s="53"/>
       <c r="D28" s="54" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E28" s="55"/>
       <c r="F28" s="55"/>
       <c r="G28" s="26" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H28" s="55" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="I28" s="55"/>
       <c r="J28" s="56"/>
@@ -10002,7 +10237,7 @@
       </c>
       <c r="L29" s="58"/>
       <c r="M29" s="59" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="N29" s="60"/>
       <c r="O29" s="60"/>
@@ -10062,13 +10297,13 @@
         <v>1</v>
       </c>
       <c r="C32" s="49" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D32" s="50"/>
       <c r="E32" s="51"/>
       <c r="F32" s="12"/>
       <c r="G32" s="49" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="H32" s="51"/>
       <c r="I32" s="3"/>
@@ -10107,7 +10342,7 @@
       </c>
       <c r="C34" s="53"/>
       <c r="D34" s="54" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="E34" s="55"/>
       <c r="F34" s="55"/>
@@ -10135,7 +10370,7 @@
       </c>
       <c r="C35" s="53"/>
       <c r="D35" s="54" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="E35" s="55"/>
       <c r="F35" s="55"/>
@@ -10143,16 +10378,16 @@
         <v>3</v>
       </c>
       <c r="H35" s="54" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="I35" s="55"/>
       <c r="J35" s="56"/>
       <c r="K35" s="57" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L35" s="58"/>
       <c r="M35" s="59" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N35" s="60"/>
       <c r="O35" s="60"/>
@@ -10161,20 +10396,20 @@
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="69"/>
       <c r="B36" s="52" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C36" s="53"/>
       <c r="D36" s="54"/>
       <c r="E36" s="55"/>
       <c r="F36" s="55"/>
       <c r="G36" s="26" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H36" s="55"/>
       <c r="I36" s="55"/>
       <c r="J36" s="56"/>
       <c r="K36" s="57" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="L36" s="58"/>
       <c r="M36" s="59" t="b">
@@ -10202,7 +10437,7 @@
       </c>
       <c r="L37" s="58"/>
       <c r="M37" s="59" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="N37" s="60"/>
       <c r="O37" s="60"/>
@@ -10262,7 +10497,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="49" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="D40" s="50"/>
       <c r="E40" s="51"/>
@@ -10416,7 +10651,7 @@
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
       <c r="D1" s="73" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="E1" s="74"/>
       <c r="F1" s="74"/>
@@ -10440,7 +10675,7 @@
       <c r="B2" s="75"/>
       <c r="C2" s="75"/>
       <c r="D2" s="73" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="E2" s="74"/>
       <c r="F2" s="74"/>
@@ -10449,7 +10684,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="J2" s="60"/>
       <c r="K2" s="60"/>
@@ -10551,7 +10786,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -10563,7 +10798,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
@@ -10578,7 +10813,7 @@
         <v>66</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -10595,16 +10830,16 @@
         <v>27</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>21</v>
@@ -10631,17 +10866,17 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="14" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="10" t="s">
@@ -10672,10 +10907,10 @@
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="14" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="10"/>
@@ -10698,14 +10933,14 @@
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="14" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="14" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="10"/>
@@ -10719,7 +10954,7 @@
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
       <c r="O11" s="10" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="P11" s="1"/>
     </row>
@@ -10733,7 +10968,7 @@
         <v>84</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>85</v>
@@ -10742,11 +10977,11 @@
         <v>86</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="14" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -10765,7 +11000,7 @@
         <v>67</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>68</v>
@@ -10774,7 +11009,7 @@
         <v>69</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>29</v>
@@ -10799,7 +11034,7 @@
         <v>70</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>71</v>
@@ -10808,7 +11043,7 @@
         <v>72</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>29</v>
@@ -10835,7 +11070,7 @@
         <v>74</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>75</v>
@@ -10844,7 +11079,7 @@
         <v>76</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>29</v>
@@ -10869,7 +11104,7 @@
         <v>78</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>79</v>
@@ -10878,7 +11113,7 @@
         <v>80</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>29</v>
@@ -10905,7 +11140,7 @@
         <v>81</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>82</v>
@@ -10914,7 +11149,7 @@
         <v>83</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>29</v>
@@ -10939,7 +11174,7 @@
         <v>87</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>88</v>
@@ -10948,7 +11183,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="14" t="s">
@@ -11018,7 +11253,7 @@
         <v>173</v>
       </c>
       <c r="H22" s="54" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="I22" s="55"/>
       <c r="J22" s="56"/>
@@ -11027,7 +11262,7 @@
       </c>
       <c r="L22" s="58"/>
       <c r="M22" s="14" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="N22" s="14"/>
       <c r="O22" s="10"/>
@@ -11040,7 +11275,7 @@
       </c>
       <c r="C23" s="53"/>
       <c r="D23" s="54" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="E23" s="55"/>
       <c r="F23" s="56"/>
@@ -11048,16 +11283,16 @@
         <v>3</v>
       </c>
       <c r="H23" s="54" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="I23" s="55"/>
       <c r="J23" s="56"/>
       <c r="K23" s="57" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L23" s="58"/>
       <c r="M23" s="59" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N23" s="60"/>
       <c r="O23" s="60"/>
@@ -11066,19 +11301,19 @@
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="83"/>
       <c r="B24" s="52" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C24" s="53"/>
       <c r="D24" s="54" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="E24" s="55"/>
       <c r="F24" s="55"/>
       <c r="G24" s="26" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H24" s="55" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="I24" s="55"/>
       <c r="J24" s="56"/>
@@ -11107,7 +11342,7 @@
       </c>
       <c r="L25" s="58"/>
       <c r="M25" s="59" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="N25" s="60"/>
       <c r="O25" s="60"/>
@@ -11167,13 +11402,13 @@
         <v>1</v>
       </c>
       <c r="C28" s="49" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D28" s="50"/>
       <c r="E28" s="51"/>
       <c r="F28" s="12"/>
       <c r="G28" s="49" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="H28" s="51"/>
       <c r="I28" s="3"/>
@@ -11212,7 +11447,7 @@
       </c>
       <c r="C30" s="53"/>
       <c r="D30" s="54" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="E30" s="55"/>
       <c r="F30" s="55"/>
@@ -11240,7 +11475,7 @@
       </c>
       <c r="C31" s="53"/>
       <c r="D31" s="54" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="E31" s="55"/>
       <c r="F31" s="55"/>
@@ -11248,16 +11483,16 @@
         <v>3</v>
       </c>
       <c r="H31" s="54" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="I31" s="55"/>
       <c r="J31" s="56"/>
       <c r="K31" s="57" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L31" s="58"/>
       <c r="M31" s="59" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N31" s="60"/>
       <c r="O31" s="60"/>
@@ -11266,14 +11501,14 @@
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="83"/>
       <c r="B32" s="52" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C32" s="53"/>
       <c r="D32" s="54"/>
       <c r="E32" s="55"/>
       <c r="F32" s="55"/>
       <c r="G32" s="26" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H32" s="55"/>
       <c r="I32" s="55"/>
@@ -11303,7 +11538,7 @@
       </c>
       <c r="L33" s="58"/>
       <c r="M33" s="59" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="N33" s="60"/>
       <c r="O33" s="60"/>
@@ -11363,7 +11598,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="49" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="D36" s="50"/>
       <c r="E36" s="51"/>
@@ -11517,7 +11752,7 @@
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
       <c r="D1" s="73" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E1" s="74"/>
       <c r="F1" s="74"/>
@@ -11541,7 +11776,7 @@
       <c r="B2" s="75"/>
       <c r="C2" s="75"/>
       <c r="D2" s="73" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="E2" s="74"/>
       <c r="F2" s="74"/>
@@ -11550,7 +11785,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="J2" s="60"/>
       <c r="K2" s="60"/>
@@ -11567,7 +11802,7 @@
       <c r="B3" s="75"/>
       <c r="C3" s="75"/>
       <c r="D3" s="73" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="E3" s="74"/>
       <c r="F3" s="74"/>
@@ -11654,7 +11889,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -11666,7 +11901,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
@@ -11681,7 +11916,7 @@
         <v>66</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -11703,13 +11938,13 @@
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>29</v>
@@ -11735,14 +11970,14 @@
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="14" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>526</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>533</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="10" t="s">
@@ -11767,23 +12002,23 @@
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="14" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>29</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
@@ -11802,7 +12037,7 @@
         <v>67</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>68</v>
@@ -11811,7 +12046,7 @@
         <v>69</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>29</v>
@@ -11843,7 +12078,7 @@
         <v>72</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>29</v>
@@ -11877,7 +12112,7 @@
         <v>76</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>29</v>
@@ -11909,7 +12144,7 @@
         <v>80</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>29</v>
@@ -11943,7 +12178,7 @@
         <v>83</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>29</v>
@@ -11968,7 +12203,7 @@
         <v>87</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>88</v>
@@ -11977,7 +12212,7 @@
         <v>10</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="14" t="s">
@@ -12039,7 +12274,7 @@
       </c>
       <c r="C19" s="53"/>
       <c r="D19" s="54" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="E19" s="55"/>
       <c r="F19" s="55"/>
@@ -12047,7 +12282,7 @@
         <v>173</v>
       </c>
       <c r="H19" s="54" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="I19" s="55"/>
       <c r="J19" s="56"/>
@@ -12056,7 +12291,7 @@
       </c>
       <c r="L19" s="58"/>
       <c r="M19" s="59" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="N19" s="60"/>
       <c r="O19" s="60"/>
@@ -12082,11 +12317,11 @@
       <c r="I20" s="55"/>
       <c r="J20" s="56"/>
       <c r="K20" s="57" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L20" s="58"/>
       <c r="M20" s="59" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N20" s="60"/>
       <c r="O20" s="60"/>
@@ -12095,19 +12330,19 @@
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="83"/>
       <c r="B21" s="52" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C21" s="53"/>
       <c r="D21" s="54" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="E21" s="55"/>
       <c r="F21" s="55"/>
       <c r="G21" s="26" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H21" s="55" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="I21" s="55"/>
       <c r="J21" s="56"/>
@@ -12136,7 +12371,7 @@
       </c>
       <c r="L22" s="58"/>
       <c r="M22" s="59" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="N22" s="60"/>
       <c r="O22" s="60"/>
@@ -12196,13 +12431,13 @@
         <v>1</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D25" s="50"/>
       <c r="E25" s="51"/>
       <c r="F25" s="3"/>
       <c r="G25" s="49" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="H25" s="51"/>
       <c r="I25" s="3"/>
@@ -12241,7 +12476,7 @@
       </c>
       <c r="C27" s="53"/>
       <c r="D27" s="86" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E27" s="87"/>
       <c r="F27" s="87"/>
@@ -12249,7 +12484,7 @@
         <v>173</v>
       </c>
       <c r="H27" s="54" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="I27" s="55"/>
       <c r="J27" s="56"/>
@@ -12258,7 +12493,7 @@
       </c>
       <c r="L27" s="58"/>
       <c r="M27" s="59" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="N27" s="60"/>
       <c r="O27" s="60"/>
@@ -12271,7 +12506,7 @@
       </c>
       <c r="C28" s="53"/>
       <c r="D28" s="86" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E28" s="87"/>
       <c r="F28" s="87"/>
@@ -12279,16 +12514,16 @@
         <v>3</v>
       </c>
       <c r="H28" s="54" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="I28" s="55"/>
       <c r="J28" s="56"/>
       <c r="K28" s="57" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L28" s="58"/>
       <c r="M28" s="59" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N28" s="60"/>
       <c r="O28" s="60"/>
@@ -12297,19 +12532,19 @@
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="83"/>
       <c r="B29" s="52" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C29" s="53"/>
       <c r="D29" s="54" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="E29" s="55"/>
       <c r="F29" s="55"/>
       <c r="G29" s="26" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H29" s="55" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="I29" s="55"/>
       <c r="J29" s="56"/>
@@ -12338,7 +12573,7 @@
       </c>
       <c r="L30" s="58"/>
       <c r="M30" s="59" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="N30" s="60"/>
       <c r="O30" s="60"/>
@@ -12398,13 +12633,13 @@
         <v>1</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="D33" s="50"/>
       <c r="E33" s="51"/>
       <c r="F33" s="3"/>
       <c r="G33" s="49" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="H33" s="51"/>
       <c r="I33" s="3"/>
@@ -12557,7 +12792,7 @@
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
       <c r="D1" s="73" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="E1" s="74"/>
       <c r="F1" s="74"/>
@@ -12581,7 +12816,7 @@
       <c r="B2" s="75"/>
       <c r="C2" s="75"/>
       <c r="D2" s="73" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="E2" s="74"/>
       <c r="F2" s="74"/>
@@ -12590,7 +12825,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="J2" s="60"/>
       <c r="K2" s="60"/>
@@ -12607,7 +12842,7 @@
       <c r="B3" s="75"/>
       <c r="C3" s="75"/>
       <c r="D3" s="73" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="E3" s="74"/>
       <c r="F3" s="74"/>
@@ -12694,7 +12929,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -12706,7 +12941,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
@@ -12721,7 +12956,7 @@
         <v>66</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -12743,7 +12978,7 @@
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>35</v>
@@ -12775,14 +13010,14 @@
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="14" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>526</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>533</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="10" t="s">
@@ -12810,7 +13045,7 @@
         <v>67</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>68</v>
@@ -12819,7 +13054,7 @@
         <v>69</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>29</v>
@@ -12851,7 +13086,7 @@
         <v>72</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>29</v>
@@ -12885,7 +13120,7 @@
         <v>76</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>29</v>
@@ -12917,7 +13152,7 @@
         <v>80</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>29</v>
@@ -12951,7 +13186,7 @@
         <v>83</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>29</v>
@@ -12976,7 +13211,7 @@
         <v>87</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>88</v>
@@ -12985,7 +13220,7 @@
         <v>10</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="14" t="s">
@@ -13055,7 +13290,7 @@
         <v>173</v>
       </c>
       <c r="H18" s="54" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="I18" s="55"/>
       <c r="J18" s="56"/>
@@ -13090,11 +13325,11 @@
       <c r="I19" s="55"/>
       <c r="J19" s="56"/>
       <c r="K19" s="57" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L19" s="58"/>
       <c r="M19" s="59" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N19" s="60"/>
       <c r="O19" s="60"/>
@@ -13103,19 +13338,19 @@
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="83"/>
       <c r="B20" s="52" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C20" s="53"/>
       <c r="D20" s="54" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="E20" s="55"/>
       <c r="F20" s="55"/>
       <c r="G20" s="26" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H20" s="55" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="I20" s="55"/>
       <c r="J20" s="56"/>
@@ -13144,7 +13379,7 @@
       </c>
       <c r="L21" s="58"/>
       <c r="M21" s="59" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="N21" s="60"/>
       <c r="O21" s="60"/>
@@ -13249,7 +13484,7 @@
       </c>
       <c r="C26" s="53"/>
       <c r="D26" s="86" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E26" s="87"/>
       <c r="F26" s="87"/>
@@ -13257,7 +13492,7 @@
         <v>173</v>
       </c>
       <c r="H26" s="54" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="I26" s="55"/>
       <c r="J26" s="56"/>
@@ -13266,7 +13501,7 @@
       </c>
       <c r="L26" s="58"/>
       <c r="M26" s="59" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="N26" s="60"/>
       <c r="O26" s="60"/>
@@ -13279,7 +13514,7 @@
       </c>
       <c r="C27" s="53"/>
       <c r="D27" s="86" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E27" s="87"/>
       <c r="F27" s="87"/>
@@ -13287,16 +13522,16 @@
         <v>3</v>
       </c>
       <c r="H27" s="54" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="I27" s="55"/>
       <c r="J27" s="56"/>
       <c r="K27" s="57" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L27" s="58"/>
       <c r="M27" s="59" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N27" s="60"/>
       <c r="O27" s="60"/>
@@ -13305,19 +13540,19 @@
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="83"/>
       <c r="B28" s="52" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C28" s="53"/>
       <c r="D28" s="54" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E28" s="55"/>
       <c r="F28" s="55"/>
       <c r="G28" s="26" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H28" s="55" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="I28" s="55"/>
       <c r="J28" s="56"/>
@@ -13346,7 +13581,7 @@
       </c>
       <c r="L29" s="58"/>
       <c r="M29" s="59" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="N29" s="60"/>
       <c r="O29" s="60"/>
@@ -13406,13 +13641,13 @@
         <v>1</v>
       </c>
       <c r="C32" s="49" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="D32" s="50"/>
       <c r="E32" s="51"/>
       <c r="F32" s="3"/>
       <c r="G32" s="49" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="H32" s="51"/>
       <c r="I32" s="3"/>
@@ -13564,7 +13799,7 @@
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
       <c r="D1" s="73" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="E1" s="74"/>
       <c r="F1" s="74"/>
@@ -13588,7 +13823,7 @@
       <c r="B2" s="75"/>
       <c r="C2" s="75"/>
       <c r="D2" s="73" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="E2" s="74"/>
       <c r="F2" s="74"/>
@@ -13597,7 +13832,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="J2" s="60"/>
       <c r="K2" s="60"/>
@@ -13699,7 +13934,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -13711,7 +13946,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
@@ -13726,7 +13961,7 @@
         <v>66</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -13743,16 +13978,16 @@
         <v>27</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>21</v>
@@ -13779,17 +14014,17 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="14" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="10" t="s">
@@ -13817,7 +14052,7 @@
         <v>84</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>85</v>
@@ -13826,11 +14061,11 @@
         <v>86</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="14" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
@@ -13849,7 +14084,7 @@
         <v>67</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>68</v>
@@ -13858,7 +14093,7 @@
         <v>69</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>29</v>
@@ -13883,7 +14118,7 @@
         <v>70</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>71</v>
@@ -13892,7 +14127,7 @@
         <v>72</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>29</v>
@@ -13919,7 +14154,7 @@
         <v>74</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>75</v>
@@ -13928,7 +14163,7 @@
         <v>76</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>29</v>
@@ -13953,7 +14188,7 @@
         <v>78</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>79</v>
@@ -13962,7 +14197,7 @@
         <v>80</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>29</v>
@@ -13989,7 +14224,7 @@
         <v>81</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>82</v>
@@ -13998,7 +14233,7 @@
         <v>83</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>29</v>
@@ -14023,7 +14258,7 @@
         <v>87</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>88</v>
@@ -14032,7 +14267,7 @@
         <v>10</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="14" t="s">
@@ -14103,7 +14338,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>24</v>
@@ -14120,95 +14355,95 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -14278,7 +14513,7 @@
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
       <c r="D1" s="76" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E1" s="77"/>
       <c r="F1" s="77"/>
@@ -14302,7 +14537,7 @@
       <c r="B2" s="75"/>
       <c r="C2" s="75"/>
       <c r="D2" s="73" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E2" s="74"/>
       <c r="F2" s="74"/>
@@ -14311,7 +14546,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="J2" s="60"/>
       <c r="K2" s="60"/>
@@ -14328,7 +14563,7 @@
       <c r="B3" s="75"/>
       <c r="C3" s="75"/>
       <c r="D3" s="73" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="E3" s="74"/>
       <c r="F3" s="74"/>
@@ -14415,7 +14650,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -14427,7 +14662,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
@@ -14442,7 +14677,7 @@
         <v>66</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -14459,16 +14694,16 @@
         <v>27</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>21</v>
@@ -14495,17 +14730,17 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="14" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="10" t="s">
@@ -14530,11 +14765,11 @@
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="14" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="14" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>131</v>
@@ -14593,7 +14828,7 @@
         <v>64</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="10" t="s">
@@ -14605,7 +14840,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="14" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="N12" s="10">
         <v>1</v>
@@ -14623,7 +14858,7 @@
         <v>84</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F13" s="38" t="s">
         <v>85</v>
@@ -14632,11 +14867,11 @@
         <v>86</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="I13" s="37"/>
       <c r="J13" s="38" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="K13" s="37"/>
       <c r="L13" s="37"/>
@@ -14655,7 +14890,7 @@
         <v>67</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>68</v>
@@ -14664,7 +14899,7 @@
         <v>69</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>29</v>
@@ -14696,7 +14931,7 @@
         <v>72</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>29</v>
@@ -14730,7 +14965,7 @@
         <v>76</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>29</v>
@@ -14762,7 +14997,7 @@
         <v>80</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>29</v>
@@ -14796,7 +15031,7 @@
         <v>83</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>29</v>
@@ -14821,7 +15056,7 @@
         <v>87</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>88</v>
@@ -14830,7 +15065,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="14" t="s">
@@ -14902,13 +15137,13 @@
         <v>22</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>6</v>
@@ -14917,7 +15152,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -14945,7 +15180,7 @@
         <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>30</v>
@@ -15029,7 +15264,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
@@ -15046,11 +15281,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -15061,7 +15296,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
@@ -15078,10 +15313,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>30</v>
@@ -15097,7 +15332,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
@@ -15114,7 +15349,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
@@ -15129,7 +15364,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
@@ -15144,7 +15379,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
@@ -15161,7 +15396,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
@@ -15176,7 +15411,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
@@ -15193,13 +15428,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -15287,7 +15522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
   <dimension ref="A1:P86"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -15365,7 +15600,7 @@
       <c r="B3" s="75"/>
       <c r="C3" s="75"/>
       <c r="D3" s="73" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E3" s="74"/>
       <c r="F3" s="74"/>
@@ -15452,7 +15687,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -15464,7 +15699,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
@@ -15479,7 +15714,7 @@
         <v>66</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -15496,13 +15731,13 @@
         <v>27</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>114</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>34</v>
@@ -15534,13 +15769,13 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>32</v>
@@ -15572,13 +15807,13 @@
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>37</v>
@@ -15608,13 +15843,13 @@
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>200</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>201</v>
@@ -15643,7 +15878,7 @@
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="14" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="14" t="s">
@@ -15682,10 +15917,10 @@
         <v>42</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="14" t="s">
@@ -15706,19 +15941,19 @@
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="10" t="s">
@@ -15734,7 +15969,7 @@
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
       <c r="O14" s="14" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="P14" s="1"/>
     </row>
@@ -15745,19 +15980,19 @@
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="14" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="14" t="s">
@@ -15798,7 +16033,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="14" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="N16" s="14"/>
       <c r="O16" s="10"/>
@@ -15814,7 +16049,7 @@
         <v>48</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>49</v>
@@ -15848,7 +16083,7 @@
         <v>51</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>52</v>
@@ -15879,23 +16114,23 @@
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="14" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="14" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
@@ -15943,23 +16178,23 @@
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="14" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="14" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
@@ -15975,21 +16210,21 @@
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="14" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="E22" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>393</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>400</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="10"/>
       <c r="J22" s="14" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -16024,7 +16259,7 @@
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="14" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="N23" s="14"/>
       <c r="O23" s="10"/>
@@ -16056,7 +16291,7 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="14" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N24" s="14"/>
       <c r="O24" s="10"/>
@@ -16072,7 +16307,7 @@
         <v>92</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>93</v>
@@ -16101,10 +16336,10 @@
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="14" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>95</v>
@@ -16136,7 +16371,7 @@
         <v>99</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>100</v>
@@ -16165,10 +16400,10 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="14" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>197</v>
@@ -16197,10 +16432,10 @@
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="14" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F29" s="14" t="s">
         <v>97</v>
@@ -16209,11 +16444,11 @@
         <v>98</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="14" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="K29" s="10">
         <v>1</v>
@@ -16231,16 +16466,16 @@
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="14" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="10"/>
@@ -16263,16 +16498,16 @@
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="14" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="10"/>
@@ -16295,16 +16530,16 @@
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="14" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="10"/>
@@ -16327,16 +16562,16 @@
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="14" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="H33" s="14"/>
       <c r="I33" s="10"/>
@@ -16359,16 +16594,16 @@
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="14" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="10"/>
@@ -16391,16 +16626,16 @@
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="14" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="10"/>
@@ -16426,7 +16661,7 @@
         <v>84</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F36" s="34" t="s">
         <v>85</v>
@@ -16435,13 +16670,13 @@
         <v>86</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="I36" s="33" t="s">
         <v>29</v>
       </c>
       <c r="J36" s="34" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="K36" s="33"/>
       <c r="L36" s="33"/>
@@ -16460,7 +16695,7 @@
         <v>67</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F37" s="14" t="s">
         <v>68</v>
@@ -16469,7 +16704,7 @@
         <v>69</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>29</v>
@@ -16491,16 +16726,16 @@
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="14" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="10" t="s">
@@ -16528,7 +16763,7 @@
         <v>70</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F39" s="14" t="s">
         <v>71</v>
@@ -16537,7 +16772,7 @@
         <v>72</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>29</v>
@@ -16564,7 +16799,7 @@
         <v>74</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F40" s="14" t="s">
         <v>75</v>
@@ -16573,7 +16808,7 @@
         <v>76</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>29</v>
@@ -16598,7 +16833,7 @@
         <v>78</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F41" s="14" t="s">
         <v>79</v>
@@ -16607,7 +16842,7 @@
         <v>80</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>29</v>
@@ -16634,7 +16869,7 @@
         <v>81</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F42" s="14" t="s">
         <v>82</v>
@@ -16643,7 +16878,7 @@
         <v>83</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>29</v>
@@ -16668,7 +16903,7 @@
         <v>87</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F43" s="14" t="s">
         <v>88</v>
@@ -16677,7 +16912,7 @@
         <v>10</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="I43" s="10"/>
       <c r="J43" s="14" t="s">
@@ -16739,7 +16974,7 @@
       </c>
       <c r="C47" s="53"/>
       <c r="D47" s="54" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="E47" s="55"/>
       <c r="F47" s="55"/>
@@ -16747,7 +16982,7 @@
         <v>173</v>
       </c>
       <c r="H47" s="54" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="I47" s="55"/>
       <c r="J47" s="56"/>
@@ -16756,7 +16991,7 @@
       </c>
       <c r="L47" s="58"/>
       <c r="M47" s="59" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="N47" s="60"/>
       <c r="O47" s="60"/>
@@ -16782,11 +17017,11 @@
       <c r="I48" s="55"/>
       <c r="J48" s="56"/>
       <c r="K48" s="57" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L48" s="58"/>
       <c r="M48" s="59" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N48" s="60"/>
       <c r="O48" s="60"/>
@@ -16795,19 +17030,19 @@
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="83"/>
       <c r="B49" s="52" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C49" s="53"/>
       <c r="D49" s="54" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="E49" s="55"/>
       <c r="F49" s="55"/>
       <c r="G49" s="26" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H49" s="55" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="I49" s="55"/>
       <c r="J49" s="56"/>
@@ -16836,7 +17071,7 @@
       </c>
       <c r="L50" s="58"/>
       <c r="M50" s="59" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="N50" s="60"/>
       <c r="O50" s="60"/>
@@ -16896,13 +17131,13 @@
         <v>1</v>
       </c>
       <c r="C53" s="49" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D53" s="50"/>
       <c r="E53" s="51"/>
       <c r="F53" s="3"/>
       <c r="G53" s="49" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="H53" s="51"/>
       <c r="I53" s="3"/>
@@ -16941,7 +17176,7 @@
       </c>
       <c r="C55" s="53"/>
       <c r="D55" s="54" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="E55" s="55"/>
       <c r="F55" s="55"/>
@@ -16956,7 +17191,7 @@
       </c>
       <c r="L55" s="58"/>
       <c r="M55" s="59" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="N55" s="60"/>
       <c r="O55" s="60"/>
@@ -16977,16 +17212,16 @@
         <v>3</v>
       </c>
       <c r="H56" s="54" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="I56" s="55"/>
       <c r="J56" s="56"/>
       <c r="K56" s="57" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L56" s="58"/>
       <c r="M56" s="59" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N56" s="60"/>
       <c r="O56" s="60"/>
@@ -16995,14 +17230,14 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="83"/>
       <c r="B57" s="52" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C57" s="53"/>
       <c r="D57" s="54"/>
       <c r="E57" s="55"/>
       <c r="F57" s="55"/>
       <c r="G57" s="26" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H57" s="55"/>
       <c r="I57" s="55"/>
@@ -17032,7 +17267,7 @@
       </c>
       <c r="L58" s="58"/>
       <c r="M58" s="59" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="N58" s="60"/>
       <c r="O58" s="60"/>
@@ -17092,13 +17327,13 @@
         <v>1</v>
       </c>
       <c r="C61" s="49" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="D61" s="50"/>
       <c r="E61" s="51"/>
       <c r="F61" s="3"/>
       <c r="G61" s="49" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="H61" s="51"/>
       <c r="I61" s="3"/>
@@ -17137,7 +17372,7 @@
       </c>
       <c r="C63" s="53"/>
       <c r="D63" s="54" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="E63" s="55"/>
       <c r="F63" s="55"/>
@@ -17152,7 +17387,7 @@
       </c>
       <c r="L63" s="58"/>
       <c r="M63" s="59" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="N63" s="60"/>
       <c r="O63" s="60"/>
@@ -17165,7 +17400,7 @@
       </c>
       <c r="C64" s="53"/>
       <c r="D64" s="54" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="E64" s="55"/>
       <c r="F64" s="55"/>
@@ -17173,16 +17408,16 @@
         <v>3</v>
       </c>
       <c r="H64" s="54" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="I64" s="55"/>
       <c r="J64" s="56"/>
       <c r="K64" s="57" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L64" s="58"/>
       <c r="M64" s="59" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N64" s="60"/>
       <c r="O64" s="60"/>
@@ -17191,14 +17426,14 @@
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="69"/>
       <c r="B65" s="52" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C65" s="53"/>
       <c r="D65" s="54"/>
       <c r="E65" s="55"/>
       <c r="F65" s="55"/>
       <c r="G65" s="26" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H65" s="55"/>
       <c r="I65" s="55"/>
@@ -17228,7 +17463,7 @@
       </c>
       <c r="L66" s="58"/>
       <c r="M66" s="59" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="N66" s="60"/>
       <c r="O66" s="60"/>
@@ -17288,13 +17523,13 @@
         <v>1</v>
       </c>
       <c r="C69" s="49" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D69" s="50"/>
       <c r="E69" s="51"/>
       <c r="F69" s="3"/>
       <c r="G69" s="49" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="H69" s="51"/>
       <c r="I69" s="3"/>
@@ -17333,7 +17568,7 @@
       </c>
       <c r="C71" s="53"/>
       <c r="D71" s="54" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="E71" s="55"/>
       <c r="F71" s="55"/>
@@ -17361,7 +17596,7 @@
       </c>
       <c r="C72" s="53"/>
       <c r="D72" s="54" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E72" s="55"/>
       <c r="F72" s="55"/>
@@ -17369,16 +17604,16 @@
         <v>3</v>
       </c>
       <c r="H72" s="54" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="I72" s="55"/>
       <c r="J72" s="56"/>
       <c r="K72" s="57" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L72" s="58"/>
       <c r="M72" s="59" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N72" s="60"/>
       <c r="O72" s="60"/>
@@ -17387,14 +17622,14 @@
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="69"/>
       <c r="B73" s="52" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C73" s="53"/>
       <c r="D73" s="54"/>
       <c r="E73" s="55"/>
       <c r="F73" s="55"/>
       <c r="G73" s="26" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H73" s="55"/>
       <c r="I73" s="55"/>
@@ -17424,7 +17659,7 @@
       </c>
       <c r="L74" s="58"/>
       <c r="M74" s="59" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="N74" s="60"/>
       <c r="O74" s="60"/>
@@ -17484,7 +17719,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="49" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="D77" s="50"/>
       <c r="E77" s="51"/>
@@ -17522,7 +17757,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="79" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B80" s="80"/>
       <c r="C80" s="80"/>
@@ -17545,7 +17780,7 @@
         <v>22</v>
       </c>
       <c r="B81" s="52" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C81" s="53"/>
       <c r="D81" s="52" t="s">
@@ -17559,12 +17794,12 @@
         <v>3</v>
       </c>
       <c r="H81" s="75" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="I81" s="75"/>
       <c r="J81" s="75"/>
       <c r="K81" s="52" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="L81" s="85"/>
       <c r="M81" s="85"/>
@@ -17577,17 +17812,17 @@
         <v>1</v>
       </c>
       <c r="B82" s="84" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C82" s="84"/>
       <c r="D82" s="84" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="E82" s="84"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="59" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="I82" s="60"/>
       <c r="J82" s="61"/>
@@ -17632,13 +17867,13 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B85" s="17" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C85" s="17"/>
     </row>
     <row r="86" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="70" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C86" s="71"/>
       <c r="D86" s="71"/>
@@ -17856,7 +18091,7 @@
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
       <c r="D1" s="73" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E1" s="74"/>
       <c r="F1" s="74"/>
@@ -17880,7 +18115,7 @@
       <c r="B2" s="75"/>
       <c r="C2" s="75"/>
       <c r="D2" s="73" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="E2" s="74"/>
       <c r="F2" s="74"/>
@@ -17889,7 +18124,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="J2" s="60"/>
       <c r="K2" s="60"/>
@@ -17926,7 +18161,7 @@
       <c r="B4" s="75"/>
       <c r="C4" s="75"/>
       <c r="D4" s="73" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="E4" s="74"/>
       <c r="F4" s="74"/>
@@ -17993,7 +18228,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -18005,7 +18240,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
@@ -18020,7 +18255,7 @@
         <v>66</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -18037,19 +18272,19 @@
         <v>27</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="10" t="s">
@@ -18077,7 +18312,7 @@
         <v>114</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>34</v>
@@ -18113,13 +18348,13 @@
         <v>205</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>206</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="10" t="s">
@@ -18131,7 +18366,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="14" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="N10" s="14"/>
       <c r="O10" s="10"/>
@@ -18144,14 +18379,14 @@
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="14" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="14" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="10" t="s">
@@ -18167,7 +18402,7 @@
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
       <c r="O11" s="10" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="P11" s="1"/>
     </row>
@@ -18178,14 +18413,14 @@
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="14" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="14" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="10"/>
@@ -18208,21 +18443,21 @@
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="14" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="14" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="10" t="s">
         <v>29</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -18238,14 +18473,14 @@
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="14" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="14" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="10"/>
@@ -18266,14 +18501,14 @@
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="14" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="14" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="10"/>
@@ -18299,7 +18534,7 @@
         <v>84</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F16" s="42" t="s">
         <v>85</v>
@@ -18308,13 +18543,13 @@
         <v>86</v>
       </c>
       <c r="H16" s="42" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="I16" s="41" t="s">
         <v>29</v>
       </c>
       <c r="J16" s="42" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="K16" s="41"/>
       <c r="L16" s="41"/>
@@ -18333,7 +18568,7 @@
         <v>67</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>68</v>
@@ -18342,7 +18577,7 @@
         <v>69</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>29</v>
@@ -18367,7 +18602,7 @@
         <v>70</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>71</v>
@@ -18376,7 +18611,7 @@
         <v>72</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>29</v>
@@ -18403,7 +18638,7 @@
         <v>74</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>75</v>
@@ -18412,7 +18647,7 @@
         <v>76</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>29</v>
@@ -18437,7 +18672,7 @@
         <v>78</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>79</v>
@@ -18446,7 +18681,7 @@
         <v>80</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>29</v>
@@ -18473,7 +18708,7 @@
         <v>81</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>82</v>
@@ -18482,7 +18717,7 @@
         <v>83</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>29</v>
@@ -18507,7 +18742,7 @@
         <v>87</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>88</v>
@@ -18516,7 +18751,7 @@
         <v>10</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="14" t="s">
@@ -18619,11 +18854,11 @@
       <c r="I27" s="55"/>
       <c r="J27" s="56"/>
       <c r="K27" s="57" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L27" s="58"/>
       <c r="M27" s="59" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N27" s="60"/>
       <c r="O27" s="60"/>
@@ -18632,14 +18867,14 @@
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="83"/>
       <c r="B28" s="52" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C28" s="53"/>
       <c r="D28" s="54"/>
       <c r="E28" s="55"/>
       <c r="F28" s="55"/>
       <c r="G28" s="26" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H28" s="55"/>
       <c r="I28" s="55"/>
@@ -18901,7 +19136,7 @@
       <c r="B3" s="75"/>
       <c r="C3" s="75"/>
       <c r="D3" s="73" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E3" s="74"/>
       <c r="F3" s="74"/>
@@ -18988,7 +19223,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -19000,7 +19235,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
@@ -19015,7 +19250,7 @@
         <v>66</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -19064,7 +19299,7 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>110</v>
@@ -19099,16 +19334,16 @@
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="14" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="10"/>
@@ -19122,7 +19357,7 @@
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="10" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="P10" s="1"/>
     </row>
@@ -19133,21 +19368,21 @@
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="14" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="14" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="14" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="K11" s="10">
         <v>1</v>
@@ -19156,7 +19391,7 @@
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
       <c r="O11" s="10" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="P11" s="1"/>
     </row>
@@ -19170,7 +19405,7 @@
         <v>84</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>85</v>
@@ -19179,13 +19414,13 @@
         <v>86</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>29</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -19204,7 +19439,7 @@
         <v>67</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>68</v>
@@ -19213,7 +19448,7 @@
         <v>69</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>29</v>
@@ -19238,7 +19473,7 @@
         <v>70</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>71</v>
@@ -19247,7 +19482,7 @@
         <v>72</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>29</v>
@@ -19274,7 +19509,7 @@
         <v>74</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>75</v>
@@ -19283,7 +19518,7 @@
         <v>76</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>29</v>
@@ -19308,7 +19543,7 @@
         <v>78</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>79</v>
@@ -19317,7 +19552,7 @@
         <v>80</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>29</v>
@@ -19344,7 +19579,7 @@
         <v>81</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>82</v>
@@ -19353,7 +19588,7 @@
         <v>83</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>29</v>
@@ -19378,7 +19613,7 @@
         <v>87</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>88</v>
@@ -19387,7 +19622,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="14" t="s">
@@ -19422,7 +19657,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="79" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B21" s="80"/>
       <c r="C21" s="80"/>
@@ -19445,7 +19680,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C22" s="53"/>
       <c r="D22" s="52" t="s">
@@ -19459,12 +19694,12 @@
         <v>3</v>
       </c>
       <c r="H22" s="75" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="I22" s="75"/>
       <c r="J22" s="75"/>
       <c r="K22" s="52" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="L22" s="85"/>
       <c r="M22" s="85"/>
@@ -19477,17 +19712,17 @@
         <v>1</v>
       </c>
       <c r="B23" s="84" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C23" s="84"/>
       <c r="D23" s="84" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="E23" s="84"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="59" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="I23" s="60"/>
       <c r="J23" s="61"/>
@@ -19564,8 +19799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2266CBF-16D7-4305-8E93-0AAD229883C5}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30:P30"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B18" sqref="A18:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -19642,7 +19877,7 @@
       <c r="B3" s="75"/>
       <c r="C3" s="75"/>
       <c r="D3" s="73" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="E3" s="74"/>
       <c r="F3" s="74"/>
@@ -19729,7 +19964,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -19741,7 +19976,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
@@ -19756,7 +19991,7 @@
         <v>66</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -19845,7 +20080,7 @@
         <v>67</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>68</v>
@@ -19854,7 +20089,7 @@
         <v>69</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>29</v>
@@ -19886,7 +20121,7 @@
         <v>72</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>29</v>
@@ -19920,7 +20155,7 @@
         <v>76</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>29</v>
@@ -19952,7 +20187,7 @@
         <v>80</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>29</v>
@@ -19986,7 +20221,7 @@
         <v>83</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>29</v>
@@ -20011,7 +20246,7 @@
         <v>87</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>88</v>
@@ -20020,7 +20255,7 @@
         <v>10</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="14" t="s">
@@ -20090,7 +20325,7 @@
         <v>173</v>
       </c>
       <c r="H18" s="54" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="I18" s="55"/>
       <c r="J18" s="56"/>
@@ -20125,11 +20360,11 @@
       <c r="I19" s="55"/>
       <c r="J19" s="56"/>
       <c r="K19" s="57" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L19" s="58"/>
       <c r="M19" s="59" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N19" s="60"/>
       <c r="O19" s="60"/>
@@ -20138,19 +20373,19 @@
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="83"/>
       <c r="B20" s="52" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C20" s="53"/>
       <c r="D20" s="54" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E20" s="55"/>
       <c r="F20" s="55"/>
       <c r="G20" s="26" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H20" s="55" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="I20" s="55"/>
       <c r="J20" s="56"/>
@@ -20179,7 +20414,7 @@
       </c>
       <c r="L21" s="58"/>
       <c r="M21" s="59" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="N21" s="60"/>
       <c r="O21" s="60"/>
@@ -20292,7 +20527,7 @@
         <v>173</v>
       </c>
       <c r="H26" s="54" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="I26" s="55"/>
       <c r="J26" s="56"/>
@@ -20327,11 +20562,11 @@
       <c r="I27" s="55"/>
       <c r="J27" s="56"/>
       <c r="K27" s="57" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L27" s="58"/>
       <c r="M27" s="59" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N27" s="60"/>
       <c r="O27" s="60"/>
@@ -20340,19 +20575,19 @@
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="83"/>
       <c r="B28" s="52" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C28" s="53"/>
       <c r="D28" s="54" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E28" s="55"/>
       <c r="F28" s="55"/>
       <c r="G28" s="26" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H28" s="55" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="I28" s="55"/>
       <c r="J28" s="56"/>
@@ -20381,7 +20616,7 @@
       </c>
       <c r="L29" s="58"/>
       <c r="M29" s="59" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="N29" s="60"/>
       <c r="O29" s="60"/>
@@ -20737,7 +20972,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -20749,7 +20984,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
@@ -20764,7 +20999,7 @@
         <v>66</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -20781,13 +21016,13 @@
         <v>27</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>28</v>
@@ -20886,14 +21121,14 @@
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="14" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="14" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="10" t="s">
@@ -20977,7 +21212,7 @@
         <v>67</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>68</v>
@@ -20986,7 +21221,7 @@
         <v>69</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>29</v>
@@ -21018,7 +21253,7 @@
         <v>72</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>29</v>
@@ -21052,7 +21287,7 @@
         <v>76</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>29</v>
@@ -21084,7 +21319,7 @@
         <v>80</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>29</v>
@@ -21118,7 +21353,7 @@
         <v>83</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>29</v>
@@ -21143,7 +21378,7 @@
         <v>87</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>88</v>
@@ -21152,7 +21387,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="14" t="s">
@@ -21240,7 +21475,7 @@
         <v>173</v>
       </c>
       <c r="H23" s="54" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="I23" s="55"/>
       <c r="J23" s="56"/>
@@ -21275,11 +21510,11 @@
       <c r="I24" s="55"/>
       <c r="J24" s="56"/>
       <c r="K24" s="57" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L24" s="58"/>
       <c r="M24" s="59" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N24" s="60"/>
       <c r="O24" s="60"/>
@@ -21288,19 +21523,19 @@
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="83"/>
       <c r="B25" s="57" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C25" s="58"/>
       <c r="D25" s="54" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E25" s="55"/>
       <c r="F25" s="55"/>
       <c r="G25" s="27" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H25" s="55" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="I25" s="55"/>
       <c r="J25" s="56"/>
@@ -21329,7 +21564,7 @@
       </c>
       <c r="L26" s="58"/>
       <c r="M26" s="59" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="N26" s="60"/>
       <c r="O26" s="60"/>
@@ -21475,11 +21710,11 @@
       <c r="I32" s="55"/>
       <c r="J32" s="56"/>
       <c r="K32" s="57" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L32" s="58"/>
       <c r="M32" s="59" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N32" s="60"/>
       <c r="O32" s="60"/>
@@ -21503,7 +21738,7 @@
       </c>
       <c r="L33" s="58"/>
       <c r="M33" s="59" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="N33" s="60"/>
       <c r="O33" s="60"/>
@@ -21717,7 +21952,7 @@
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
       <c r="D1" s="73" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E1" s="74"/>
       <c r="F1" s="74"/>
@@ -21741,7 +21976,7 @@
       <c r="B2" s="75"/>
       <c r="C2" s="75"/>
       <c r="D2" s="73" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E2" s="74"/>
       <c r="F2" s="74"/>
@@ -21750,7 +21985,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="J2" s="60"/>
       <c r="K2" s="60"/>
@@ -21767,7 +22002,7 @@
       <c r="B3" s="75"/>
       <c r="C3" s="75"/>
       <c r="D3" s="73" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="E3" s="74"/>
       <c r="F3" s="74"/>
@@ -21789,7 +22024,7 @@
       <c r="B4" s="75"/>
       <c r="C4" s="75"/>
       <c r="D4" s="73" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E4" s="74"/>
       <c r="F4" s="74"/>
@@ -21856,7 +22091,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -21868,7 +22103,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
@@ -21883,7 +22118,7 @@
         <v>66</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -21901,14 +22136,14 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="14" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="14" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="10" t="s">
@@ -21932,17 +22167,17 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="10" t="s">
@@ -21967,11 +22202,11 @@
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="14" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="14" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>141</v>
@@ -22034,7 +22269,7 @@
         <v>64</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="10" t="s">
@@ -22046,7 +22281,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="14" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="N12" s="14"/>
       <c r="O12" s="10"/>
@@ -22059,17 +22294,17 @@
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="14" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="14" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="14" t="s">
@@ -22091,18 +22326,18 @@
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="14" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="14" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="10" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>30</v>
@@ -22126,7 +22361,7 @@
         <v>67</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>68</v>
@@ -22135,7 +22370,7 @@
         <v>69</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>29</v>
@@ -22167,7 +22402,7 @@
         <v>72</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>29</v>
@@ -22201,7 +22436,7 @@
         <v>76</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>29</v>
@@ -22233,7 +22468,7 @@
         <v>80</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>29</v>
@@ -22267,7 +22502,7 @@
         <v>83</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>29</v>
@@ -22292,7 +22527,7 @@
         <v>87</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>88</v>
@@ -22301,7 +22536,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="14" t="s">

--- a/nop-auth/model/nop-auth.orm.xlsx
+++ b/nop-auth/model/nop-auth.orm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-auth\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92196FD9-B63A-44BD-809B-B35F60654576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E255F7-6B21-458B-9E95-819F85797AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="11" activeTab="13" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2671" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2675" uniqueCount="601">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8320,7 +8320,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A20"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8610,9 +8610,7 @@
       <c r="H10" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="I10" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="I10" s="10"/>
       <c r="J10" s="14" t="s">
         <v>30</v>
       </c>
@@ -8720,7 +8718,9 @@
         <v>7</v>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>309</v>
+      </c>
       <c r="D14" s="14" t="s">
         <v>597</v>
       </c>
@@ -8732,7 +8732,9 @@
         <v>599</v>
       </c>
       <c r="H14" s="14"/>
-      <c r="I14" s="10"/>
+      <c r="I14" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="J14" s="14" t="s">
         <v>77</v>
       </c>
@@ -8748,7 +8750,9 @@
         <v>8</v>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="C15" s="10" t="s">
+        <v>303</v>
+      </c>
       <c r="D15" s="14" t="s">
         <v>224</v>
       </c>
@@ -8760,7 +8764,9 @@
         <v>226</v>
       </c>
       <c r="H15" s="14"/>
-      <c r="I15" s="10"/>
+      <c r="I15" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="J15" s="14" t="s">
         <v>227</v>
       </c>
@@ -8788,7 +8794,9 @@
         <v>223</v>
       </c>
       <c r="H16" s="14"/>
-      <c r="I16" s="10"/>
+      <c r="I16" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="J16" s="14" t="s">
         <v>47</v>
       </c>
